--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\사용료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_GimaekBill\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="661">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1633,9 +1633,6 @@
   </si>
   <si>
     <t>조합변경 AJ_005 → AJ_015</t>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1660,9 +1657,6 @@
     <t>AN_534</t>
   </si>
   <si>
-    <t>조합 이동(AJ_005 → AJ_015)</t>
-  </si>
-  <si>
     <t>잔량체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2000,10 +1994,6 @@
   </si>
   <si>
     <t>화신아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용때문에 사용 안 한다고 함 010-9421-8188</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2032,6 +2022,50 @@
       </rPr>
       <t xml:space="preserve"> 2018-09-13부터배정</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남 아스콘 사업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구경북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2118,7 +2152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2148,6 +2182,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,793 +2475,802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C1" s="1">
-        <f>COUNTA(C2:C125)</f>
+    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <f>COUNTA(C3:C126)</f>
         <v>54</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" t="s">
-        <v>569</v>
-      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>596</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" t="s">
-        <v>610</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s">
-        <v>526</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="E52" t="s">
-        <v>550</v>
-      </c>
-      <c r="F52" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="E53" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F53" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>623</v>
+        <v>549</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>550</v>
+      </c>
+      <c r="F54" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E54" t="s">
+      <c r="C55" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" t="s">
+        <v>636</v>
+      </c>
+      <c r="F55" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" t="s">
         <v>638</v>
-      </c>
-      <c r="F54" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" t="s">
-        <v>641</v>
-      </c>
-      <c r="F56" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>639</v>
+      </c>
+      <c r="F57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>624</v>
+      </c>
+      <c r="G58" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="s">
         <v>627</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" t="s">
-        <v>626</v>
-      </c>
-      <c r="G57" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="E60" t="s">
         <v>642</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
+        <v>640</v>
+      </c>
+      <c r="G60" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" t="s">
-        <v>629</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="B62" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C62" t="s">
+        <v>546</v>
+      </c>
+      <c r="E62" t="s">
         <v>644</v>
       </c>
-      <c r="F59" t="s">
-        <v>642</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E63" t="s">
+        <v>646</v>
+      </c>
+      <c r="F63" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="B64" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="G64" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C61" t="s">
-        <v>548</v>
-      </c>
-      <c r="E61" t="s">
-        <v>646</v>
-      </c>
-      <c r="F61" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="H64" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
         <v>648</v>
       </c>
-      <c r="F62" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E68" t="s">
-        <v>650</v>
-      </c>
-      <c r="G68" t="s">
-        <v>651</v>
+      <c r="G69" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -3226,18 +3281,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
@@ -3248,1443 +3303,1452 @@
     <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="1">
-        <f>COUNTA(C2:C199)</f>
+    <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <f>COUNTA(C3:C200)</f>
         <v>70</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" t="s">
-        <v>535</v>
-      </c>
-      <c r="M2" t="s">
-        <v>251</v>
-      </c>
-      <c r="N2" t="s">
-        <v>250</v>
-      </c>
-      <c r="O2" t="s">
-        <v>536</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" t="s">
+        <v>534</v>
+      </c>
+      <c r="M3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" t="s">
         <v>250</v>
       </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>535</v>
-      </c>
-      <c r="M3" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" t="s">
-        <v>254</v>
-      </c>
-      <c r="O3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" t="s">
-        <v>252</v>
-      </c>
       <c r="K4" t="s">
+        <v>534</v>
+      </c>
+      <c r="M4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O4" t="s">
         <v>535</v>
-      </c>
-      <c r="M4" t="s">
-        <v>261</v>
-      </c>
-      <c r="N4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
         <v>253</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>252</v>
       </c>
-      <c r="I5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J5" t="s">
-        <v>262</v>
-      </c>
       <c r="K5" t="s">
+        <v>534</v>
+      </c>
+      <c r="M5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" t="s">
         <v>535</v>
-      </c>
-      <c r="M5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" t="s">
-        <v>170</v>
-      </c>
-      <c r="O5" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K6" t="s">
+        <v>534</v>
+      </c>
+      <c r="M6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" t="s">
         <v>535</v>
-      </c>
-      <c r="M6" t="s">
-        <v>164</v>
-      </c>
-      <c r="N6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="K7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M7" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" t="s">
         <v>535</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
+        <v>534</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>236</v>
+      </c>
+      <c r="O8" t="s">
         <v>535</v>
-      </c>
-      <c r="M8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="K9" t="s">
+        <v>534</v>
+      </c>
+      <c r="M9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" t="s">
         <v>535</v>
-      </c>
-      <c r="M9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N9" t="s">
-        <v>229</v>
-      </c>
-      <c r="O9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
+        <v>534</v>
+      </c>
+      <c r="M10" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" t="s">
+        <v>229</v>
+      </c>
+      <c r="O10" t="s">
         <v>535</v>
-      </c>
-      <c r="M10" t="s">
-        <v>160</v>
-      </c>
-      <c r="N10" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
+        <v>534</v>
+      </c>
+      <c r="M11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" t="s">
         <v>535</v>
-      </c>
-      <c r="M11" t="s">
-        <v>210</v>
-      </c>
-      <c r="N11" t="s">
-        <v>209</v>
-      </c>
-      <c r="O11" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K12" t="s">
+        <v>534</v>
+      </c>
+      <c r="M12" t="s">
+        <v>210</v>
+      </c>
+      <c r="N12" t="s">
+        <v>209</v>
+      </c>
+      <c r="O12" t="s">
         <v>535</v>
-      </c>
-      <c r="M12" t="s">
-        <v>186</v>
-      </c>
-      <c r="N12" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="K13" t="s">
+        <v>534</v>
+      </c>
+      <c r="M13" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13" t="s">
         <v>535</v>
-      </c>
-      <c r="M13" t="s">
-        <v>217</v>
-      </c>
-      <c r="N13" t="s">
-        <v>216</v>
-      </c>
-      <c r="O13" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="K14" t="s">
+        <v>534</v>
+      </c>
+      <c r="M14" t="s">
+        <v>217</v>
+      </c>
+      <c r="N14" t="s">
+        <v>216</v>
+      </c>
+      <c r="O14" t="s">
         <v>535</v>
-      </c>
-      <c r="M14" t="s">
-        <v>219</v>
-      </c>
-      <c r="N14" t="s">
-        <v>218</v>
-      </c>
-      <c r="O14" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
+        <v>534</v>
+      </c>
+      <c r="M15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N15" t="s">
+        <v>218</v>
+      </c>
+      <c r="O15" t="s">
         <v>535</v>
-      </c>
-      <c r="M15" t="s">
-        <v>221</v>
-      </c>
-      <c r="N15" t="s">
-        <v>220</v>
-      </c>
-      <c r="O15" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="K16" t="s">
+        <v>534</v>
+      </c>
+      <c r="M16" t="s">
+        <v>221</v>
+      </c>
+      <c r="N16" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" t="s">
         <v>535</v>
-      </c>
-      <c r="M16" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O16" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
+        <v>534</v>
+      </c>
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>222</v>
+      </c>
+      <c r="O17" t="s">
         <v>535</v>
-      </c>
-      <c r="M17" t="s">
-        <v>190</v>
-      </c>
-      <c r="N17" t="s">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s">
+        <v>534</v>
+      </c>
+      <c r="M18" t="s">
+        <v>190</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s">
         <v>535</v>
-      </c>
-      <c r="M18" t="s">
-        <v>212</v>
-      </c>
-      <c r="N18" t="s">
-        <v>211</v>
-      </c>
-      <c r="O18" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K19" t="s">
+        <v>534</v>
+      </c>
+      <c r="M19" t="s">
+        <v>212</v>
+      </c>
+      <c r="N19" t="s">
+        <v>211</v>
+      </c>
+      <c r="O19" t="s">
         <v>535</v>
-      </c>
-      <c r="M19" t="s">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s">
-        <v>214</v>
-      </c>
-      <c r="O19" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
+        <v>534</v>
+      </c>
+      <c r="M20" t="s">
+        <v>215</v>
+      </c>
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" t="s">
         <v>535</v>
-      </c>
-      <c r="M20" t="s">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
+        <v>534</v>
+      </c>
+      <c r="M21" t="s">
+        <v>200</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
         <v>535</v>
-      </c>
-      <c r="M21" t="s">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s">
-        <v>201</v>
-      </c>
-      <c r="O21" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
+        <v>534</v>
+      </c>
+      <c r="M22" t="s">
+        <v>202</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
         <v>535</v>
-      </c>
-      <c r="M22" t="s">
-        <v>204</v>
-      </c>
-      <c r="N22" t="s">
-        <v>203</v>
-      </c>
-      <c r="O22" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s">
+        <v>534</v>
+      </c>
+      <c r="M23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s">
         <v>535</v>
-      </c>
-      <c r="M23" t="s">
-        <v>206</v>
-      </c>
-      <c r="N23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O23" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s">
+        <v>534</v>
+      </c>
+      <c r="M24" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
         <v>535</v>
-      </c>
-      <c r="M24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>196</v>
-      </c>
-      <c r="O24" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
+        <v>534</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
         <v>535</v>
-      </c>
-      <c r="M25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" t="s">
-        <v>195</v>
-      </c>
-      <c r="O25" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
+        <v>534</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s">
         <v>535</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>165</v>
-      </c>
-      <c r="O26" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I27" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
+        <v>534</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" t="s">
         <v>535</v>
-      </c>
-      <c r="M27" t="s">
-        <v>167</v>
-      </c>
-      <c r="N27" t="s">
-        <v>166</v>
-      </c>
-      <c r="O27" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
+        <v>534</v>
+      </c>
+      <c r="M28" t="s">
+        <v>167</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="s">
         <v>535</v>
-      </c>
-      <c r="M28" t="s">
-        <v>267</v>
-      </c>
-      <c r="N28" t="s">
-        <v>266</v>
-      </c>
-      <c r="O28" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
+        <v>534</v>
+      </c>
+      <c r="M29" t="s">
+        <v>267</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
         <v>535</v>
-      </c>
-      <c r="M29" t="s">
-        <v>273</v>
-      </c>
-      <c r="N29" t="s">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s">
+        <v>534</v>
+      </c>
+      <c r="M30" t="s">
+        <v>273</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
         <v>535</v>
-      </c>
-      <c r="M30" t="s">
-        <v>64</v>
-      </c>
-      <c r="N30" t="s">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
+        <v>534</v>
+      </c>
+      <c r="M31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" t="s">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s">
         <v>535</v>
-      </c>
-      <c r="M31" t="s">
-        <v>169</v>
-      </c>
-      <c r="N31" t="s">
-        <v>168</v>
-      </c>
-      <c r="O31" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
+        <v>534</v>
+      </c>
+      <c r="M32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" t="s">
         <v>535</v>
-      </c>
-      <c r="M32" t="s">
-        <v>257</v>
-      </c>
-      <c r="N32" t="s">
-        <v>256</v>
-      </c>
-      <c r="O32" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s">
+        <v>534</v>
+      </c>
+      <c r="M33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" t="s">
         <v>535</v>
-      </c>
-      <c r="M33" t="s">
-        <v>259</v>
-      </c>
-      <c r="N33" t="s">
-        <v>258</v>
-      </c>
-      <c r="O33" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s">
+        <v>534</v>
+      </c>
+      <c r="M34" t="s">
+        <v>259</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I38" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="K38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>207</v>
+      </c>
+      <c r="I39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" t="s">
+        <v>237</v>
+      </c>
+      <c r="K39" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" t="s">
-        <v>537</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>440</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>167</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>555</v>
+      </c>
+      <c r="B57" t="s">
+        <v>556</v>
+      </c>
+      <c r="D57" t="s">
         <v>557</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E57" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>441</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
         <v>558</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E58" t="s">
         <v>559</v>
       </c>
-      <c r="E56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>441</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" t="s">
-        <v>560</v>
-      </c>
-      <c r="E57" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>442</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>267</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>443</v>
-      </c>
-      <c r="B59" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C62" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>542</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>539</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>537</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" t="s">
-        <v>533</v>
-      </c>
-      <c r="F71" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>391</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>259</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>258</v>
       </c>
-      <c r="E72" t="s">
-        <v>533</v>
-      </c>
-      <c r="F72" t="s">
-        <v>542</v>
+      <c r="E73" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4696,11 +4760,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4711,198 +4775,207 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="1">
-        <f>COUNTA(C2:C17)</f>
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <f>COUNTA(C3:C18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>454</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>455</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>456</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>457</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>458</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>459</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>284</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>460</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>461</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>462</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>463</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>464</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>465</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>466</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>278</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>467</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>527</v>
-      </c>
-      <c r="B16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C16" t="s">
-        <v>532</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>528</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>529</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>531</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>542</v>
+      <c r="D18" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4914,701 +4987,710 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C1" s="1">
-        <f>COUNTA(C2:C201)</f>
+    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <f>COUNTA(C3:C202)</f>
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>487</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>339</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>489</v>
-      </c>
-      <c r="B23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" t="s">
-        <v>335</v>
+      <c r="E23" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C45" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>370</v>
       </c>
       <c r="C47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B48" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>379</v>
+      </c>
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>524</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>381</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>566</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>564</v>
+      </c>
+      <c r="B60" t="s">
+        <v>563</v>
+      </c>
+      <c r="D60" t="s">
         <v>565</v>
       </c>
-      <c r="D59" t="s">
-        <v>567</v>
-      </c>
-      <c r="E59" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>525</v>
-      </c>
-      <c r="B60" t="s">
-        <v>303</v>
-      </c>
-      <c r="C60" t="s">
-        <v>302</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>562</v>
-      </c>
-      <c r="E60" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" t="s">
+        <v>560</v>
+      </c>
+      <c r="E61" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>542</v>
+      </c>
+      <c r="B62" t="s">
         <v>544</v>
       </c>
-      <c r="B61" t="s">
-        <v>546</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
+        <v>543</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_004" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="666">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1121,9 +1121,6 @@
     <t>(주)한중토건</t>
   </si>
   <si>
-    <t>100-361</t>
-  </si>
-  <si>
     <t>(주)진산아스콘</t>
   </si>
   <si>
@@ -1494,9 +1491,6 @@
   </si>
   <si>
     <t>AS_824</t>
-  </si>
-  <si>
-    <t>AS_826</t>
   </si>
   <si>
     <t>AS_827</t>
@@ -1671,13 +1665,6 @@
     <t>한국아레콘 주식회사</t>
   </si>
   <si>
-    <t>100-383</t>
-  </si>
-  <si>
-    <t>신규- 배정 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(주)한정</t>
   </si>
   <si>
@@ -1724,13 +1711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>← 보성유화㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_861</t>
-  </si>
-  <si>
     <t>AS_861 → AS_864</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1997,18 +1977,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남 아스콘 사업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구경북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)금호산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성유화㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_826에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규- 2018-09-21부터 배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은진산업㈜ </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">은진산업㈜ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>신규</t>
     </r>
     <r>
@@ -2020,52 +2076,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2018-09-13부터배정</t>
+      <t xml:space="preserve"> 2018-10-04부터배정</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전세종충남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주전남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영남 아스콘 사업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구경북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2138,12 +2150,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2152,7 +2179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2174,9 +2201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2192,8 +2216,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2475,807 +2517,987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="24.25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="1">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
         <f>COUNTA(C3:C126)</f>
-        <v>54</v>
-      </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15" t="s">
         <v>147</v>
       </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="15" t="s">
         <v>117</v>
       </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="15" t="s">
         <v>119</v>
       </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="15" t="s">
         <v>131</v>
       </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="F38" s="15"/>
       <c r="G38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B44" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B45" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="B46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="B47" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B48" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B49" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="B50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="B57" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B59" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="G60" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="F53" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" t="s">
-        <v>550</v>
-      </c>
-      <c r="F54" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C55" t="s">
-        <v>620</v>
-      </c>
-      <c r="E55" t="s">
-        <v>636</v>
-      </c>
-      <c r="F55" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C64" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="F57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>624</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="G64" s="8" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="H64" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="E60" t="s">
-        <v>642</v>
-      </c>
-      <c r="F60" t="s">
-        <v>640</v>
-      </c>
-      <c r="G60" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C62" t="s">
-        <v>546</v>
-      </c>
-      <c r="E62" t="s">
-        <v>644</v>
-      </c>
-      <c r="F62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="E63" t="s">
-        <v>646</v>
-      </c>
-      <c r="F63" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G69" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3304,12 +3526,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
-        <v>657</v>
+      <c r="A1" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3321,7 +3543,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>233</v>
@@ -3336,7 +3558,7 @@
         <v>232</v>
       </c>
       <c r="K3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M3" t="s">
         <v>251</v>
@@ -3345,12 +3567,12 @@
         <v>250</v>
       </c>
       <c r="O3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
         <v>251</v>
@@ -3365,7 +3587,7 @@
         <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M4" t="s">
         <v>255</v>
@@ -3374,12 +3596,12 @@
         <v>254</v>
       </c>
       <c r="O4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -3394,7 +3616,7 @@
         <v>252</v>
       </c>
       <c r="K5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M5" t="s">
         <v>261</v>
@@ -3403,12 +3625,12 @@
         <v>260</v>
       </c>
       <c r="O5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>253</v>
@@ -3423,7 +3645,7 @@
         <v>262</v>
       </c>
       <c r="K6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M6" t="s">
         <v>171</v>
@@ -3432,12 +3654,12 @@
         <v>170</v>
       </c>
       <c r="O6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
         <v>255</v>
@@ -3452,7 +3674,7 @@
         <v>264</v>
       </c>
       <c r="K7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M7" t="s">
         <v>164</v>
@@ -3461,12 +3683,12 @@
         <v>163</v>
       </c>
       <c r="O7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
         <v>261</v>
@@ -3481,7 +3703,7 @@
         <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -3490,12 +3712,12 @@
         <v>236</v>
       </c>
       <c r="O8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>263</v>
@@ -3510,7 +3732,7 @@
         <v>239</v>
       </c>
       <c r="K9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M9" t="s">
         <v>180</v>
@@ -3519,12 +3741,12 @@
         <v>179</v>
       </c>
       <c r="O9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
         <v>265</v>
@@ -3539,7 +3761,7 @@
         <v>173</v>
       </c>
       <c r="K10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M10" t="s">
         <v>230</v>
@@ -3548,12 +3770,12 @@
         <v>229</v>
       </c>
       <c r="O10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
         <v>171</v>
@@ -3568,7 +3790,7 @@
         <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M11" t="s">
         <v>160</v>
@@ -3577,12 +3799,12 @@
         <v>159</v>
       </c>
       <c r="O11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
@@ -3597,7 +3819,7 @@
         <v>175</v>
       </c>
       <c r="K12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M12" t="s">
         <v>210</v>
@@ -3606,12 +3828,12 @@
         <v>209</v>
       </c>
       <c r="O12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
         <v>238</v>
@@ -3626,7 +3848,7 @@
         <v>176</v>
       </c>
       <c r="K13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M13" t="s">
         <v>186</v>
@@ -3635,12 +3857,12 @@
         <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>240</v>
@@ -3655,7 +3877,7 @@
         <v>234</v>
       </c>
       <c r="K14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M14" t="s">
         <v>217</v>
@@ -3664,12 +3886,12 @@
         <v>216</v>
       </c>
       <c r="O14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
         <v>174</v>
@@ -3684,7 +3906,7 @@
         <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M15" t="s">
         <v>219</v>
@@ -3693,12 +3915,12 @@
         <v>218</v>
       </c>
       <c r="O15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
         <v>178</v>
@@ -3713,7 +3935,7 @@
         <v>231</v>
       </c>
       <c r="K16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M16" t="s">
         <v>221</v>
@@ -3722,12 +3944,12 @@
         <v>220</v>
       </c>
       <c r="O16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>164</v>
@@ -3742,7 +3964,7 @@
         <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M17" t="s">
         <v>5</v>
@@ -3751,12 +3973,12 @@
         <v>222</v>
       </c>
       <c r="O17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -3771,7 +3993,7 @@
         <v>223</v>
       </c>
       <c r="K18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M18" t="s">
         <v>190</v>
@@ -3780,12 +4002,12 @@
         <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -3800,7 +4022,7 @@
         <v>225</v>
       </c>
       <c r="K19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M19" t="s">
         <v>212</v>
@@ -3809,12 +4031,12 @@
         <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
         <v>235</v>
@@ -3829,7 +4051,7 @@
         <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M20" t="s">
         <v>215</v>
@@ -3838,12 +4060,12 @@
         <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -3858,7 +4080,7 @@
         <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M21" t="s">
         <v>200</v>
@@ -3867,12 +4089,12 @@
         <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B22" t="s">
         <v>180</v>
@@ -3887,7 +4109,7 @@
         <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M22" t="s">
         <v>202</v>
@@ -3896,12 +4118,12 @@
         <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B23" t="s">
         <v>182</v>
@@ -3916,7 +4138,7 @@
         <v>161</v>
       </c>
       <c r="K23" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M23" t="s">
         <v>204</v>
@@ -3925,12 +4147,12 @@
         <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -3945,7 +4167,7 @@
         <v>187</v>
       </c>
       <c r="K24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M24" t="s">
         <v>206</v>
@@ -3954,12 +4176,12 @@
         <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B25" t="s">
         <v>184</v>
@@ -3974,7 +4196,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M25" t="s">
         <v>4</v>
@@ -3983,12 +4205,12 @@
         <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B26" t="s">
         <v>224</v>
@@ -4003,7 +4225,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M26" t="s">
         <v>6</v>
@@ -4012,12 +4234,12 @@
         <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B27" t="s">
         <v>226</v>
@@ -4032,7 +4254,7 @@
         <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M27" t="s">
         <v>1</v>
@@ -4041,12 +4263,12 @@
         <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B28" t="s">
         <v>228</v>
@@ -4061,7 +4283,7 @@
         <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M28" t="s">
         <v>167</v>
@@ -4070,12 +4292,12 @@
         <v>166</v>
       </c>
       <c r="O28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B29" t="s">
         <v>230</v>
@@ -4090,7 +4312,7 @@
         <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M29" t="s">
         <v>267</v>
@@ -4099,12 +4321,12 @@
         <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B30" t="s">
         <v>160</v>
@@ -4119,7 +4341,7 @@
         <v>51</v>
       </c>
       <c r="K30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M30" t="s">
         <v>273</v>
@@ -4128,12 +4350,12 @@
         <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B31" t="s">
         <v>210</v>
@@ -4148,7 +4370,7 @@
         <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M31" t="s">
         <v>64</v>
@@ -4157,12 +4379,12 @@
         <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B32" t="s">
         <v>186</v>
@@ -4177,7 +4399,7 @@
         <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M32" t="s">
         <v>169</v>
@@ -4186,12 +4408,12 @@
         <v>168</v>
       </c>
       <c r="O32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B33" t="s">
         <v>217</v>
@@ -4206,7 +4428,7 @@
         <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M33" t="s">
         <v>257</v>
@@ -4215,12 +4437,12 @@
         <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
         <v>219</v>
@@ -4235,7 +4457,7 @@
         <v>241</v>
       </c>
       <c r="K34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M34" t="s">
         <v>259</v>
@@ -4244,12 +4466,12 @@
         <v>258</v>
       </c>
       <c r="O34" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B35" t="s">
         <v>221</v>
@@ -4264,12 +4486,12 @@
         <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -4284,12 +4506,12 @@
         <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B37" t="s">
         <v>190</v>
@@ -4304,12 +4526,12 @@
         <v>247</v>
       </c>
       <c r="K37" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B38" t="s">
         <v>192</v>
@@ -4324,12 +4546,12 @@
         <v>248</v>
       </c>
       <c r="K38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B39" t="s">
         <v>208</v>
@@ -4344,12 +4566,12 @@
         <v>237</v>
       </c>
       <c r="K39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B40" t="s">
         <v>162</v>
@@ -4360,7 +4582,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B41" t="s">
         <v>188</v>
@@ -4371,7 +4593,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s">
         <v>212</v>
@@ -4382,7 +4604,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s">
         <v>213</v>
@@ -4391,12 +4613,12 @@
         <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
         <v>215</v>
@@ -4407,7 +4629,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s">
         <v>193</v>
@@ -4418,7 +4640,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s">
         <v>198</v>
@@ -4429,7 +4651,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s">
         <v>200</v>
@@ -4440,7 +4662,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s">
         <v>202</v>
@@ -4451,7 +4673,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B49" t="s">
         <v>204</v>
@@ -4462,7 +4684,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B50" t="s">
         <v>206</v>
@@ -4473,7 +4695,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -4484,7 +4706,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -4495,7 +4717,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -4506,7 +4728,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -4517,7 +4739,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -4528,7 +4750,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
@@ -4539,21 +4761,21 @@
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B57" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D57" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E57" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -4562,15 +4784,15 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E58" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s">
         <v>267</v>
@@ -4581,7 +4803,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s">
         <v>269</v>
@@ -4592,7 +4814,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s">
         <v>270</v>
@@ -4603,7 +4825,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s">
         <v>271</v>
@@ -4614,7 +4836,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s">
         <v>273</v>
@@ -4625,7 +4847,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -4636,7 +4858,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s">
         <v>169</v>
@@ -4647,7 +4869,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s">
         <v>242</v>
@@ -4658,7 +4880,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s">
         <v>244</v>
@@ -4669,7 +4891,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s">
         <v>246</v>
@@ -4680,7 +4902,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s">
         <v>99</v>
@@ -4691,7 +4913,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s">
         <v>249</v>
@@ -4702,24 +4924,24 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B71" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C71" t="s">
+        <v>536</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B72" t="s">
         <v>257</v>
@@ -4728,15 +4950,15 @@
         <v>256</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s">
         <v>259</v>
@@ -4745,10 +4967,10 @@
         <v>258</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4776,12 +4998,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
-        <v>654</v>
+      <c r="A1" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4792,7 +5014,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
@@ -4803,7 +5025,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -4814,7 +5036,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4825,7 +5047,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -4836,7 +5058,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -4847,7 +5069,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
         <v>284</v>
@@ -4858,7 +5080,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4869,7 +5091,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -4880,7 +5102,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -4891,7 +5113,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -4902,7 +5124,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -4913,7 +5135,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -4924,7 +5146,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
         <v>278</v>
@@ -4935,7 +5157,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4946,36 +5168,36 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" t="s">
         <v>530</v>
       </c>
-      <c r="C17" t="s">
-        <v>532</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" t="s">
         <v>529</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>533</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4987,11 +5209,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4999,28 +5221,27 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
-        <v>653</v>
+      <c r="A1" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="1">
-        <f>COUNTA(C3:C202)</f>
-        <v>57</v>
+        <f>COUNTA(C3:C201)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>317</v>
@@ -5031,7 +5252,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -5042,7 +5263,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -5053,29 +5274,29 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>328</v>
@@ -5086,7 +5307,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -5097,7 +5318,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5108,7 +5329,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -5119,7 +5340,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -5130,7 +5351,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -5141,7 +5362,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
         <v>345</v>
@@ -5152,7 +5373,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
         <v>347</v>
@@ -5163,7 +5384,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -5174,7 +5395,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -5185,7 +5406,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -5196,7 +5417,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -5207,7 +5428,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -5218,7 +5439,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>244</v>
@@ -5229,7 +5450,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
         <v>339</v>
@@ -5240,7 +5461,7 @@
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>210</v>
@@ -5249,279 +5470,279 @@
         <v>334</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>659</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" t="s">
         <v>364</v>
-      </c>
-      <c r="C27" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B30" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B31" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B38" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C41" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" t="s">
         <v>368</v>
-      </c>
-      <c r="C46" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
         <v>370</v>
-      </c>
-      <c r="C47" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="C48" t="s">
         <v>371</v>
@@ -5529,168 +5750,182 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B49" t="s">
-        <v>373</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B51" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C53" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B57" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" t="s">
         <v>377</v>
-      </c>
-      <c r="C57" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>522</v>
+      </c>
+      <c r="B58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>558</v>
+      </c>
+      <c r="B59" t="s">
+        <v>557</v>
+      </c>
+      <c r="D59" t="s">
+        <v>559</v>
+      </c>
+      <c r="E59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>523</v>
       </c>
-      <c r="B58" t="s">
-        <v>379</v>
-      </c>
-      <c r="C58" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>524</v>
-      </c>
-      <c r="B59" t="s">
-        <v>381</v>
-      </c>
-      <c r="C59" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>564</v>
-      </c>
       <c r="B60" t="s">
-        <v>563</v>
+        <v>303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>565</v>
+        <v>658</v>
       </c>
       <c r="E60" t="s">
-        <v>562</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>662</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
-      </c>
-      <c r="D61" t="s">
-        <v>560</v>
-      </c>
-      <c r="E61" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>542</v>
+        <v>655</v>
       </c>
       <c r="B62" t="s">
-        <v>544</v>
-      </c>
-      <c r="D62" t="s">
-        <v>543</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>545</v>
+        <v>336</v>
+      </c>
+      <c r="E62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>660</v>
+      </c>
+      <c r="B63" t="s">
+        <v>656</v>
+      </c>
+      <c r="C63" t="s">
+        <v>654</v>
+      </c>
+      <c r="D63" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_004" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="667">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -2078,6 +2078,10 @@
       </rPr>
       <t xml:space="preserve"> 2018-10-04부터배정</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_826로 업체 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2522,7 +2526,7 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
@@ -5211,9 +5215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5910,6 +5914,9 @@
       <c r="B62" t="s">
         <v>336</v>
       </c>
+      <c r="D62" t="s">
+        <v>666</v>
+      </c>
       <c r="E62" t="s">
         <v>335</v>
       </c>
@@ -5926,6 +5933,9 @@
       </c>
       <c r="D63" t="s">
         <v>661</v>
+      </c>
+      <c r="E63" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_004" sheetId="21" r:id="rId1"/>
@@ -2037,19 +2037,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>← AS_861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100-361</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AS_866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_826에서 사업자 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2082,6 +2074,14 @@
   </si>
   <si>
     <t>AS_826로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_826에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_861에서 사업자 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,7 +2526,7 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
@@ -3472,10 +3472,10 @@
         <v>549</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>641</v>
@@ -5215,9 +5215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="1">
-        <f>COUNTA(C3:C201)</f>
+        <f>COUNTA(C3:C200)</f>
         <v>58</v>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
         <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C26" t="s">
         <v>363</v>
@@ -5887,35 +5887,38 @@
         <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E60" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>540</v>
+        <v>655</v>
       </c>
       <c r="B61" t="s">
-        <v>662</v>
-      </c>
-      <c r="C61" t="s">
-        <v>541</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="D61" t="s">
+        <v>664</v>
+      </c>
+      <c r="E61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B62" t="s">
-        <v>336</v>
+        <v>656</v>
+      </c>
+      <c r="C62" t="s">
+        <v>654</v>
       </c>
       <c r="D62" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E62" t="s">
         <v>335</v>
@@ -5923,19 +5926,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>540</v>
+      </c>
+      <c r="B63" t="s">
         <v>660</v>
       </c>
-      <c r="B63" t="s">
-        <v>656</v>
-      </c>
       <c r="C63" t="s">
-        <v>654</v>
-      </c>
-      <c r="D63" t="s">
+        <v>541</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="E63" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_004" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="668">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -2082,6 +2082,10 @@
   </si>
   <si>
     <t>← AS_861에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2154,7 +2158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2177,13 +2181,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2204,12 +2219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2232,13 +2241,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2526,9 +2538,9 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2542,872 +2554,875 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
         <f>COUNTA(C3:C126)</f>
         <v>55</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="13"/>
       <c r="G38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="G41" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
       <c r="G43" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="13" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="13" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="13" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="13" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="13" t="s">
         <v>381</v>
       </c>
+      <c r="G57" s="17" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="13" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="13" t="s">
         <v>634</v>
       </c>
       <c r="G60" t="s">
@@ -3415,78 +3430,78 @@
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="13" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="13" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="13" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="3" t="s">
         <v>627</v>
       </c>
     </row>
@@ -3501,7 +3516,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3530,11 +3545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5002,11 +5017,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>647</v>
       </c>
     </row>
@@ -5215,9 +5230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5229,11 +5244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>646</v>
       </c>
     </row>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_004" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="676">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1790,9 +1790,6 @@
   </si>
   <si>
     <t xml:space="preserve">AS_426  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_427  </t>
   </si>
   <si>
     <t xml:space="preserve">AS_428  </t>
@@ -2086,6 +2083,42 @@
   </si>
   <si>
     <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_427  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 금성아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_472  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 이후로 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_427  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이종례</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,7 +2231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2251,6 +2284,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2538,9 +2592,9 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2555,11 +2609,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2567,7 +2621,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="11">
         <f>COUNTA(C3:C126)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
@@ -2844,21 +2898,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="18" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>80</v>
@@ -2872,7 +2927,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>127</v>
@@ -2886,7 +2941,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>123</v>
@@ -2900,7 +2955,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>125</v>
@@ -2914,7 +2969,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>82</v>
@@ -2928,35 +2983,37 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="24" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>84</v>
@@ -2970,7 +3027,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>130</v>
@@ -2984,7 +3041,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>116</v>
@@ -3001,7 +3058,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>118</v>
@@ -3015,7 +3072,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>120</v>
@@ -3029,7 +3086,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>76</v>
@@ -3043,7 +3100,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>132</v>
@@ -3057,7 +3114,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>108</v>
@@ -3088,7 +3145,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>60</v>
@@ -3102,7 +3159,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>61</v>
@@ -3116,7 +3173,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>107</v>
@@ -3128,12 +3185,12 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>140</v>
@@ -3147,7 +3204,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>109</v>
@@ -3164,7 +3221,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>86</v>
@@ -3178,7 +3235,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>101</v>
@@ -3192,7 +3249,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>142</v>
@@ -3206,7 +3263,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>111</v>
@@ -3220,7 +3277,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>113</v>
@@ -3234,7 +3291,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>136</v>
@@ -3248,7 +3305,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>138</v>
@@ -3262,7 +3319,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>103</v>
@@ -3276,7 +3333,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>73</v>
@@ -3290,7 +3347,7 @@
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>547</v>
@@ -3301,7 +3358,7 @@
         <v>544</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3317,22 +3374,22 @@
         <v>546</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>616</v>
-      </c>
       <c r="C55" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>545</v>
@@ -3351,12 +3408,12 @@
         <v>67</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>143</v>
@@ -3366,35 +3423,35 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>381</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>82</v>
@@ -3405,28 +3462,28 @@
         <v>81</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G60" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -3442,12 +3499,12 @@
         <v>69</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>543</v>
@@ -3457,7 +3514,7 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>382</v>
@@ -3465,7 +3522,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>548</v>
@@ -3473,7 +3530,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>560</v>
@@ -3481,36 +3538,57 @@
     </row>
     <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>549</v>
       </c>
       <c r="C64" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>663</v>
-      </c>
       <c r="E64" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
         <v>641</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
-        <v>642</v>
-      </c>
       <c r="G69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3546,11 +3624,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4952,7 +5030,7 @@
         <v>536</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>538</v>
@@ -4969,7 +5047,7 @@
         <v>256</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>538</v>
@@ -4986,7 +5064,7 @@
         <v>258</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>538</v>
@@ -5018,11 +5096,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5230,7 +5308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
@@ -5245,11 +5323,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5519,7 +5597,7 @@
         <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C26" t="s">
         <v>363</v>
@@ -5902,21 +5980,21 @@
         <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B61" t="s">
         <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E61" t="s">
         <v>335</v>
@@ -5924,16 +6002,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B62" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E62" t="s">
         <v>335</v>
@@ -5944,13 +6022,13 @@
         <v>540</v>
       </c>
       <c r="B63" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C63" t="s">
         <v>541</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="679">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1903,9 +1903,6 @@
     <t xml:space="preserve">AS_467  </t>
   </si>
   <si>
-    <t>2018년 3월부터 사용료 부과 단은경</t>
-  </si>
-  <si>
     <t>(주)선우</t>
   </si>
   <si>
@@ -1919,9 +1916,6 @@
   </si>
   <si>
     <t xml:space="preserve">AS_471  </t>
-  </si>
-  <si>
-    <t>2018년 10월부터 사용료 부과 (사용료 담당자 이미성)</t>
   </si>
   <si>
     <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임 현철 이사)</t>
@@ -2118,7 +2112,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이종례</t>
+    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부강아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 부강레미콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년 04월부터 사용료 부과 (담당자 이종례)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,7 +2143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개 회원사&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2167,6 +2181,13 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2218,9 +2239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2231,7 +2250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2283,20 +2302,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2305,6 +2312,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2593,11 +2621,11 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="6"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
@@ -2607,16 +2635,16 @@
     <col min="7" max="7" width="56.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11">
@@ -2627,7 +2655,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>562</v>
       </c>
@@ -2641,7 +2669,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>564</v>
       </c>
@@ -2655,7 +2683,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>565</v>
       </c>
@@ -2669,7 +2697,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
         <v>566</v>
       </c>
@@ -2683,7 +2711,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>567</v>
       </c>
@@ -2697,7 +2725,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>568</v>
       </c>
@@ -2711,7 +2739,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>569</v>
       </c>
@@ -2725,7 +2753,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>570</v>
       </c>
@@ -2739,7 +2767,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
         <v>571</v>
       </c>
@@ -2753,7 +2781,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
         <v>572</v>
       </c>
@@ -2767,7 +2795,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
         <v>573</v>
       </c>
@@ -2781,7 +2809,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
         <v>574</v>
       </c>
@@ -2795,7 +2823,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
         <v>575</v>
       </c>
@@ -2809,7 +2837,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
         <v>576</v>
       </c>
@@ -2823,7 +2851,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
         <v>577</v>
       </c>
@@ -2837,7 +2865,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
         <v>578</v>
       </c>
@@ -2851,7 +2879,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>579</v>
       </c>
@@ -2865,7 +2893,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>580</v>
       </c>
@@ -2882,7 +2910,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>581</v>
       </c>
@@ -2896,9 +2924,9 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>129</v>
@@ -2907,11 +2935,11 @@
       <c r="E22" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
         <v>582</v>
       </c>
@@ -2925,7 +2953,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>583</v>
       </c>
@@ -2939,7 +2967,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
         <v>584</v>
       </c>
@@ -2953,7 +2981,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>585</v>
       </c>
@@ -2967,7 +2995,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="10" t="s">
         <v>586</v>
       </c>
@@ -2981,7 +3009,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>588</v>
       </c>
@@ -2995,23 +3023,23 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>590</v>
       </c>
@@ -3025,7 +3053,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="10" t="s">
         <v>591</v>
       </c>
@@ -3039,7 +3067,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="10" t="s">
         <v>592</v>
       </c>
@@ -3056,7 +3084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="10" t="s">
         <v>593</v>
       </c>
@@ -3070,7 +3098,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>594</v>
       </c>
@@ -3084,511 +3112,533 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="10" t="s">
-        <v>597</v>
+        <v>383</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C37" s="13"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="10" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" s="10" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" s="10" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>547</v>
+        <v>74</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="10" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="13"/>
+        <v>615</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>613</v>
+      </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" s="10" t="s">
-        <v>614</v>
+        <v>381</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>613</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="10" t="s">
-        <v>381</v>
+        <v>616</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="F56" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1">
+      <c r="A58" s="10" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
+      <c r="B58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" t="s">
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="s">
-        <v>81</v>
+        <v>633</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="G59" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" s="10" t="s">
-        <v>621</v>
+        <v>382</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>620</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>635</v>
+        <v>69</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="G60" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="10" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>382</v>
-      </c>
       <c r="B61" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="13"/>
+        <v>543</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>542</v>
+      </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>69</v>
+        <v>635</v>
       </c>
       <c r="F61" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1">
+      <c r="A62" s="10" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>623</v>
-      </c>
       <c r="B62" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>542</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
         <v>637</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="3" customFormat="1">
+      <c r="A63" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13" t="s">
+      <c r="F63" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="3" customFormat="1">
+      <c r="A64" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="24" customFormat="1">
+      <c r="A65" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" s="3" customFormat="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="3" customFormat="1">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="E69" t="s">
         <v>639</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>671</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
-        <v>641</v>
-      </c>
       <c r="G69" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3657,7 @@
       <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -3622,23 +3672,23 @@
     <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="C2" s="1">
         <f>COUNTA(C3:C200)</f>
         <v>70</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -3667,7 +3717,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -3696,7 +3746,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>386</v>
       </c>
@@ -3725,7 +3775,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>387</v>
       </c>
@@ -3754,7 +3804,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>388</v>
       </c>
@@ -3783,7 +3833,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>391</v>
       </c>
@@ -3812,7 +3862,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -3841,7 +3891,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>393</v>
       </c>
@@ -3870,7 +3920,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -3899,7 +3949,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>395</v>
       </c>
@@ -3928,7 +3978,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>396</v>
       </c>
@@ -3957,7 +4007,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -3986,7 +4036,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>398</v>
       </c>
@@ -4015,7 +4065,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>399</v>
       </c>
@@ -4044,7 +4094,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -4073,7 +4123,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -4102,7 +4152,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -4131,7 +4181,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -4160,7 +4210,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>404</v>
       </c>
@@ -4189,7 +4239,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>405</v>
       </c>
@@ -4218,7 +4268,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -4247,7 +4297,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>407</v>
       </c>
@@ -4276,7 +4326,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>408</v>
       </c>
@@ -4305,7 +4355,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>409</v>
       </c>
@@ -4334,7 +4384,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -4363,7 +4413,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>411</v>
       </c>
@@ -4392,7 +4442,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>412</v>
       </c>
@@ -4421,7 +4471,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>413</v>
       </c>
@@ -4450,7 +4500,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>414</v>
       </c>
@@ -4479,7 +4529,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -4508,7 +4558,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>416</v>
       </c>
@@ -4537,7 +4587,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>417</v>
       </c>
@@ -4566,7 +4616,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>418</v>
       </c>
@@ -4586,7 +4636,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -4606,7 +4656,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>420</v>
       </c>
@@ -4626,7 +4676,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>421</v>
       </c>
@@ -4646,7 +4696,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>422</v>
       </c>
@@ -4666,7 +4716,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>423</v>
       </c>
@@ -4677,7 +4727,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>424</v>
       </c>
@@ -4688,7 +4738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -4699,7 +4749,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>426</v>
       </c>
@@ -4713,7 +4763,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>427</v>
       </c>
@@ -4724,7 +4774,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>428</v>
       </c>
@@ -4735,7 +4785,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>429</v>
       </c>
@@ -4746,7 +4796,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>430</v>
       </c>
@@ -4757,7 +4807,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>431</v>
       </c>
@@ -4768,7 +4818,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>432</v>
       </c>
@@ -4779,7 +4829,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>433</v>
       </c>
@@ -4790,7 +4840,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>434</v>
       </c>
@@ -4801,7 +4851,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>435</v>
       </c>
@@ -4812,7 +4862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>436</v>
       </c>
@@ -4823,7 +4873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -4834,7 +4884,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -4845,7 +4895,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>439</v>
       </c>
@@ -4856,7 +4906,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>551</v>
       </c>
@@ -4870,7 +4920,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>440</v>
       </c>
@@ -4887,7 +4937,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>441</v>
       </c>
@@ -4898,7 +4948,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>442</v>
       </c>
@@ -4909,7 +4959,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>443</v>
       </c>
@@ -4920,7 +4970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>444</v>
       </c>
@@ -4931,7 +4981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>445</v>
       </c>
@@ -4942,7 +4992,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>446</v>
       </c>
@@ -4953,7 +5003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>447</v>
       </c>
@@ -4964,7 +5014,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>448</v>
       </c>
@@ -4975,7 +5025,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>449</v>
       </c>
@@ -4986,7 +5036,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>450</v>
       </c>
@@ -4997,7 +5047,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>451</v>
       </c>
@@ -5008,7 +5058,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>452</v>
       </c>
@@ -5019,7 +5069,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>537</v>
       </c>
@@ -5030,13 +5080,13 @@
         <v>536</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>389</v>
       </c>
@@ -5047,13 +5097,13 @@
         <v>256</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>390</v>
       </c>
@@ -5064,7 +5114,7 @@
         <v>258</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>538</v>
@@ -5086,7 +5136,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -5094,22 +5144,22 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="C2" s="1">
         <f>COUNTA(C3:C18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -5120,7 +5170,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -5131,7 +5181,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -5142,7 +5192,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -5153,7 +5203,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -5164,7 +5214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -5175,7 +5225,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -5186,7 +5236,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>460</v>
       </c>
@@ -5197,7 +5247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>461</v>
       </c>
@@ -5208,7 +5258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5219,7 +5269,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>463</v>
       </c>
@@ -5230,7 +5280,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -5241,7 +5291,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -5252,7 +5302,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -5263,7 +5313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>525</v>
       </c>
@@ -5280,7 +5330,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>526</v>
       </c>
@@ -5313,7 +5363,7 @@
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -5321,22 +5371,22 @@
     <col min="4" max="5" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="C2" s="1">
         <f>COUNTA(C3:C200)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>467</v>
       </c>
@@ -5347,7 +5397,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -5358,7 +5408,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>469</v>
       </c>
@@ -5369,7 +5419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -5380,7 +5430,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -5391,7 +5441,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -5402,7 +5452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>473</v>
       </c>
@@ -5413,7 +5463,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -5424,7 +5474,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>475</v>
       </c>
@@ -5435,7 +5485,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>476</v>
       </c>
@@ -5446,7 +5496,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>477</v>
       </c>
@@ -5457,7 +5507,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>478</v>
       </c>
@@ -5468,7 +5518,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>479</v>
       </c>
@@ -5479,7 +5529,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>480</v>
       </c>
@@ -5490,7 +5540,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>481</v>
       </c>
@@ -5501,7 +5551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>482</v>
       </c>
@@ -5512,7 +5562,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>483</v>
       </c>
@@ -5523,7 +5573,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>484</v>
       </c>
@@ -5534,7 +5584,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>485</v>
       </c>
@@ -5545,7 +5595,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>486</v>
       </c>
@@ -5556,7 +5606,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="3" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
         <v>487</v>
       </c>
@@ -5570,7 +5620,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>488</v>
       </c>
@@ -5581,7 +5631,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>489</v>
       </c>
@@ -5592,18 +5642,18 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C26" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>491</v>
       </c>
@@ -5614,7 +5664,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>492</v>
       </c>
@@ -5625,7 +5675,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>493</v>
       </c>
@@ -5636,7 +5686,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>494</v>
       </c>
@@ -5647,7 +5697,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>495</v>
       </c>
@@ -5658,7 +5708,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>496</v>
       </c>
@@ -5669,7 +5719,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>497</v>
       </c>
@@ -5680,7 +5730,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>498</v>
       </c>
@@ -5691,7 +5741,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>499</v>
       </c>
@@ -5702,7 +5752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>500</v>
       </c>
@@ -5713,7 +5763,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>501</v>
       </c>
@@ -5724,7 +5774,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>502</v>
       </c>
@@ -5735,7 +5785,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>503</v>
       </c>
@@ -5746,7 +5796,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>504</v>
       </c>
@@ -5757,7 +5807,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>505</v>
       </c>
@@ -5768,7 +5818,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>506</v>
       </c>
@@ -5779,7 +5829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>507</v>
       </c>
@@ -5790,7 +5840,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -5801,7 +5851,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>509</v>
       </c>
@@ -5812,7 +5862,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>510</v>
       </c>
@@ -5823,7 +5873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>511</v>
       </c>
@@ -5834,7 +5884,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>512</v>
       </c>
@@ -5845,7 +5895,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>513</v>
       </c>
@@ -5856,7 +5906,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>514</v>
       </c>
@@ -5867,7 +5917,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>515</v>
       </c>
@@ -5878,7 +5928,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>516</v>
       </c>
@@ -5889,7 +5939,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>517</v>
       </c>
@@ -5900,7 +5950,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>518</v>
       </c>
@@ -5911,7 +5961,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>519</v>
       </c>
@@ -5922,7 +5972,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>520</v>
       </c>
@@ -5933,7 +5983,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>521</v>
       </c>
@@ -5944,7 +5994,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>522</v>
       </c>
@@ -5955,7 +6005,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>558</v>
       </c>
@@ -5969,7 +6019,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>523</v>
       </c>
@@ -5980,55 +6030,55 @@
         <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E60" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B61" t="s">
         <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E61" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B62" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C62" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>540</v>
       </c>
       <c r="B63" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C63" t="s">
         <v>541</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AJ_004" sheetId="21" r:id="rId1"/>
-    <sheet name="AJ_005" sheetId="19" r:id="rId2"/>
-    <sheet name="AJ_015" sheetId="16" r:id="rId3"/>
-    <sheet name="AJ_008" sheetId="9" r:id="rId4"/>
+    <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
+    <sheet name="AJ_004" sheetId="21" r:id="rId2"/>
+    <sheet name="AJ_005" sheetId="19" r:id="rId3"/>
+    <sheet name="AJ_015" sheetId="16" r:id="rId4"/>
+    <sheet name="AJ_008" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="849">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1732,192 +1733,30 @@
     <t>대덕아스콘환경(주)</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_402  </t>
-  </si>
-  <si>
     <t>100-105</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_403  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_404  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_405  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_406  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_407  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_410  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_411  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_412  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_413  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_415  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_416  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_419  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_420  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_421  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_423  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_424  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_425  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_426  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_428  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_429  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_430  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_431  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_432  </t>
-  </si>
-  <si>
     <t>인평산업(주)</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_434  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_435  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_436  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_437  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_438  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_439  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_440  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_441  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_442  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_445  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_447  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_448  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_450  </t>
-  </si>
-  <si>
     <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_451  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_452  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_453  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_454  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_455  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_456  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_458  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_460  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_461  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_462  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_463  </t>
-  </si>
-  <si>
     <t>(주)한덕산업</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_465  </t>
-  </si>
-  <si>
     <t>100-578</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_466  </t>
-  </si>
-  <si>
     <t>(주)유림테크</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_467  </t>
-  </si>
-  <si>
     <t>(주)선우</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_468  </t>
-  </si>
-  <si>
     <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
   </si>
   <si>
-    <t xml:space="preserve">AS_469  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_471  </t>
-  </si>
-  <si>
     <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임 현철 이사)</t>
   </si>
   <si>
@@ -2047,23 +1886,6 @@
     <t xml:space="preserve">은진산업㈜ </t>
   </si>
   <si>
-    <r>
-      <t>신규</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2018-10-04부터배정</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AS_826로 업체 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2088,30 +1910,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>← 금성아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 이후로 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">AS_427  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>← 금성아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_472  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 이후로 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_427  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2132,7 +1946,752 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019년 04월부터 사용료 부과 (담당자 이종례)</t>
+    <t>AS_470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사 케이알아스콘</t>
+  </si>
+  <si>
+    <t>100-583</t>
+  </si>
+  <si>
+    <t>010-8629-1450 (임종성 부장)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-584</t>
+  </si>
+  <si>
+    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472</t>
+  </si>
+  <si>
+    <t>AS_441</t>
+  </si>
+  <si>
+    <t>AS_402</t>
+  </si>
+  <si>
+    <t>AS_403</t>
+  </si>
+  <si>
+    <t>AS_404</t>
+  </si>
+  <si>
+    <t>AS_405</t>
+  </si>
+  <si>
+    <t>AS_406</t>
+  </si>
+  <si>
+    <t>AS_407</t>
+  </si>
+  <si>
+    <t>AS_410</t>
+  </si>
+  <si>
+    <t>AS_411</t>
+  </si>
+  <si>
+    <t>AS_412</t>
+  </si>
+  <si>
+    <t>AS_413</t>
+  </si>
+  <si>
+    <t>AS_415</t>
+  </si>
+  <si>
+    <t>AS_416</t>
+  </si>
+  <si>
+    <t>AS_419</t>
+  </si>
+  <si>
+    <t>AS_420</t>
+  </si>
+  <si>
+    <t>AS_421</t>
+  </si>
+  <si>
+    <t>AS_423</t>
+  </si>
+  <si>
+    <t>AS_424</t>
+  </si>
+  <si>
+    <t>AS_425</t>
+  </si>
+  <si>
+    <t>AS_426</t>
+  </si>
+  <si>
+    <t>AS_427</t>
+  </si>
+  <si>
+    <t>AS_428</t>
+  </si>
+  <si>
+    <t>AS_429</t>
+  </si>
+  <si>
+    <t>AS_430</t>
+  </si>
+  <si>
+    <t>AS_431</t>
+  </si>
+  <si>
+    <t>AS_432</t>
+  </si>
+  <si>
+    <t>AS_434</t>
+  </si>
+  <si>
+    <t>AS_435</t>
+  </si>
+  <si>
+    <t>AS_436</t>
+  </si>
+  <si>
+    <t>AS_437</t>
+  </si>
+  <si>
+    <t>AS_438</t>
+  </si>
+  <si>
+    <t>AS_439</t>
+  </si>
+  <si>
+    <t>AS_440</t>
+  </si>
+  <si>
+    <t>AS_442</t>
+  </si>
+  <si>
+    <t>AS_445</t>
+  </si>
+  <si>
+    <t>AS_447</t>
+  </si>
+  <si>
+    <t>AS_448</t>
+  </si>
+  <si>
+    <t>AS_450</t>
+  </si>
+  <si>
+    <t>AS_451</t>
+  </si>
+  <si>
+    <t>AS_452</t>
+  </si>
+  <si>
+    <t>AS_453</t>
+  </si>
+  <si>
+    <t>AS_454</t>
+  </si>
+  <si>
+    <t>AS_455</t>
+  </si>
+  <si>
+    <t>AS_456</t>
+  </si>
+  <si>
+    <t>AS_458</t>
+  </si>
+  <si>
+    <t>AS_460</t>
+  </si>
+  <si>
+    <t>AS_461</t>
+  </si>
+  <si>
+    <t>AS_462</t>
+  </si>
+  <si>
+    <t>AS_463</t>
+  </si>
+  <si>
+    <t>AS_465</t>
+  </si>
+  <si>
+    <t>AS_466</t>
+  </si>
+  <si>
+    <t>AS_467</t>
+  </si>
+  <si>
+    <t>AS_468</t>
+  </si>
+  <si>
+    <t>AS_469</t>
+  </si>
+  <si>
+    <t>AS_471</t>
+  </si>
+  <si>
+    <t>2019년 04월부터 사용료 부과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (담당자 이종례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관급담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_301 </t>
+  </si>
+  <si>
+    <t>옥산아스콘(주)</t>
+  </si>
+  <si>
+    <t>강은영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권이관 부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_302 </t>
+  </si>
+  <si>
+    <t>100-224</t>
+  </si>
+  <si>
+    <t>신양산업개발(주)</t>
+  </si>
+  <si>
+    <t>허춘강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2924-0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_303 </t>
+  </si>
+  <si>
+    <t>100-408</t>
+  </si>
+  <si>
+    <t>이현산업개발(주)</t>
+  </si>
+  <si>
+    <t>최재영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_304 </t>
+  </si>
+  <si>
+    <t>100-206</t>
+  </si>
+  <si>
+    <t>석광아스콘(주)</t>
+  </si>
+  <si>
+    <t>오상균 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥진산업(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이덕희 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_308</t>
+  </si>
+  <si>
+    <t>(주)대흥아스콘개발</t>
+  </si>
+  <si>
+    <t>김병대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_311</t>
+  </si>
+  <si>
+    <t>100-109</t>
+  </si>
+  <si>
+    <t>부경아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽헌규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_313</t>
+  </si>
+  <si>
+    <t>100-111</t>
+  </si>
+  <si>
+    <t>성신산업(주)</t>
+  </si>
+  <si>
+    <t>양미경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_315</t>
+  </si>
+  <si>
+    <t>100-114</t>
+  </si>
+  <si>
+    <t>(주)창조아스콘</t>
+  </si>
+  <si>
+    <t>서민석 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_316</t>
+  </si>
+  <si>
+    <t>100-201</t>
+  </si>
+  <si>
+    <t>대성개발(주)</t>
+  </si>
+  <si>
+    <t>최재동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_317</t>
+  </si>
+  <si>
+    <t>100-202</t>
+  </si>
+  <si>
+    <t>익산건설(주)</t>
+  </si>
+  <si>
+    <t>박원규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_318</t>
+  </si>
+  <si>
+    <t>성광아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_319</t>
+  </si>
+  <si>
+    <t>100-212</t>
+  </si>
+  <si>
+    <t>(주)청오아스콘</t>
+  </si>
+  <si>
+    <t>서정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_330</t>
+  </si>
+  <si>
+    <t>100-303</t>
+  </si>
+  <si>
+    <t>(주)태하산업</t>
+  </si>
+  <si>
+    <t>AS_320</t>
+  </si>
+  <si>
+    <t>100-215</t>
+  </si>
+  <si>
+    <t>괴산아스콘(주)</t>
+  </si>
+  <si>
+    <t>김미숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_322</t>
+  </si>
+  <si>
+    <t>100-218</t>
+  </si>
+  <si>
+    <t>우리도시산업(주)</t>
+  </si>
+  <si>
+    <t>홍민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_323</t>
+  </si>
+  <si>
+    <t>100-219</t>
+  </si>
+  <si>
+    <t>서일아스콘(주)</t>
+  </si>
+  <si>
+    <t>김기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_324</t>
+  </si>
+  <si>
+    <t>100-220</t>
+  </si>
+  <si>
+    <t>(합자)해룡</t>
+  </si>
+  <si>
+    <t>곽준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_326</t>
+  </si>
+  <si>
+    <t>100-222</t>
+  </si>
+  <si>
+    <t>우진환경개발(주)</t>
+  </si>
+  <si>
+    <t>한창환 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_329</t>
+  </si>
+  <si>
+    <t>100-302</t>
+  </si>
+  <si>
+    <t>보은아스콘(주)</t>
+  </si>
+  <si>
+    <t>이장효 실장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_336</t>
+  </si>
+  <si>
+    <t>100-403</t>
+  </si>
+  <si>
+    <t>(주)대신아스콘</t>
+  </si>
+  <si>
+    <t>서영숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-304</t>
+  </si>
+  <si>
+    <t>대한아스콘(주)</t>
+  </si>
+  <si>
+    <t>여직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채과장님 출장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_309</t>
+  </si>
+  <si>
+    <t>(주)석진산업</t>
+  </si>
+  <si>
+    <t>박예슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_310</t>
+  </si>
+  <si>
+    <t>태창산업(주)</t>
+  </si>
+  <si>
+    <t>우용미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_312</t>
+  </si>
+  <si>
+    <t>100-110</t>
+  </si>
+  <si>
+    <t>충주아스콘(주)</t>
+  </si>
+  <si>
+    <t>황아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_314</t>
+  </si>
+  <si>
+    <t>100-113</t>
+  </si>
+  <si>
+    <t>(주)성안</t>
+  </si>
+  <si>
+    <t>최정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_321</t>
+  </si>
+  <si>
+    <t>100-217</t>
+  </si>
+  <si>
+    <t>(주)대아산업</t>
+  </si>
+  <si>
+    <t>조경아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장중근 상무</t>
+  </si>
+  <si>
+    <t>AS_327</t>
+  </si>
+  <si>
+    <t>100-223</t>
+  </si>
+  <si>
+    <t>김수원 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_328</t>
+  </si>
+  <si>
+    <t>100-301</t>
+  </si>
+  <si>
+    <t>대동산업(주)</t>
+  </si>
+  <si>
+    <t>김기홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_331</t>
+  </si>
+  <si>
+    <t>100-307</t>
+  </si>
+  <si>
+    <t>(주)일양</t>
+  </si>
+  <si>
+    <t>김호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황을득 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_333</t>
+  </si>
+  <si>
+    <t>100-309</t>
+  </si>
+  <si>
+    <t>대진아스콘(주)</t>
+  </si>
+  <si>
+    <t>임주열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤대중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_332</t>
+  </si>
+  <si>
+    <t>100-308</t>
+  </si>
+  <si>
+    <t>옥천아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_334</t>
+  </si>
+  <si>
+    <t>(자)효신아스콘</t>
+  </si>
+  <si>
+    <t>서명숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_335</t>
+  </si>
+  <si>
+    <t>100-402</t>
+  </si>
+  <si>
+    <t>(주)한일아스콘</t>
+  </si>
+  <si>
+    <t>최성숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_337</t>
+  </si>
+  <si>
+    <t>(주)아원</t>
+  </si>
+  <si>
+    <t>김중찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_338</t>
+  </si>
+  <si>
+    <t>제일산업(주)</t>
+  </si>
+  <si>
+    <t>엄주희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_339</t>
+  </si>
+  <si>
+    <t>금성개발(주)</t>
+  </si>
+  <si>
+    <t>이신성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서상덕 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_325</t>
+  </si>
+  <si>
+    <t>100-221</t>
+  </si>
+  <si>
+    <t>(주)청주아스콘</t>
+  </si>
+  <si>
+    <t>한주아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세현 상무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2143,7 +2702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개 회원사&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2191,6 +2750,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2212,7 +2786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2239,9 +2813,293 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2250,7 +3108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2287,24 +3145,12 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,23 +3163,188 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2615,1045 +3626,1817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="24.25" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10"/>
+    <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
+      <c r="B1" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" customFormat="1">
+      <c r="A2" s="19"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11">
-        <f>COUNTA(C3:C126)</f>
-        <v>54</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
+        <f>COUNTA(D3:D113)</f>
+        <v>38</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="44" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="74" t="s">
+        <v>848</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="72" t="s">
+        <v>698</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="45" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="45"/>
+      <c r="B6" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="61" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="45"/>
+      <c r="B7" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>710</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
+        <v>711</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="45" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="45"/>
+      <c r="B8" s="58" t="s">
+        <v>713</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>715</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="45"/>
+      <c r="B9" s="58" t="s">
+        <v>717</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60" t="s">
+        <v>720</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="45"/>
+      <c r="B10" s="58" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>723</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60" t="s">
+        <v>724</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="45"/>
+      <c r="B11" s="58" t="s">
+        <v>725</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>726</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60" t="s">
+        <v>728</v>
+      </c>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="45"/>
+      <c r="B12" s="58" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>730</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60" t="s">
+        <v>732</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="45"/>
+      <c r="B13" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>734</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
+        <v>736</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="74" t="s">
+        <v>848</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>740</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="72" t="s">
+        <v>743</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>744</v>
+      </c>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="75"/>
+      <c r="B16" s="69" t="s">
+        <v>745</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>746</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>747</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="45"/>
+      <c r="B17" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="61" t="s">
+        <v>751</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="45"/>
+      <c r="B18" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>753</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>754</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
+        <v>755</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="45"/>
+      <c r="B19" s="58" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>758</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>759</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="45"/>
+      <c r="B20" s="58" t="s">
+        <v>761</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>762</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>763</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="45"/>
+      <c r="B21" s="58" t="s">
+        <v>766</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>767</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>768</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="62" t="s">
+        <v>769</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="45"/>
+      <c r="B22" s="58" t="s">
+        <v>770</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>771</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>772</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="45"/>
+      <c r="B23" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>775</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>776</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60" t="s">
+        <v>777</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="45"/>
+      <c r="B24" s="58" t="s">
+        <v>778</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>779</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>780</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="62" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="45" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="45"/>
+      <c r="B25" s="58" t="s">
+        <v>783</v>
+      </c>
+      <c r="C25" s="58" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="D25" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="45"/>
+      <c r="B26" s="58" t="s">
+        <v>786</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="D26" s="59" t="s">
+        <v>787</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="45"/>
+      <c r="B27" s="58" t="s">
+        <v>790</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>791</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>792</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60" t="s">
+        <v>793</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="45"/>
+      <c r="B28" s="58" t="s">
+        <v>794</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>795</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>796</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="G28" s="60"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="45"/>
+      <c r="B29" s="58" t="s">
+        <v>798</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>799</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>800</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60" t="s">
+        <v>801</v>
+      </c>
+      <c r="G29" s="60"/>
+      <c r="H29" s="45" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="45"/>
+      <c r="B30" s="58" t="s">
+        <v>803</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>804</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="G30" s="60"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="45"/>
+      <c r="B31" s="58" t="s">
+        <v>806</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>807</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>808</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60" t="s">
+        <v>809</v>
+      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>812</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49" t="s">
+        <v>813</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="74" t="s">
+        <v>848</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>817</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="72" t="s">
+        <v>818</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>819</v>
+      </c>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="75"/>
+      <c r="B34" s="69" t="s">
+        <v>820</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="45"/>
+      <c r="B35" s="56" t="s">
+        <v>823</v>
+      </c>
+      <c r="C35" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="D35" s="57" t="s">
+        <v>824</v>
+      </c>
+      <c r="E35" s="57"/>
+      <c r="F35" s="61" t="s">
+        <v>825</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A36" s="45"/>
+      <c r="B36" s="47" t="s">
+        <v>826</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>827</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>828</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="45" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="74" t="s">
+        <v>848</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>831</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="D37" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="64" t="s">
+        <v>833</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A38" s="75"/>
+      <c r="B38" s="69" t="s">
+        <v>834</v>
+      </c>
+      <c r="C38" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="D38" s="54" t="s">
+        <v>835</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="65" t="s">
+        <v>836</v>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="45"/>
+      <c r="B39" s="56" t="s">
+        <v>837</v>
+      </c>
+      <c r="C39" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" hidden="1">
-      <c r="A37" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" hidden="1">
-      <c r="A52" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1">
-      <c r="A53" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>613</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1">
-      <c r="A55" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1">
-      <c r="A58" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="G59" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1">
-      <c r="A60" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1">
-      <c r="A62" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="3" customFormat="1">
-      <c r="A63" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="3" customFormat="1">
-      <c r="A64" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="24" customFormat="1">
-      <c r="A65" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" s="3" customFormat="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="3" customFormat="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="E69" t="s">
-        <v>639</v>
-      </c>
-      <c r="G69" t="s">
-        <v>650</v>
-      </c>
+      <c r="D39" s="57" t="s">
+        <v>838</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="61" t="s">
+        <v>839</v>
+      </c>
+      <c r="G39" s="61"/>
+      <c r="H39" s="45" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="45"/>
+      <c r="B40" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>843</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="G40" s="60"/>
+      <c r="H40" s="45" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="45"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F15:F16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.25" customWidth="1"/>
+    <col min="9" max="9" width="56.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="39" customHeight="1">
+      <c r="B1" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
+        <f>COUNTA(D3:D115)</f>
+        <v>55</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" hidden="1">
+      <c r="B35" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="H38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="H40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
+      <c r="B49" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
+      <c r="B50" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
+      <c r="B52" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="H54" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="B55" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="H56" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
+      <c r="B57" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
+      <c r="B59" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A60" s="26"/>
+      <c r="B60" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="76" t="s">
+        <v>687</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="37"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="77"/>
+      <c r="B62" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="42"/>
+    </row>
+    <row r="63" spans="1:9" s="18" customFormat="1">
+      <c r="A63" s="77"/>
+      <c r="B63" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="20" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A64" s="78"/>
+      <c r="B64" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="5" customFormat="1">
+      <c r="A65" s="66"/>
+      <c r="B65" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="20" customFormat="1">
+      <c r="A66" s="67"/>
+      <c r="B66" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="20" customFormat="1">
+      <c r="A67" s="67"/>
+      <c r="B67" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="H67" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="E71" t="s">
+        <v>585</v>
+      </c>
+      <c r="H71" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A61:A64"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
@@ -3674,11 +5457,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>647</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5080,7 +6863,7 @@
         <v>536</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>538</v>
@@ -5097,7 +6880,7 @@
         <v>256</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>649</v>
+        <v>595</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>538</v>
@@ -5114,7 +6897,7 @@
         <v>258</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>649</v>
+        <v>595</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>538</v>
@@ -5127,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -5146,11 +6929,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>645</v>
+        <v>591</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>644</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5354,7 +7137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -5373,11 +7156,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>642</v>
+        <v>588</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>643</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5647,7 +7430,7 @@
         <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="C26" t="s">
         <v>363</v>
@@ -6030,21 +7813,21 @@
         <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="E60" t="s">
-        <v>654</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>652</v>
+        <v>598</v>
       </c>
       <c r="B61" t="s">
         <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>661</v>
+        <v>606</v>
       </c>
       <c r="E61" t="s">
         <v>335</v>
@@ -6052,16 +7835,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="B62" t="s">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="C62" t="s">
-        <v>651</v>
+        <v>597</v>
       </c>
       <c r="D62" t="s">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="E62" t="s">
         <v>335</v>
@@ -6072,13 +7855,13 @@
         <v>540</v>
       </c>
       <c r="B63" t="s">
-        <v>657</v>
+        <v>603</v>
       </c>
       <c r="C63" t="s">
         <v>541</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>658</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="855">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -435,9 +435,6 @@
     <t>대림공영(주)</t>
   </si>
   <si>
-    <t>대주개발(주)</t>
-  </si>
-  <si>
     <t>100-574</t>
   </si>
   <si>
@@ -2692,6 +2689,34 @@
   </si>
   <si>
     <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_460</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2766,7 +2791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2782,6 +2807,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,7 +3139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3214,9 +3245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3235,9 +3263,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3345,6 +3370,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3634,23 +3674,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="7.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3665,743 +3705,743 @@
         <v>38</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>689</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45" t="s">
         <v>690</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>691</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47" t="s">
         <v>692</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="43" t="s">
         <v>693</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="45" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="72" t="s">
+        <v>847</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="74" t="s">
-        <v>848</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="C4" s="48" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>696</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="70" t="s">
         <v>697</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="72" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="45" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A5" s="73"/>
+      <c r="B5" s="67" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="69" t="s">
+      <c r="C5" s="51" t="s">
         <v>700</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>701</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="45" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="43"/>
+      <c r="B6" s="54" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="45"/>
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>704</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>705</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="61" t="s">
+      <c r="G6" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="43"/>
+      <c r="B7" s="56" t="s">
         <v>708</v>
       </c>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="45"/>
-      <c r="B7" s="58" t="s">
+      <c r="C7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="59" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58" t="s">
         <v>710</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="43" t="s">
         <v>711</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="45" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="43"/>
+      <c r="B8" s="56" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="58" t="s">
+      <c r="C8" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>713</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="59" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="58" t="s">
         <v>714</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="G8" s="58" t="s">
         <v>715</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="43"/>
+      <c r="B9" s="56" t="s">
         <v>716</v>
       </c>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="45"/>
-      <c r="B9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>717</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="D9" s="57" t="s">
         <v>718</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="58" t="s">
         <v>719</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="43"/>
+      <c r="B10" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="45"/>
-      <c r="B10" s="58" t="s">
+      <c r="C10" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>722</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="58" t="s">
         <v>723</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60" t="s">
+      <c r="G10" s="58"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="43"/>
+      <c r="B11" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="45"/>
-      <c r="B11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58" t="s">
         <v>727</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60" t="s">
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43"/>
+      <c r="B12" s="56" t="s">
         <v>728</v>
       </c>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="45"/>
-      <c r="B12" s="58" t="s">
+      <c r="C12" s="56" t="s">
         <v>729</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="58" t="s">
         <v>731</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60" t="s">
+      <c r="G12" s="58"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43"/>
+      <c r="B13" s="56" t="s">
         <v>732</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="45"/>
-      <c r="B13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>733</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>734</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="58" t="s">
         <v>735</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="45" t="s">
         <v>736</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47" t="s">
+      <c r="C14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="48" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="72" t="s">
+        <v>847</v>
+      </c>
+      <c r="B15" s="66" t="s">
         <v>739</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="74" t="s">
-        <v>848</v>
-      </c>
-      <c r="B15" s="68" t="s">
+      <c r="C15" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>741</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="70" t="s">
         <v>742</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="72" t="s">
+      <c r="G15" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="67" t="s">
         <v>744</v>
       </c>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="69" t="s">
+      <c r="C16" s="51" t="s">
         <v>745</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="54" t="s">
         <v>747</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="45"/>
-      <c r="B17" s="56" t="s">
+      <c r="C17" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>749</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="59" t="s">
         <v>750</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="61" t="s">
+      <c r="G17" s="59"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="45"/>
-      <c r="B18" s="58" t="s">
+      <c r="C18" s="56" t="s">
         <v>752</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>753</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58" t="s">
         <v>754</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="H18" s="43" t="s">
         <v>755</v>
       </c>
-      <c r="H18" s="45" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="56" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="45"/>
-      <c r="B19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>757</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="D19" s="57" t="s">
         <v>758</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="E19" s="57"/>
+      <c r="F19" s="58" t="s">
         <v>759</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60" t="s">
+      <c r="G19" s="58"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43"/>
+      <c r="B20" s="56" t="s">
         <v>760</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="45"/>
-      <c r="B20" s="58" t="s">
+      <c r="C20" s="56" t="s">
         <v>761</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>762</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58" t="s">
         <v>763</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60" t="s">
+      <c r="H20" s="43" t="s">
         <v>764</v>
       </c>
-      <c r="H20" s="45" t="s">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" s="56" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="45"/>
-      <c r="B21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>766</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="D21" s="57" t="s">
         <v>767</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="60" t="s">
         <v>768</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="62" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="56" t="s">
         <v>769</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="45"/>
-      <c r="B22" s="58" t="s">
+      <c r="C22" s="56" t="s">
         <v>770</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>771</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="58" t="s">
         <v>772</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60" t="s">
+      <c r="G22" s="58"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" s="56" t="s">
         <v>773</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="45"/>
-      <c r="B23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>774</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="D23" s="57" t="s">
         <v>775</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="58" t="s">
         <v>776</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="s">
+      <c r="G23" s="58"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="56" t="s">
         <v>777</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="45"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="45"/>
-      <c r="B24" s="58" t="s">
+      <c r="C24" s="56" t="s">
         <v>778</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="D24" s="57" t="s">
         <v>779</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="60" t="s">
         <v>780</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="62" t="s">
+      <c r="G24" s="60"/>
+      <c r="H24" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="45" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" s="56" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="45"/>
-      <c r="B25" s="58" t="s">
+      <c r="C25" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" s="57" t="s">
         <v>783</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>562</v>
-      </c>
-      <c r="D25" s="59" t="s">
+      <c r="E25" s="57"/>
+      <c r="F25" s="60" t="s">
         <v>784</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="62" t="s">
+      <c r="G25" s="60"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" s="56" t="s">
         <v>785</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="45"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="45"/>
-      <c r="B26" s="58" t="s">
+      <c r="C26" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="57" t="s">
         <v>786</v>
       </c>
-      <c r="C26" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="59" t="s">
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58" t="s">
         <v>787</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60" t="s">
+      <c r="H26" s="43" t="s">
         <v>788</v>
       </c>
-      <c r="H26" s="45" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" s="56" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="45"/>
-      <c r="B27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>790</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>791</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="E27" s="57"/>
+      <c r="F27" s="58" t="s">
         <v>792</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60" t="s">
+      <c r="G27" s="58"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" s="56" t="s">
         <v>793</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="45"/>
-      <c r="B28" s="58" t="s">
+      <c r="C28" s="56" t="s">
         <v>794</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="D28" s="57" t="s">
         <v>795</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="58" t="s">
         <v>796</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60" t="s">
+      <c r="G28" s="58"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43"/>
+      <c r="B29" s="56" t="s">
         <v>797</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="45"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="45"/>
-      <c r="B29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>798</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>799</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="E29" s="57"/>
+      <c r="F29" s="58" t="s">
         <v>800</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60" t="s">
+      <c r="G29" s="58"/>
+      <c r="H29" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="45" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43"/>
+      <c r="B30" s="56" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="45"/>
-      <c r="B30" s="58" t="s">
+      <c r="C30" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="D30" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58" t="s">
         <v>804</v>
       </c>
-      <c r="D30" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60" t="s">
+      <c r="G30" s="58"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" s="56" t="s">
         <v>805</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="45"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="45"/>
-      <c r="B31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>807</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="E31" s="57"/>
+      <c r="F31" s="58" t="s">
         <v>808</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60" t="s">
+      <c r="G31" s="58"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47" t="s">
+      <c r="C32" s="45" t="s">
         <v>810</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="D32" s="46" t="s">
         <v>811</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47" t="s">
         <v>812</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49" t="s">
+      <c r="H32" s="61" t="s">
         <v>813</v>
       </c>
-      <c r="H32" s="63" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="72" t="s">
+        <v>847</v>
+      </c>
+      <c r="B33" s="66" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="74" t="s">
-        <v>848</v>
-      </c>
-      <c r="B33" s="68" t="s">
+      <c r="C33" s="48" t="s">
         <v>815</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>816</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="E33" s="49"/>
+      <c r="F33" s="70" t="s">
         <v>817</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="72" t="s">
+      <c r="G33" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="73"/>
+      <c r="B34" s="67" t="s">
         <v>819</v>
       </c>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="69" t="s">
+      <c r="C34" s="51" t="s">
         <v>820</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="D34" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="E34" s="52"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="43"/>
+      <c r="B35" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="45"/>
-      <c r="B35" s="56" t="s">
+      <c r="C35" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>823</v>
       </c>
-      <c r="C35" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="57" t="s">
+      <c r="E35" s="55"/>
+      <c r="F35" s="59" t="s">
         <v>824</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="61" t="s">
+      <c r="G35" s="59"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="45" t="s">
         <v>825</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="45"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="47" t="s">
+      <c r="C36" s="45" t="s">
         <v>826</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="D36" s="46" t="s">
         <v>827</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="47" t="s">
         <v>828</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49" t="s">
+      <c r="G36" s="47"/>
+      <c r="H36" s="43" t="s">
         <v>829</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="45" t="s">
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="72" t="s">
+        <v>847</v>
+      </c>
+      <c r="B37" s="66" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="74" t="s">
-        <v>848</v>
-      </c>
-      <c r="B37" s="68" t="s">
+      <c r="C37" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="51" t="s">
+      <c r="E37" s="49"/>
+      <c r="F37" s="62" t="s">
         <v>832</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="64" t="s">
+      <c r="G37" s="50"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A38" s="73"/>
+      <c r="B38" s="67" t="s">
         <v>833</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="45"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="75"/>
-      <c r="B38" s="69" t="s">
+      <c r="C38" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="52" t="s">
         <v>834</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="54" t="s">
+      <c r="E38" s="52"/>
+      <c r="F38" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="65" t="s">
+      <c r="G38" s="53"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="54" t="s">
         <v>836</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="45"/>
-      <c r="B39" s="56" t="s">
+      <c r="C39" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="55" t="s">
         <v>837</v>
       </c>
-      <c r="C39" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="57" t="s">
+      <c r="E39" s="55"/>
+      <c r="F39" s="59" t="s">
         <v>838</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="61" t="s">
+      <c r="G39" s="59"/>
+      <c r="H39" s="43" t="s">
         <v>839</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="45" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="56" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="45"/>
-      <c r="B40" s="58" t="s">
+      <c r="C40" s="56" t="s">
         <v>841</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="D40" s="57" t="s">
         <v>842</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="58" t="s">
         <v>843</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60" t="s">
+      <c r="G40" s="58"/>
+      <c r="H40" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="45" t="s">
-        <v>845</v>
-      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="45"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4424,11 +4464,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4445,18 +4485,18 @@
   <sheetData>
     <row r="1" spans="2:6" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11">
-        <f>COUNTA(D3:D115)</f>
+        <f>COUNTA(D3:D116)</f>
         <v>55</v>
       </c>
       <c r="E2" s="12"/>
@@ -4464,20 +4504,20 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>105</v>
@@ -4490,7 +4530,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>88</v>
@@ -4503,7 +4543,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>90</v>
@@ -4516,33 +4556,33 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>93</v>
@@ -4555,7 +4595,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4568,7 +4608,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>17</v>
@@ -4581,7 +4621,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
@@ -4594,7 +4634,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>26</v>
@@ -4607,7 +4647,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>95</v>
@@ -4620,20 +4660,20 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
@@ -4646,23 +4686,23 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>40</v>
@@ -4672,7 +4712,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>99</v>
@@ -4685,36 +4725,36 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>80</v>
@@ -4727,7 +4767,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>127</v>
@@ -4740,7 +4780,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>123</v>
@@ -4753,7 +4793,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>125</v>
@@ -4766,7 +4806,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>82</v>
@@ -4779,21 +4819,21 @@
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:8" hidden="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>78</v>
@@ -4803,12 +4843,12 @@
         <v>77</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>84</v>
@@ -4821,7 +4861,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>130</v>
@@ -4834,7 +4874,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>116</v>
@@ -4850,7 +4890,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>118</v>
@@ -4863,7 +4903,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>120</v>
@@ -4876,7 +4916,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>132</v>
@@ -4889,7 +4929,7 @@
     </row>
     <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>20</v>
@@ -4905,7 +4945,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
@@ -4918,7 +4958,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>61</v>
@@ -4931,7 +4971,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>107</v>
@@ -4942,25 +4982,25 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="H38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>109</v>
@@ -4971,12 +5011,12 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="H40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>86</v>
@@ -4989,7 +5029,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>101</v>
@@ -5002,20 +5042,20 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>111</v>
@@ -5028,7 +5068,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>113</v>
@@ -5041,20 +5081,20 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>103</v>
@@ -5067,7 +5107,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>73</v>
@@ -5080,54 +5120,54 @@
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="B49" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="B50" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1">
       <c r="B52" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>68</v>
@@ -5137,49 +5177,49 @@
         <v>67</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="H54" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="B55" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>82</v>
@@ -5189,32 +5229,32 @@
         <v>81</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="H56" t="s">
         <v>568</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="H56" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1">
       <c r="B57" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>70</v>
@@ -5224,71 +5264,71 @@
         <v>69</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="B59" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="26"/>
       <c r="B60" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="76" t="s">
-        <v>687</v>
+      <c r="A61" s="74" t="s">
+        <v>686</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>108</v>
@@ -5297,133 +5337,153 @@
         <v>38</v>
       </c>
       <c r="E61" s="34"/>
-      <c r="F61" s="37"/>
+      <c r="F61" s="36"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="77"/>
-      <c r="B62" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="A62" s="75"/>
+      <c r="B62" s="77" t="s">
+        <v>674</v>
+      </c>
+      <c r="C62" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="42"/>
-    </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
-      <c r="A63" s="77"/>
-      <c r="B63" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="C63" s="27" t="s">
+      <c r="D62" s="79"/>
+      <c r="E62" s="80" t="s">
+        <v>852</v>
+      </c>
+      <c r="F62" s="81" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="75"/>
+      <c r="B63" s="77" t="s">
+        <v>848</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>849</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="E63" s="79" t="s">
+        <v>853</v>
+      </c>
+      <c r="F63" s="81" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1">
+      <c r="A64" s="75"/>
+      <c r="B64" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="C64" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="F63" s="43" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="F64" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="20" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A64" s="78"/>
-      <c r="B64" s="22" t="s">
+    <row r="65" spans="1:9" s="20" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A65" s="76"/>
+      <c r="B65" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="D65" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I65" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="D64" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="E64" s="24" t="s">
+    </row>
+    <row r="66" spans="1:9" s="5" customFormat="1">
+      <c r="A66" s="64"/>
+      <c r="B66" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="20" customFormat="1">
+      <c r="A67" s="65"/>
+      <c r="B67" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="20" customFormat="1">
+      <c r="A68" s="65"/>
+      <c r="B68" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1">
-      <c r="A65" s="66"/>
-      <c r="B65" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="20" customFormat="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>612</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="20" customFormat="1">
-      <c r="A67" s="67"/>
-      <c r="B67" s="28" t="s">
+      <c r="C68" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="H68" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="I68" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="D67" s="29" t="s">
-        <v>622</v>
-      </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="H67" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="E71" t="s">
-        <v>585</v>
-      </c>
-      <c r="H71" t="s">
-        <v>596</v>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="E72" t="s">
+        <v>584</v>
+      </c>
+      <c r="H72" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A61:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5457,11 +5517,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5473,42 +5533,42 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" t="s">
         <v>232</v>
       </c>
-      <c r="I3" t="s">
-        <v>233</v>
-      </c>
       <c r="J3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K3" t="s">
+        <v>531</v>
+      </c>
+      <c r="M3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" t="s">
         <v>532</v>
-      </c>
-      <c r="M3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" t="s">
-        <v>250</v>
-      </c>
-      <c r="O3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -5517,21 +5577,21 @@
         <v>49</v>
       </c>
       <c r="K4" t="s">
+        <v>531</v>
+      </c>
+      <c r="M4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O4" t="s">
         <v>532</v>
-      </c>
-      <c r="M4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5540,700 +5600,700 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
+        <v>531</v>
+      </c>
+      <c r="M5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" t="s">
         <v>532</v>
-      </c>
-      <c r="M5" t="s">
-        <v>261</v>
-      </c>
-      <c r="N5" t="s">
-        <v>260</v>
-      </c>
-      <c r="O5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K6" t="s">
+        <v>531</v>
+      </c>
+      <c r="M6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" t="s">
         <v>532</v>
-      </c>
-      <c r="M6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M7" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
         <v>532</v>
-      </c>
-      <c r="M7" t="s">
-        <v>164</v>
-      </c>
-      <c r="N7" t="s">
-        <v>163</v>
-      </c>
-      <c r="O7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I8" t="s">
         <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K9" t="s">
+        <v>531</v>
+      </c>
+      <c r="M9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" t="s">
         <v>532</v>
-      </c>
-      <c r="M9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
+        <v>531</v>
+      </c>
+      <c r="M10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" t="s">
+        <v>228</v>
+      </c>
+      <c r="O10" t="s">
         <v>532</v>
-      </c>
-      <c r="M10" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" t="s">
-        <v>229</v>
-      </c>
-      <c r="O10" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K11" t="s">
+        <v>531</v>
+      </c>
+      <c r="M11" t="s">
+        <v>159</v>
+      </c>
+      <c r="N11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" t="s">
         <v>532</v>
-      </c>
-      <c r="M11" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" t="s">
-        <v>159</v>
-      </c>
-      <c r="O11" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K12" t="s">
+        <v>531</v>
+      </c>
+      <c r="M12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" t="s">
         <v>532</v>
-      </c>
-      <c r="M12" t="s">
-        <v>210</v>
-      </c>
-      <c r="N12" t="s">
-        <v>209</v>
-      </c>
-      <c r="O12" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K13" t="s">
+        <v>531</v>
+      </c>
+      <c r="M13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" t="s">
         <v>532</v>
-      </c>
-      <c r="M13" t="s">
-        <v>186</v>
-      </c>
-      <c r="N13" t="s">
-        <v>185</v>
-      </c>
-      <c r="O13" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
+        <v>531</v>
+      </c>
+      <c r="M14" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O14" t="s">
         <v>532</v>
-      </c>
-      <c r="M14" t="s">
-        <v>217</v>
-      </c>
-      <c r="N14" t="s">
-        <v>216</v>
-      </c>
-      <c r="O14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
+        <v>531</v>
+      </c>
+      <c r="M15" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" t="s">
+        <v>217</v>
+      </c>
+      <c r="O15" t="s">
         <v>532</v>
-      </c>
-      <c r="M15" t="s">
-        <v>219</v>
-      </c>
-      <c r="N15" t="s">
-        <v>218</v>
-      </c>
-      <c r="O15" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K16" t="s">
+        <v>531</v>
+      </c>
+      <c r="M16" t="s">
+        <v>220</v>
+      </c>
+      <c r="N16" t="s">
+        <v>219</v>
+      </c>
+      <c r="O16" t="s">
         <v>532</v>
-      </c>
-      <c r="M16" t="s">
-        <v>221</v>
-      </c>
-      <c r="N16" t="s">
-        <v>220</v>
-      </c>
-      <c r="O16" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M17" t="s">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s">
+        <v>531</v>
+      </c>
+      <c r="M18" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
         <v>532</v>
-      </c>
-      <c r="M18" t="s">
-        <v>190</v>
-      </c>
-      <c r="N18" t="s">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19" t="s">
+        <v>531</v>
+      </c>
+      <c r="M19" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19" t="s">
+        <v>210</v>
+      </c>
+      <c r="O19" t="s">
         <v>532</v>
-      </c>
-      <c r="M19" t="s">
-        <v>212</v>
-      </c>
-      <c r="N19" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
+        <v>531</v>
+      </c>
+      <c r="M20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N20" t="s">
+        <v>213</v>
+      </c>
+      <c r="O20" t="s">
         <v>532</v>
-      </c>
-      <c r="M20" t="s">
-        <v>215</v>
-      </c>
-      <c r="N20" t="s">
-        <v>214</v>
-      </c>
-      <c r="O20" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
+        <v>531</v>
+      </c>
+      <c r="M21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
         <v>532</v>
-      </c>
-      <c r="M21" t="s">
-        <v>200</v>
-      </c>
-      <c r="N21" t="s">
-        <v>199</v>
-      </c>
-      <c r="O21" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
+        <v>531</v>
+      </c>
+      <c r="M22" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
         <v>532</v>
-      </c>
-      <c r="M22" t="s">
-        <v>202</v>
-      </c>
-      <c r="N22" t="s">
-        <v>201</v>
-      </c>
-      <c r="O22" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
+        <v>531</v>
+      </c>
+      <c r="M23" t="s">
+        <v>203</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
         <v>532</v>
-      </c>
-      <c r="M23" t="s">
-        <v>204</v>
-      </c>
-      <c r="N23" t="s">
-        <v>203</v>
-      </c>
-      <c r="O23" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s">
+        <v>531</v>
+      </c>
+      <c r="M24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
         <v>532</v>
-      </c>
-      <c r="M24" t="s">
-        <v>206</v>
-      </c>
-      <c r="N24" t="s">
-        <v>205</v>
-      </c>
-      <c r="O24" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M25" t="s">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M26" t="s">
         <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M27" t="s">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I28" t="s">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
+        <v>531</v>
+      </c>
+      <c r="M28" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" t="s">
         <v>532</v>
-      </c>
-      <c r="M28" t="s">
-        <v>167</v>
-      </c>
-      <c r="N28" t="s">
-        <v>166</v>
-      </c>
-      <c r="O28" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
@@ -6242,27 +6302,27 @@
         <v>48</v>
       </c>
       <c r="K29" t="s">
+        <v>531</v>
+      </c>
+      <c r="M29" t="s">
+        <v>266</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
         <v>532</v>
-      </c>
-      <c r="M29" t="s">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s">
-        <v>266</v>
-      </c>
-      <c r="O29" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I30" t="s">
         <v>3</v>
@@ -6271,298 +6331,298 @@
         <v>51</v>
       </c>
       <c r="K30" t="s">
+        <v>531</v>
+      </c>
+      <c r="M30" t="s">
+        <v>272</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
         <v>532</v>
-      </c>
-      <c r="M30" t="s">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s">
-        <v>272</v>
-      </c>
-      <c r="O30" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M31" t="s">
         <v>64</v>
       </c>
       <c r="N31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
         <v>53</v>
       </c>
       <c r="K32" t="s">
+        <v>531</v>
+      </c>
+      <c r="M32" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32" t="s">
         <v>532</v>
-      </c>
-      <c r="M32" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" t="s">
-        <v>168</v>
-      </c>
-      <c r="O32" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
         <v>54</v>
       </c>
       <c r="K33" t="s">
+        <v>531</v>
+      </c>
+      <c r="M33" t="s">
+        <v>256</v>
+      </c>
+      <c r="N33" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" t="s">
         <v>532</v>
-      </c>
-      <c r="M33" t="s">
-        <v>257</v>
-      </c>
-      <c r="N33" t="s">
-        <v>256</v>
-      </c>
-      <c r="O33" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s">
+        <v>531</v>
+      </c>
+      <c r="M34" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
         <v>532</v>
-      </c>
-      <c r="M34" t="s">
-        <v>259</v>
-      </c>
-      <c r="N34" t="s">
-        <v>258</v>
-      </c>
-      <c r="O34" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" t="s">
         <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -6570,84 +6630,84 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -6658,54 +6718,54 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
+        <v>550</v>
+      </c>
+      <c r="B57" t="s">
         <v>551</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>552</v>
       </c>
-      <c r="D57" t="s">
-        <v>553</v>
-      </c>
       <c r="E57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -6714,40 +6774,40 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
+        <v>553</v>
+      </c>
+      <c r="E58" t="s">
         <v>554</v>
-      </c>
-      <c r="E58" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
         <v>53</v>
@@ -6755,10 +6815,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -6766,141 +6826,141 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s">
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>536</v>
+      </c>
+      <c r="B71" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" t="s">
+        <v>535</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="B71" t="s">
-        <v>535</v>
-      </c>
-      <c r="C71" t="s">
-        <v>536</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6929,11 +6989,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6944,84 +7004,84 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -7032,7 +7092,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -7043,91 +7103,91 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C17" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" t="s">
         <v>526</v>
       </c>
-      <c r="B18" t="s">
-        <v>527</v>
-      </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7156,11 +7216,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7171,65 +7231,65 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -7237,95 +7297,95 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -7336,532 +7396,532 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
+        <v>557</v>
+      </c>
+      <c r="B59" t="s">
+        <v>556</v>
+      </c>
+      <c r="D59" t="s">
         <v>558</v>
       </c>
-      <c r="B59" t="s">
-        <v>557</v>
-      </c>
-      <c r="D59" t="s">
-        <v>559</v>
-      </c>
       <c r="E59" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E60" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B62" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C62" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>539</v>
+      </c>
+      <c r="B63" t="s">
+        <v>602</v>
+      </c>
+      <c r="C63" t="s">
         <v>540</v>
       </c>
-      <c r="B63" t="s">
+      <c r="E63" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="C63" t="s">
-        <v>541</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="857">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -2717,6 +2717,14 @@
   </si>
   <si>
     <t>AS_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시경아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규- 배정 X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2791,7 +2799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2807,12 +2815,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3139,7 +3141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3200,35 +3202,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3250,18 +3228,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3335,14 +3301,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3370,21 +3372,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3674,14 +3661,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="7.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
@@ -3705,31 +3692,31 @@
         <v>38</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="30" t="s">
         <v>689</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="31" t="s">
         <v>693</v>
       </c>
     </row>
@@ -3737,545 +3724,545 @@
       <c r="A4" s="72" t="s">
         <v>847</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="53" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="36" t="s">
         <v>695</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="70" t="s">
         <v>697</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="31" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="73"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="54" t="s">
         <v>699</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="71"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="31" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="42" t="s">
         <v>703</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="42" t="s">
         <v>704</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="43" t="s">
         <v>705</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="47" t="s">
         <v>706</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="47" t="s">
         <v>707</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="43"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="44" t="s">
         <v>708</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="45" t="s">
         <v>709</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="31" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="43"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="45" t="s">
         <v>713</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="46" t="s">
         <v>714</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="46" t="s">
         <v>715</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="43"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="44" t="s">
         <v>716</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="44" t="s">
         <v>717</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="44" t="s">
         <v>720</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="46" t="s">
         <v>723</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="43"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="44" t="s">
         <v>724</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="44" t="s">
         <v>725</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
         <v>727</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="44" t="s">
         <v>728</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="44" t="s">
         <v>729</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="45" t="s">
         <v>730</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="43"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="45" t="s">
         <v>734</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="34" t="s">
         <v>737</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="35" t="s">
         <v>738</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="72" t="s">
         <v>847</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="36" t="s">
         <v>740</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="37" t="s">
         <v>741</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="70" t="s">
         <v>742</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="54" t="s">
         <v>744</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="40" t="s">
         <v>746</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="71"/>
       <c r="G16" s="69"/>
-      <c r="H16" s="43"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="43"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="42" t="s">
         <v>748</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="43" t="s">
         <v>749</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="59" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="43"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="44" t="s">
         <v>751</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="44" t="s">
         <v>752</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="45" t="s">
         <v>753</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46" t="s">
         <v>754</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="31" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="43"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="44" t="s">
         <v>757</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="45" t="s">
         <v>758</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="46" t="s">
         <v>759</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="43"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="44" t="s">
         <v>760</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="44" t="s">
         <v>761</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="45" t="s">
         <v>762</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46" t="s">
         <v>763</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="31" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="43"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="45" t="s">
         <v>767</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="48" t="s">
         <v>768</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="43"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="44" t="s">
         <v>769</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="44" t="s">
         <v>770</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="45" t="s">
         <v>771</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="46" t="s">
         <v>772</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="43"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="43"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="45" t="s">
         <v>775</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58" t="s">
+      <c r="E23" s="45"/>
+      <c r="F23" s="46" t="s">
         <v>776</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="43"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="43"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="44" t="s">
         <v>778</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="45" t="s">
         <v>779</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="48" t="s">
         <v>780</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="43" t="s">
+      <c r="G24" s="48"/>
+      <c r="H24" s="31" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="43"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="44" t="s">
         <v>782</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="44" t="s">
         <v>561</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="60" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="48" t="s">
         <v>784</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="43"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="43"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="45" t="s">
         <v>786</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58" t="s">
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
         <v>787</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="31" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="43"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="45" t="s">
         <v>791</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="43"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="43"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="45" t="s">
         <v>795</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="46" t="s">
         <v>796</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="43"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="43"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="44" t="s">
         <v>797</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="44" t="s">
         <v>798</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="45" t="s">
         <v>799</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="46" t="s">
         <v>800</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="46"/>
+      <c r="H29" s="31" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="43"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="44" t="s">
         <v>802</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="44" t="s">
         <v>803</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="46" t="s">
         <v>804</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="43"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="44" t="s">
         <v>806</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="46" t="s">
         <v>808</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="33" t="s">
         <v>809</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="33" t="s">
         <v>810</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47" t="s">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35" t="s">
         <v>812</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="49" t="s">
         <v>813</v>
       </c>
     </row>
@@ -4283,75 +4270,75 @@
       <c r="A33" s="72" t="s">
         <v>847</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="53" t="s">
         <v>814</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="36" t="s">
         <v>815</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="E33" s="49"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="70" t="s">
         <v>817</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="38" t="s">
         <v>818</v>
       </c>
-      <c r="H33" s="43"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
       <c r="A34" s="73"/>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="54" t="s">
         <v>819</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="71"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="43"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="43"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="43" t="s">
         <v>823</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="59" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="47" t="s">
         <v>824</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="43"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33" t="s">
         <v>825</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="33" t="s">
         <v>826</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="34" t="s">
         <v>827</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="43" t="s">
+      <c r="G36" s="35"/>
+      <c r="H36" s="31" t="s">
         <v>829</v>
       </c>
     </row>
@@ -4359,89 +4346,89 @@
       <c r="A37" s="72" t="s">
         <v>847</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="53" t="s">
         <v>830</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="62" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="50" t="s">
         <v>832</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="43"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="73"/>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="54" t="s">
         <v>833</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="63" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="51" t="s">
         <v>835</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="43"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="43"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="42" t="s">
         <v>836</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="43" t="s">
         <v>837</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="59" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="47" t="s">
         <v>838</v>
       </c>
-      <c r="G39" s="59"/>
-      <c r="H39" s="43" t="s">
+      <c r="G39" s="47"/>
+      <c r="H39" s="31" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="44" t="s">
         <v>841</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="46" t="s">
         <v>843</v>
       </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="43" t="s">
+      <c r="G40" s="46"/>
+      <c r="H40" s="31" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="43"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4466,9 +4453,9 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4831,7 +4818,7 @@
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:8" hidden="1">
-      <c r="A28" s="64"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="14" t="s">
         <v>656</v>
       </c>
@@ -5196,7 +5183,7 @@
       <c r="F53" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="20" t="s">
         <v>608</v>
       </c>
       <c r="I53" s="19"/>
@@ -5300,20 +5287,20 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="30" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="23" t="s">
         <v>581</v>
       </c>
       <c r="H60" s="17" t="s">
@@ -5327,149 +5314,149 @@
       <c r="A61" s="74" t="s">
         <v>686</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="36"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="E61" s="26"/>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A62" s="75"/>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="80" t="s">
+      <c r="D62" s="57"/>
+      <c r="E62" s="58" t="s">
         <v>852</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="59" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" s="3" customFormat="1">
       <c r="A63" s="75"/>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="55" t="s">
         <v>848</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="56" t="s">
         <v>849</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="57" t="s">
         <v>850</v>
       </c>
-      <c r="E63" s="79" t="s">
+      <c r="E63" s="57" t="s">
         <v>853</v>
       </c>
-      <c r="F63" s="81" t="s">
+      <c r="F63" s="59" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A64" s="75"/>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="27" t="s">
         <v>629</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="58" t="s">
         <v>687</v>
       </c>
-      <c r="F64" s="41" t="s">
+      <c r="F64" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="20" customFormat="1" ht="17.25" thickBot="1">
+    <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A65" s="76"/>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="61" t="s">
         <v>626</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="62" t="s">
         <v>617</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="62" t="s">
         <v>619</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="5" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A66" s="64"/>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="65" t="s">
         <v>649</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40" t="s">
+      <c r="D66" s="66"/>
+      <c r="E66" s="67" t="s">
         <v>612</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="20" customFormat="1">
-      <c r="A67" s="65"/>
-      <c r="B67" s="28" t="s">
+    <row r="67" spans="1:9" s="3" customFormat="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="56" t="s">
         <v>609</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="57" t="s">
         <v>610</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="20" customFormat="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="28" t="s">
+    <row r="68" spans="1:9" s="3" customFormat="1">
+      <c r="A68" s="20"/>
+      <c r="B68" s="56" t="s">
         <v>620</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="56" t="s">
         <v>622</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="H68" s="21" t="s">
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="H68" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="3" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7199,11 +7186,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -7924,6 +7911,14 @@
         <v>603</v>
       </c>
     </row>
+    <row r="64" spans="1:5">
+      <c r="D64" t="s">
+        <v>855</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="859">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1754,9 +1754,6 @@
     <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
   </si>
   <si>
-    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임 현철 이사)</t>
-  </si>
-  <si>
     <t>AS_422</t>
   </si>
   <si>
@@ -2700,31 +2697,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시경아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규- 배정 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-31탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대주아스콘㈜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시경아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규- 배정 X</t>
+    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3141,7 +3150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3372,6 +3381,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3673,11 +3697,11 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3693,147 +3717,147 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>688</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>689</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="31"/>
       <c r="B3" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>695</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>696</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="70" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="73"/>
       <c r="B5" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>700</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>701</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="71"/>
       <c r="G5" s="41"/>
       <c r="H5" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="31"/>
       <c r="B6" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>703</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>704</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>705</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="47" t="s">
+        <v>705</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>706</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>707</v>
       </c>
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="31"/>
       <c r="B7" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="31"/>
       <c r="B8" s="44" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>714</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>715</v>
       </c>
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="31"/>
       <c r="B9" s="44" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>716</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>717</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>718</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="31"/>
@@ -3841,17 +3865,17 @@
     <row r="10" spans="1:8">
       <c r="A10" s="31"/>
       <c r="B10" s="44" t="s">
+        <v>719</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>720</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>721</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>722</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="31"/>
@@ -3859,35 +3883,35 @@
     <row r="11" spans="1:8">
       <c r="A11" s="31"/>
       <c r="B11" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>724</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>725</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>726</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="31"/>
       <c r="B12" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>728</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="D12" s="45" t="s">
         <v>729</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>730</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="31"/>
@@ -3895,17 +3919,17 @@
     <row r="13" spans="1:8">
       <c r="A13" s="31"/>
       <c r="B13" s="44" t="s">
+        <v>731</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="D13" s="45" t="s">
         <v>733</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>734</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="31"/>
@@ -3913,53 +3937,53 @@
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="31"/>
       <c r="B14" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B15" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>740</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>741</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="70" t="s">
+        <v>741</v>
+      </c>
+      <c r="G15" s="68" t="s">
         <v>742</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>743</v>
       </c>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="73"/>
       <c r="B16" s="54" t="s">
+        <v>743</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>745</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>746</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="71"/>
@@ -3969,17 +3993,17 @@
     <row r="17" spans="1:8">
       <c r="A17" s="31"/>
       <c r="B17" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>748</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>749</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="31"/>
@@ -3987,37 +4011,37 @@
     <row r="18" spans="1:8">
       <c r="A18" s="31"/>
       <c r="B18" s="44" t="s">
+        <v>750</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>751</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="D18" s="45" t="s">
         <v>752</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>753</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46" t="s">
+        <v>753</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>754</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="31"/>
       <c r="B19" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>757</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>758</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="46" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G19" s="46"/>
       <c r="H19" s="31"/>
@@ -4025,37 +4049,37 @@
     <row r="20" spans="1:8">
       <c r="A20" s="31"/>
       <c r="B20" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>760</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="D20" s="45" t="s">
         <v>761</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>762</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>763</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="31"/>
       <c r="B21" s="44" t="s">
+        <v>764</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="D21" s="45" t="s">
         <v>766</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>767</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="31"/>
@@ -4063,17 +4087,17 @@
     <row r="22" spans="1:8">
       <c r="A22" s="31"/>
       <c r="B22" s="44" t="s">
+        <v>768</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>769</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="D22" s="45" t="s">
         <v>770</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>771</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="31"/>
@@ -4081,17 +4105,17 @@
     <row r="23" spans="1:8">
       <c r="A23" s="31"/>
       <c r="B23" s="44" t="s">
+        <v>772</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>773</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="D23" s="45" t="s">
         <v>774</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>775</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="31"/>
@@ -4099,37 +4123,37 @@
     <row r="24" spans="1:8">
       <c r="A24" s="31"/>
       <c r="B24" s="44" t="s">
+        <v>776</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>777</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="D24" s="45" t="s">
         <v>778</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>779</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="48" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="31"/>
       <c r="B25" s="44" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>561</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="48" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="31"/>
@@ -4137,37 +4161,37 @@
     <row r="26" spans="1:8">
       <c r="A26" s="31"/>
       <c r="B26" s="44" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46" t="s">
+        <v>786</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="31"/>
       <c r="B27" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="D27" s="45" t="s">
         <v>790</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>791</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="46" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="31"/>
@@ -4175,17 +4199,17 @@
     <row r="28" spans="1:8">
       <c r="A28" s="31"/>
       <c r="B28" s="44" t="s">
+        <v>792</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="D28" s="45" t="s">
         <v>794</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>795</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="46" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="31"/>
@@ -4193,37 +4217,37 @@
     <row r="29" spans="1:8">
       <c r="A29" s="31"/>
       <c r="B29" s="44" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>797</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="D29" s="45" t="s">
         <v>798</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>799</v>
       </c>
       <c r="E29" s="45"/>
       <c r="F29" s="46" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="31"/>
       <c r="B30" s="44" t="s">
+        <v>801</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>802</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>803</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="31"/>
@@ -4231,17 +4255,17 @@
     <row r="31" spans="1:8">
       <c r="A31" s="31"/>
       <c r="B31" s="44" t="s">
+        <v>804</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="D31" s="45" t="s">
         <v>806</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>807</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="31"/>
@@ -4249,55 +4273,55 @@
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="31"/>
       <c r="B32" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>809</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="D32" s="34" t="s">
         <v>810</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>811</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>812</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B33" s="53" t="s">
+        <v>813</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="37" t="s">
         <v>815</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>816</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="70" t="s">
+        <v>816</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>817</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>818</v>
       </c>
       <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
       <c r="A34" s="73"/>
       <c r="B34" s="54" t="s">
+        <v>818</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>819</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="D34" s="40" t="s">
         <v>820</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>821</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="71"/>
@@ -4307,17 +4331,17 @@
     <row r="35" spans="1:8">
       <c r="A35" s="31"/>
       <c r="B35" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="47" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="31"/>
@@ -4325,39 +4349,39 @@
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="31"/>
       <c r="B36" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>825</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>826</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>827</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="50" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G37" s="38"/>
       <c r="H37" s="31"/>
@@ -4365,17 +4389,17 @@
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="73"/>
       <c r="B38" s="54" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G38" s="41"/>
       <c r="H38" s="31"/>
@@ -4383,41 +4407,41 @@
     <row r="39" spans="1:8">
       <c r="A39" s="31"/>
       <c r="B39" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>125</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="31"/>
       <c r="B40" s="44" t="s">
+        <v>839</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="D40" s="45" t="s">
         <v>841</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>842</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G40" s="46"/>
       <c r="H40" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4453,9 +4477,9 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4472,11 +4496,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -4491,7 +4515,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>561</v>
@@ -4504,7 +4528,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>105</v>
@@ -4517,7 +4541,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>88</v>
@@ -4530,7 +4554,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>90</v>
@@ -4543,7 +4567,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
@@ -4556,7 +4580,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>157</v>
@@ -4569,7 +4593,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>93</v>
@@ -4582,7 +4606,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4595,7 +4619,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>17</v>
@@ -4608,7 +4632,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
@@ -4621,7 +4645,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>26</v>
@@ -4634,7 +4658,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>95</v>
@@ -4647,7 +4671,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>154</v>
@@ -4660,7 +4684,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
@@ -4673,7 +4697,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>151</v>
@@ -4686,7 +4710,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>152</v>
@@ -4699,7 +4723,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>99</v>
@@ -4712,7 +4736,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>147</v>
@@ -4728,7 +4752,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>149</v>
@@ -4741,7 +4765,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>80</v>
@@ -4754,7 +4778,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>127</v>
@@ -4767,7 +4791,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>123</v>
@@ -4780,7 +4804,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>125</v>
@@ -4793,7 +4817,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>82</v>
@@ -4806,7 +4830,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>121</v>
@@ -4820,7 +4844,7 @@
     <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="52"/>
       <c r="B28" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>78</v>
@@ -4830,12 +4854,12 @@
         <v>77</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>84</v>
@@ -4848,7 +4872,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>130</v>
@@ -4861,7 +4885,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>116</v>
@@ -4877,7 +4901,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>118</v>
@@ -4890,7 +4914,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>120</v>
@@ -4903,7 +4927,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>132</v>
@@ -4932,7 +4956,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
@@ -4945,7 +4969,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>61</v>
@@ -4958,7 +4982,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>107</v>
@@ -4974,7 +4998,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>139</v>
@@ -4987,7 +5011,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>109</v>
@@ -5003,7 +5027,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>86</v>
@@ -5016,7 +5040,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>101</v>
@@ -5029,7 +5053,7 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>141</v>
@@ -5042,7 +5066,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>111</v>
@@ -5055,7 +5079,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>113</v>
@@ -5068,7 +5092,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>137</v>
@@ -5081,7 +5105,7 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>103</v>
@@ -5094,7 +5118,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>73</v>
@@ -5107,7 +5131,7 @@
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="B49" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>546</v>
@@ -5117,7 +5141,7 @@
         <v>543</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
@@ -5132,12 +5156,12 @@
         <v>545</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>565</v>
@@ -5146,7 +5170,7 @@
         <v>564</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>544</v>
@@ -5164,12 +5188,12 @@
         <v>67</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>142</v>
@@ -5178,19 +5202,19 @@
         <v>37</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>380</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>143</v>
@@ -5201,12 +5225,12 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="H54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="B55" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>82</v>
@@ -5216,12 +5240,12 @@
         <v>81</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>144</v>
@@ -5230,10 +5254,10 @@
         <v>567</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H56" t="s">
         <v>568</v>
@@ -5251,12 +5275,12 @@
         <v>69</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>542</v>
@@ -5265,7 +5289,7 @@
         <v>541</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>381</v>
@@ -5273,14 +5297,14 @@
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="B59" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>547</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>559</v>
@@ -5289,33 +5313,33 @@
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="20"/>
       <c r="B60" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>548</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>569</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>108</v>
@@ -5329,48 +5353,51 @@
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A62" s="75"/>
       <c r="B62" s="55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C62" s="56" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="57"/>
       <c r="E62" s="58" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1">
       <c r="A63" s="75"/>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="77" t="s">
+        <v>847</v>
+      </c>
+      <c r="C63" s="78" t="s">
         <v>848</v>
       </c>
-      <c r="C63" s="56" t="s">
-        <v>849</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>850</v>
-      </c>
-      <c r="E63" s="57" t="s">
-        <v>853</v>
-      </c>
-      <c r="F63" s="59" t="s">
-        <v>854</v>
+      <c r="D63" s="79" t="s">
+        <v>857</v>
+      </c>
+      <c r="E63" s="79" t="s">
+        <v>851</v>
+      </c>
+      <c r="F63" s="80" t="s">
+        <v>852</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A64" s="75"/>
       <c r="B64" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>0</v>
@@ -5379,93 +5406,94 @@
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A65" s="76"/>
       <c r="B65" s="60" t="s">
+        <v>624</v>
+      </c>
+      <c r="C65" s="61" t="s">
         <v>625</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="D65" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E65" s="62" t="s">
+        <v>618</v>
+      </c>
+      <c r="F65" s="63" t="s">
+        <v>617</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="D65" s="62" t="s">
-        <v>617</v>
-      </c>
-      <c r="E65" s="62" t="s">
-        <v>619</v>
-      </c>
-      <c r="F65" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A66" s="64"/>
       <c r="B66" s="65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C66" s="65" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="66"/>
       <c r="E66" s="67" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F66" s="66" t="s">
         <v>128</v>
       </c>
+      <c r="H66" s="81"/>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C67" s="56" t="s">
+        <v>608</v>
+      </c>
+      <c r="D67" s="57" t="s">
         <v>609</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="E67" s="57" t="s">
         <v>610</v>
       </c>
-      <c r="E67" s="57" t="s">
-        <v>611</v>
-      </c>
       <c r="F67" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="H67" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H67" s="81" t="s">
+        <v>683</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="20"/>
       <c r="B68" s="56" t="s">
+        <v>619</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="D68" s="57" t="s">
         <v>620</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>622</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>621</v>
       </c>
       <c r="E68" s="57"/>
       <c r="F68" s="57"/>
-      <c r="H68" s="4" t="s">
-        <v>624</v>
+      <c r="H68" s="81" t="s">
+        <v>623</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="E72" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5480,11 +5508,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -5500,25 +5528,26 @@
     <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39" customHeight="1">
+    <row r="1" spans="1:18" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="C2" s="1">
         <f>COUNTA(C3:C200)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>383</v>
       </c>
@@ -5547,7 +5576,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>384</v>
       </c>
@@ -5576,7 +5605,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>385</v>
       </c>
@@ -5605,7 +5634,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -5634,7 +5663,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>387</v>
       </c>
@@ -5663,7 +5692,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>390</v>
       </c>
@@ -5692,7 +5721,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>391</v>
       </c>
@@ -5721,7 +5750,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -5750,7 +5779,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>393</v>
       </c>
@@ -5769,17 +5798,20 @@
       <c r="K11" t="s">
         <v>531</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="P11" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="O11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -5808,7 +5840,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>395</v>
       </c>
@@ -5837,7 +5869,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>396</v>
       </c>
@@ -5866,7 +5898,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>397</v>
       </c>
@@ -5895,7 +5927,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>398</v>
       </c>
@@ -6302,14 +6334,17 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>158</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>855</v>
       </c>
       <c r="I30" t="s">
         <v>3</v>
@@ -6910,7 +6945,7 @@
         <v>535</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>537</v>
@@ -6927,7 +6962,7 @@
         <v>255</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>537</v>
@@ -6944,7 +6979,7 @@
         <v>257</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>537</v>
@@ -6976,11 +7011,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7188,7 +7223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
@@ -7203,11 +7238,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7477,7 +7512,7 @@
         <v>489</v>
       </c>
       <c r="B26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C26" t="s">
         <v>362</v>
@@ -7860,21 +7895,21 @@
         <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B61" t="s">
         <v>335</v>
       </c>
       <c r="D61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E61" t="s">
         <v>334</v>
@@ -7882,16 +7917,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B62" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C62" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E62" t="s">
         <v>334</v>
@@ -7902,21 +7937,21 @@
         <v>539</v>
       </c>
       <c r="B63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C63" t="s">
         <v>540</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="D64" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -3355,6 +3355,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3381,21 +3396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3679,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3745,7 +3745,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="77" t="s">
         <v>846</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -3758,7 +3758,7 @@
         <v>695</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="75" t="s">
         <v>696</v>
       </c>
       <c r="G4" s="38"/>
@@ -3767,7 +3767,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="54" t="s">
         <v>698</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>700</v>
       </c>
       <c r="E5" s="40"/>
-      <c r="F5" s="71"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="41"/>
       <c r="H5" s="31" t="s">
         <v>701</v>
@@ -3953,7 +3953,7 @@
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="77" t="s">
         <v>846</v>
       </c>
       <c r="B15" s="53" t="s">
@@ -3966,16 +3966,16 @@
         <v>740</v>
       </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="75" t="s">
         <v>741</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="73" t="s">
         <v>742</v>
       </c>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="54" t="s">
         <v>743</v>
       </c>
@@ -3986,8 +3986,8 @@
         <v>745</v>
       </c>
       <c r="E16" s="40"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="69"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8">
@@ -4291,7 +4291,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="77" t="s">
         <v>846</v>
       </c>
       <c r="B33" s="53" t="s">
@@ -4304,7 +4304,7 @@
         <v>815</v>
       </c>
       <c r="E33" s="37"/>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="75" t="s">
         <v>816</v>
       </c>
       <c r="G33" s="38" t="s">
@@ -4313,7 +4313,7 @@
       <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="54" t="s">
         <v>818</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>820</v>
       </c>
       <c r="E34" s="40"/>
-      <c r="F34" s="71"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="41"/>
       <c r="H34" s="31"/>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="77" t="s">
         <v>846</v>
       </c>
       <c r="B37" s="53" t="s">
@@ -4387,7 +4387,7 @@
       <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="73"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="54" t="s">
         <v>832</v>
       </c>
@@ -4477,7 +4477,7 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="79" t="s">
         <v>685</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -5351,7 +5351,7 @@
       <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A62" s="75"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="55" t="s">
         <v>673</v>
       </c>
@@ -5367,20 +5367,20 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1">
-      <c r="A63" s="75"/>
-      <c r="B63" s="77" t="s">
+      <c r="A63" s="80"/>
+      <c r="B63" s="68" t="s">
         <v>847</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="69" t="s">
         <v>848</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="70" t="s">
         <v>857</v>
       </c>
-      <c r="E63" s="79" t="s">
+      <c r="E63" s="70" t="s">
         <v>851</v>
       </c>
-      <c r="F63" s="80" t="s">
+      <c r="F63" s="71" t="s">
         <v>852</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="75"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="27" t="s">
         <v>628</v>
       </c>
@@ -5404,7 +5404,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="76"/>
+      <c r="A65" s="81"/>
       <c r="B65" s="60" t="s">
         <v>624</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="F66" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="H66" s="81"/>
+      <c r="H66" s="72"/>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="20"/>
@@ -5461,7 +5461,7 @@
       <c r="F67" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="H67" s="81" t="s">
+      <c r="H67" s="72" t="s">
         <v>683</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="E68" s="57"/>
       <c r="F68" s="57"/>
-      <c r="H68" s="81" t="s">
+      <c r="H68" s="72" t="s">
         <v>623</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -7223,7 +7223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="864">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1660,1080 +1660,1100 @@
     <t>AS_865</t>
   </si>
   <si>
+    <t>(주)한정</t>
+  </si>
+  <si>
+    <t>100-581</t>
+  </si>
+  <si>
+    <t>(주)흥진</t>
+  </si>
+  <si>
+    <t>AS_464</t>
+  </si>
+  <si>
+    <t>(주)한덕산업 본점</t>
+  </si>
+  <si>
+    <t>100-305</t>
+  </si>
+  <si>
+    <t>100-539</t>
+  </si>
+  <si>
+    <t>100-582</t>
+  </si>
+  <si>
+    <t>AS_5B9 → AS_5B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_5B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-042</t>
+  </si>
+  <si>
+    <t>(주)정도종합산업</t>
+  </si>
+  <si>
+    <t>← (주)정도종합산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_5B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_861 → AS_864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-251</t>
+  </si>
+  <si>
+    <t>AS_861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성유화㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_408 → AS_471</t>
+  </si>
+  <si>
+    <t>대덕아스콘환경(주)</t>
+  </si>
+  <si>
+    <t>100-105</t>
+  </si>
+  <si>
+    <t>인평산업(주)</t>
+  </si>
+  <si>
+    <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
+  </si>
+  <si>
+    <t>(주)한덕산업</t>
+  </si>
+  <si>
+    <t>100-578</t>
+  </si>
+  <si>
+    <t>(주)유림테크</t>
+  </si>
+  <si>
+    <t>(주)선우</t>
+  </si>
+  <si>
+    <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
+  </si>
+  <si>
+    <t>AS_422</t>
+  </si>
+  <si>
+    <t>AS_464 → AS_465</t>
+  </si>
+  <si>
+    <t>← (주)한덕산업 본점</t>
+  </si>
+  <si>
+    <t>AS_422 → AS_464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_414 → AS_466</t>
+  </si>
+  <si>
+    <t>← 부원콘크리트산업(주)</t>
+  </si>
+  <si>
+    <t>AS_433</t>
+  </si>
+  <si>
+    <t>AS_433 → AS_468</t>
+  </si>
+  <si>
+    <t>← 제일아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_418 → AS_469</t>
+  </si>
+  <si>
+    <t>← (주)한호디앤디</t>
+  </si>
+  <si>
+    <t>AS_408</t>
+  </si>
+  <si>
+    <t>(주)보광</t>
+  </si>
+  <si>
+    <t>← (주)보광</t>
+  </si>
+  <si>
+    <t>화신아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남 아스콘 사업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구경북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)금호산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성유화㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은진산업㈜ </t>
+  </si>
+  <si>
+    <t>AS_826로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_826에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_861에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 금성아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 이후로 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_427  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부강아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 부강레미콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사 케이알아스콘</t>
+  </si>
+  <si>
+    <t>100-583</t>
+  </si>
+  <si>
+    <t>010-8629-1450 (임종성 부장)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-584</t>
+  </si>
+  <si>
+    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472</t>
+  </si>
+  <si>
+    <t>AS_441</t>
+  </si>
+  <si>
+    <t>AS_402</t>
+  </si>
+  <si>
+    <t>AS_403</t>
+  </si>
+  <si>
+    <t>AS_404</t>
+  </si>
+  <si>
+    <t>AS_405</t>
+  </si>
+  <si>
+    <t>AS_406</t>
+  </si>
+  <si>
+    <t>AS_407</t>
+  </si>
+  <si>
+    <t>AS_410</t>
+  </si>
+  <si>
+    <t>AS_411</t>
+  </si>
+  <si>
+    <t>AS_412</t>
+  </si>
+  <si>
+    <t>AS_413</t>
+  </si>
+  <si>
+    <t>AS_415</t>
+  </si>
+  <si>
+    <t>AS_416</t>
+  </si>
+  <si>
+    <t>AS_419</t>
+  </si>
+  <si>
+    <t>AS_420</t>
+  </si>
+  <si>
+    <t>AS_421</t>
+  </si>
+  <si>
+    <t>AS_423</t>
+  </si>
+  <si>
+    <t>AS_424</t>
+  </si>
+  <si>
+    <t>AS_425</t>
+  </si>
+  <si>
+    <t>AS_426</t>
+  </si>
+  <si>
+    <t>AS_427</t>
+  </si>
+  <si>
+    <t>AS_428</t>
+  </si>
+  <si>
+    <t>AS_429</t>
+  </si>
+  <si>
+    <t>AS_430</t>
+  </si>
+  <si>
+    <t>AS_431</t>
+  </si>
+  <si>
+    <t>AS_432</t>
+  </si>
+  <si>
+    <t>AS_434</t>
+  </si>
+  <si>
+    <t>AS_435</t>
+  </si>
+  <si>
+    <t>AS_436</t>
+  </si>
+  <si>
+    <t>AS_437</t>
+  </si>
+  <si>
+    <t>AS_438</t>
+  </si>
+  <si>
+    <t>AS_439</t>
+  </si>
+  <si>
+    <t>AS_440</t>
+  </si>
+  <si>
+    <t>AS_442</t>
+  </si>
+  <si>
+    <t>AS_445</t>
+  </si>
+  <si>
+    <t>AS_447</t>
+  </si>
+  <si>
+    <t>AS_448</t>
+  </si>
+  <si>
+    <t>AS_450</t>
+  </si>
+  <si>
+    <t>AS_451</t>
+  </si>
+  <si>
+    <t>AS_452</t>
+  </si>
+  <si>
+    <t>AS_453</t>
+  </si>
+  <si>
+    <t>AS_454</t>
+  </si>
+  <si>
+    <t>AS_455</t>
+  </si>
+  <si>
+    <t>AS_456</t>
+  </si>
+  <si>
+    <t>AS_458</t>
+  </si>
+  <si>
+    <t>AS_460</t>
+  </si>
+  <si>
+    <t>AS_461</t>
+  </si>
+  <si>
+    <t>AS_462</t>
+  </si>
+  <si>
+    <t>AS_463</t>
+  </si>
+  <si>
+    <t>AS_465</t>
+  </si>
+  <si>
+    <t>AS_466</t>
+  </si>
+  <si>
+    <t>AS_467</t>
+  </si>
+  <si>
+    <t>AS_468</t>
+  </si>
+  <si>
+    <t>AS_469</t>
+  </si>
+  <si>
+    <t>AS_471</t>
+  </si>
+  <si>
+    <t>2019년 04월부터 사용료 부과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (담당자 이종례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관급담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_301 </t>
+  </si>
+  <si>
+    <t>옥산아스콘(주)</t>
+  </si>
+  <si>
+    <t>강은영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권이관 부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_302 </t>
+  </si>
+  <si>
+    <t>100-224</t>
+  </si>
+  <si>
+    <t>신양산업개발(주)</t>
+  </si>
+  <si>
+    <t>허춘강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2924-0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_303 </t>
+  </si>
+  <si>
+    <t>100-408</t>
+  </si>
+  <si>
+    <t>이현산업개발(주)</t>
+  </si>
+  <si>
+    <t>최재영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_304 </t>
+  </si>
+  <si>
+    <t>100-206</t>
+  </si>
+  <si>
+    <t>석광아스콘(주)</t>
+  </si>
+  <si>
+    <t>오상균 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥진산업(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이덕희 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_308</t>
+  </si>
+  <si>
+    <t>(주)대흥아스콘개발</t>
+  </si>
+  <si>
+    <t>김병대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_311</t>
+  </si>
+  <si>
+    <t>100-109</t>
+  </si>
+  <si>
+    <t>부경아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽헌규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_313</t>
+  </si>
+  <si>
+    <t>100-111</t>
+  </si>
+  <si>
+    <t>성신산업(주)</t>
+  </si>
+  <si>
+    <t>양미경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_315</t>
+  </si>
+  <si>
+    <t>100-114</t>
+  </si>
+  <si>
+    <t>(주)창조아스콘</t>
+  </si>
+  <si>
+    <t>서민석 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_316</t>
+  </si>
+  <si>
+    <t>100-201</t>
+  </si>
+  <si>
+    <t>대성개발(주)</t>
+  </si>
+  <si>
+    <t>최재동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_317</t>
+  </si>
+  <si>
+    <t>100-202</t>
+  </si>
+  <si>
+    <t>익산건설(주)</t>
+  </si>
+  <si>
+    <t>박원규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_318</t>
+  </si>
+  <si>
+    <t>성광아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_319</t>
+  </si>
+  <si>
+    <t>100-212</t>
+  </si>
+  <si>
+    <t>(주)청오아스콘</t>
+  </si>
+  <si>
+    <t>서정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_330</t>
+  </si>
+  <si>
+    <t>100-303</t>
+  </si>
+  <si>
+    <t>(주)태하산업</t>
+  </si>
+  <si>
+    <t>AS_320</t>
+  </si>
+  <si>
+    <t>100-215</t>
+  </si>
+  <si>
+    <t>괴산아스콘(주)</t>
+  </si>
+  <si>
+    <t>김미숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_322</t>
+  </si>
+  <si>
+    <t>100-218</t>
+  </si>
+  <si>
+    <t>우리도시산업(주)</t>
+  </si>
+  <si>
+    <t>홍민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_323</t>
+  </si>
+  <si>
+    <t>100-219</t>
+  </si>
+  <si>
+    <t>서일아스콘(주)</t>
+  </si>
+  <si>
+    <t>김기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_324</t>
+  </si>
+  <si>
+    <t>100-220</t>
+  </si>
+  <si>
+    <t>(합자)해룡</t>
+  </si>
+  <si>
+    <t>곽준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_326</t>
+  </si>
+  <si>
+    <t>100-222</t>
+  </si>
+  <si>
+    <t>우진환경개발(주)</t>
+  </si>
+  <si>
+    <t>한창환 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_329</t>
+  </si>
+  <si>
+    <t>100-302</t>
+  </si>
+  <si>
+    <t>보은아스콘(주)</t>
+  </si>
+  <si>
+    <t>이장효 실장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_336</t>
+  </si>
+  <si>
+    <t>100-403</t>
+  </si>
+  <si>
+    <t>(주)대신아스콘</t>
+  </si>
+  <si>
+    <t>서영숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-304</t>
+  </si>
+  <si>
+    <t>대한아스콘(주)</t>
+  </si>
+  <si>
+    <t>여직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채과장님 출장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_309</t>
+  </si>
+  <si>
+    <t>(주)석진산업</t>
+  </si>
+  <si>
+    <t>박예슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_310</t>
+  </si>
+  <si>
+    <t>태창산업(주)</t>
+  </si>
+  <si>
+    <t>우용미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_312</t>
+  </si>
+  <si>
+    <t>100-110</t>
+  </si>
+  <si>
+    <t>충주아스콘(주)</t>
+  </si>
+  <si>
+    <t>황아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_314</t>
+  </si>
+  <si>
+    <t>100-113</t>
+  </si>
+  <si>
+    <t>(주)성안</t>
+  </si>
+  <si>
+    <t>최정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_321</t>
+  </si>
+  <si>
+    <t>100-217</t>
+  </si>
+  <si>
+    <t>(주)대아산업</t>
+  </si>
+  <si>
+    <t>조경아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장중근 상무</t>
+  </si>
+  <si>
+    <t>AS_327</t>
+  </si>
+  <si>
+    <t>100-223</t>
+  </si>
+  <si>
+    <t>김수원 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_328</t>
+  </si>
+  <si>
+    <t>100-301</t>
+  </si>
+  <si>
+    <t>대동산업(주)</t>
+  </si>
+  <si>
+    <t>김기홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_331</t>
+  </si>
+  <si>
+    <t>100-307</t>
+  </si>
+  <si>
+    <t>(주)일양</t>
+  </si>
+  <si>
+    <t>김호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황을득 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_333</t>
+  </si>
+  <si>
+    <t>100-309</t>
+  </si>
+  <si>
+    <t>대진아스콘(주)</t>
+  </si>
+  <si>
+    <t>임주열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤대중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_332</t>
+  </si>
+  <si>
+    <t>100-308</t>
+  </si>
+  <si>
+    <t>옥천아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_334</t>
+  </si>
+  <si>
+    <t>(자)효신아스콘</t>
+  </si>
+  <si>
+    <t>서명숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_335</t>
+  </si>
+  <si>
+    <t>100-402</t>
+  </si>
+  <si>
+    <t>(주)한일아스콘</t>
+  </si>
+  <si>
+    <t>최성숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_337</t>
+  </si>
+  <si>
+    <t>(주)아원</t>
+  </si>
+  <si>
+    <t>김중찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_338</t>
+  </si>
+  <si>
+    <t>제일산업(주)</t>
+  </si>
+  <si>
+    <t>엄주희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_339</t>
+  </si>
+  <si>
+    <t>금성개발(주)</t>
+  </si>
+  <si>
+    <t>이신성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서상덕 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_325</t>
+  </si>
+  <si>
+    <t>100-221</t>
+  </si>
+  <si>
+    <t>(주)청주아스콘</t>
+  </si>
+  <si>
+    <t>한주아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세현 상무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시경아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규- 배정 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-31탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-31까지 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>한국아레콘 주식회사</t>
-  </si>
-  <si>
-    <t>(주)한정</t>
-  </si>
-  <si>
-    <t>100-581</t>
-  </si>
-  <si>
-    <t>(주)흥진</t>
-  </si>
-  <si>
-    <t>AS_464</t>
-  </si>
-  <si>
-    <t>(주)한덕산업 본점</t>
-  </si>
-  <si>
-    <t>100-305</t>
-  </si>
-  <si>
-    <t>100-539</t>
-  </si>
-  <si>
-    <t>100-582</t>
-  </si>
-  <si>
-    <t>AS_5B9 → AS_5B4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_5B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-042</t>
-  </si>
-  <si>
-    <t>(주)정도종합산업</t>
-  </si>
-  <si>
-    <t>← (주)정도종합산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_5B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_861 → AS_864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-251</t>
-  </si>
-  <si>
-    <t>AS_861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보성유화㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_408 → AS_471</t>
-  </si>
-  <si>
-    <t>대덕아스콘환경(주)</t>
-  </si>
-  <si>
-    <t>100-105</t>
-  </si>
-  <si>
-    <t>인평산업(주)</t>
-  </si>
-  <si>
-    <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
-  </si>
-  <si>
-    <t>(주)한덕산업</t>
-  </si>
-  <si>
-    <t>100-578</t>
-  </si>
-  <si>
-    <t>(주)유림테크</t>
-  </si>
-  <si>
-    <t>(주)선우</t>
-  </si>
-  <si>
-    <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
-  </si>
-  <si>
-    <t>AS_422</t>
-  </si>
-  <si>
-    <t>AS_464 → AS_465</t>
-  </si>
-  <si>
-    <t>← (주)한덕산업 본점</t>
-  </si>
-  <si>
-    <t>AS_422 → AS_464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_414 → AS_466</t>
-  </si>
-  <si>
-    <t>← 부원콘크리트산업(주)</t>
-  </si>
-  <si>
-    <t>AS_433</t>
-  </si>
-  <si>
-    <t>AS_433 → AS_468</t>
-  </si>
-  <si>
-    <t>← 제일아스콘(주)</t>
-  </si>
-  <si>
-    <t>AS_418 → AS_469</t>
-  </si>
-  <si>
-    <t>← (주)한호디앤디</t>
-  </si>
-  <si>
-    <t>AS_408</t>
-  </si>
-  <si>
-    <t>(주)보광</t>
-  </si>
-  <si>
-    <t>← (주)보광</t>
-  </si>
-  <si>
-    <t>화신아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전세종충남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주전남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영남 아스콘 사업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구경북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)금호산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_868</t>
   </si>
   <si>
     <t>100-632</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보성유화㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-361</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규- 2018-09-21부터 배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">은진산업㈜ </t>
-  </si>
-  <si>
-    <t>AS_826로 업체 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_826에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_861에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금성개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 금성아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 이후로 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_427  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부강아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 부강레미콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식회사 케이알아스콘</t>
-  </si>
-  <si>
-    <t>100-583</t>
-  </si>
-  <si>
-    <t>010-8629-1450 (임종성 부장)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-584</t>
-  </si>
-  <si>
-    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472</t>
-  </si>
-  <si>
-    <t>AS_441</t>
-  </si>
-  <si>
-    <t>AS_402</t>
-  </si>
-  <si>
-    <t>AS_403</t>
-  </si>
-  <si>
-    <t>AS_404</t>
-  </si>
-  <si>
-    <t>AS_405</t>
-  </si>
-  <si>
-    <t>AS_406</t>
-  </si>
-  <si>
-    <t>AS_407</t>
-  </si>
-  <si>
-    <t>AS_410</t>
-  </si>
-  <si>
-    <t>AS_411</t>
-  </si>
-  <si>
-    <t>AS_412</t>
-  </si>
-  <si>
-    <t>AS_413</t>
-  </si>
-  <si>
-    <t>AS_415</t>
-  </si>
-  <si>
-    <t>AS_416</t>
-  </si>
-  <si>
-    <t>AS_419</t>
-  </si>
-  <si>
-    <t>AS_420</t>
-  </si>
-  <si>
-    <t>AS_421</t>
-  </si>
-  <si>
-    <t>AS_423</t>
-  </si>
-  <si>
-    <t>AS_424</t>
-  </si>
-  <si>
-    <t>AS_425</t>
-  </si>
-  <si>
-    <t>AS_426</t>
-  </si>
-  <si>
-    <t>AS_427</t>
-  </si>
-  <si>
-    <t>AS_428</t>
-  </si>
-  <si>
-    <t>AS_429</t>
-  </si>
-  <si>
-    <t>AS_430</t>
-  </si>
-  <si>
-    <t>AS_431</t>
-  </si>
-  <si>
-    <t>AS_432</t>
-  </si>
-  <si>
-    <t>AS_434</t>
-  </si>
-  <si>
-    <t>AS_435</t>
-  </si>
-  <si>
-    <t>AS_436</t>
-  </si>
-  <si>
-    <t>AS_437</t>
-  </si>
-  <si>
-    <t>AS_438</t>
-  </si>
-  <si>
-    <t>AS_439</t>
-  </si>
-  <si>
-    <t>AS_440</t>
-  </si>
-  <si>
-    <t>AS_442</t>
-  </si>
-  <si>
-    <t>AS_445</t>
-  </si>
-  <si>
-    <t>AS_447</t>
-  </si>
-  <si>
-    <t>AS_448</t>
-  </si>
-  <si>
-    <t>AS_450</t>
-  </si>
-  <si>
-    <t>AS_451</t>
-  </si>
-  <si>
-    <t>AS_452</t>
-  </si>
-  <si>
-    <t>AS_453</t>
-  </si>
-  <si>
-    <t>AS_454</t>
-  </si>
-  <si>
-    <t>AS_455</t>
-  </si>
-  <si>
-    <t>AS_456</t>
-  </si>
-  <si>
-    <t>AS_458</t>
-  </si>
-  <si>
-    <t>AS_460</t>
-  </si>
-  <si>
-    <t>AS_461</t>
-  </si>
-  <si>
-    <t>AS_462</t>
-  </si>
-  <si>
-    <t>AS_463</t>
-  </si>
-  <si>
-    <t>AS_465</t>
-  </si>
-  <si>
-    <t>AS_466</t>
-  </si>
-  <si>
-    <t>AS_467</t>
-  </si>
-  <si>
-    <t>AS_468</t>
-  </si>
-  <si>
-    <t>AS_469</t>
-  </si>
-  <si>
-    <t>AS_471</t>
-  </si>
-  <si>
-    <t>2019년 04월부터 사용료 부과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (담당자 이종례)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_473로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관급담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계산서담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_301 </t>
-  </si>
-  <si>
-    <t>옥산아스콘(주)</t>
-  </si>
-  <si>
-    <t>강은영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권이관 부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_302 </t>
-  </si>
-  <si>
-    <t>100-224</t>
-  </si>
-  <si>
-    <t>신양산업개발(주)</t>
-  </si>
-  <si>
-    <t>허춘강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2924-0900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_303 </t>
-  </si>
-  <si>
-    <t>100-408</t>
-  </si>
-  <si>
-    <t>이현산업개발(주)</t>
-  </si>
-  <si>
-    <t>최재영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_304 </t>
-  </si>
-  <si>
-    <t>100-206</t>
-  </si>
-  <si>
-    <t>석광아스콘(주)</t>
-  </si>
-  <si>
-    <t>오상균 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김은미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흥진산업(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변기현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이덕희 차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_308</t>
-  </si>
-  <si>
-    <t>(주)대흥아스콘개발</t>
-  </si>
-  <si>
-    <t>김병대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_311</t>
-  </si>
-  <si>
-    <t>100-109</t>
-  </si>
-  <si>
-    <t>부경아스콘(주)</t>
-  </si>
-  <si>
-    <t>곽헌규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_313</t>
-  </si>
-  <si>
-    <t>100-111</t>
-  </si>
-  <si>
-    <t>성신산업(주)</t>
-  </si>
-  <si>
-    <t>양미경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_315</t>
-  </si>
-  <si>
-    <t>100-114</t>
-  </si>
-  <si>
-    <t>(주)창조아스콘</t>
-  </si>
-  <si>
-    <t>서민석 이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_316</t>
-  </si>
-  <si>
-    <t>100-201</t>
-  </si>
-  <si>
-    <t>대성개발(주)</t>
-  </si>
-  <si>
-    <t>최재동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_317</t>
-  </si>
-  <si>
-    <t>100-202</t>
-  </si>
-  <si>
-    <t>익산건설(주)</t>
-  </si>
-  <si>
-    <t>박원규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_318</t>
-  </si>
-  <si>
-    <t>성광아스콘(주)</t>
-  </si>
-  <si>
-    <t>곽정숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_319</t>
-  </si>
-  <si>
-    <t>100-212</t>
-  </si>
-  <si>
-    <t>(주)청오아스콘</t>
-  </si>
-  <si>
-    <t>서정호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍은주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_330</t>
-  </si>
-  <si>
-    <t>100-303</t>
-  </si>
-  <si>
-    <t>(주)태하산업</t>
-  </si>
-  <si>
-    <t>AS_320</t>
-  </si>
-  <si>
-    <t>100-215</t>
-  </si>
-  <si>
-    <t>괴산아스콘(주)</t>
-  </si>
-  <si>
-    <t>김미숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_322</t>
-  </si>
-  <si>
-    <t>100-218</t>
-  </si>
-  <si>
-    <t>우리도시산업(주)</t>
-  </si>
-  <si>
-    <t>홍민우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_323</t>
-  </si>
-  <si>
-    <t>100-219</t>
-  </si>
-  <si>
-    <t>서일아스콘(주)</t>
-  </si>
-  <si>
-    <t>김기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_324</t>
-  </si>
-  <si>
-    <t>100-220</t>
-  </si>
-  <si>
-    <t>(합자)해룡</t>
-  </si>
-  <si>
-    <t>곽준호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_326</t>
-  </si>
-  <si>
-    <t>100-222</t>
-  </si>
-  <si>
-    <t>우진환경개발(주)</t>
-  </si>
-  <si>
-    <t>한창환 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_329</t>
-  </si>
-  <si>
-    <t>100-302</t>
-  </si>
-  <si>
-    <t>보은아스콘(주)</t>
-  </si>
-  <si>
-    <t>이장효 실장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_336</t>
-  </si>
-  <si>
-    <t>100-403</t>
-  </si>
-  <si>
-    <t>(주)대신아스콘</t>
-  </si>
-  <si>
-    <t>서영숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-304</t>
-  </si>
-  <si>
-    <t>대한아스콘(주)</t>
-  </si>
-  <si>
-    <t>여직원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채과장님 출장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_309</t>
-  </si>
-  <si>
-    <t>(주)석진산업</t>
-  </si>
-  <si>
-    <t>박예슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_310</t>
-  </si>
-  <si>
-    <t>태창산업(주)</t>
-  </si>
-  <si>
-    <t>우용미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤수 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_312</t>
-  </si>
-  <si>
-    <t>100-110</t>
-  </si>
-  <si>
-    <t>충주아스콘(주)</t>
-  </si>
-  <si>
-    <t>황아름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_314</t>
-  </si>
-  <si>
-    <t>100-113</t>
-  </si>
-  <si>
-    <t>(주)성안</t>
-  </si>
-  <si>
-    <t>최정숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_321</t>
-  </si>
-  <si>
-    <t>100-217</t>
-  </si>
-  <si>
-    <t>(주)대아산업</t>
-  </si>
-  <si>
-    <t>조경아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장중근 상무</t>
-  </si>
-  <si>
-    <t>AS_327</t>
-  </si>
-  <si>
-    <t>100-223</t>
-  </si>
-  <si>
-    <t>김수원 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_328</t>
-  </si>
-  <si>
-    <t>100-301</t>
-  </si>
-  <si>
-    <t>대동산업(주)</t>
-  </si>
-  <si>
-    <t>김기홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_331</t>
-  </si>
-  <si>
-    <t>100-307</t>
-  </si>
-  <si>
-    <t>(주)일양</t>
-  </si>
-  <si>
-    <t>김호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황을득 이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_333</t>
-  </si>
-  <si>
-    <t>100-309</t>
-  </si>
-  <si>
-    <t>대진아스콘(주)</t>
-  </si>
-  <si>
-    <t>임주열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤대중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_332</t>
-  </si>
-  <si>
-    <t>100-308</t>
-  </si>
-  <si>
-    <t>옥천아스콘(주)</t>
-  </si>
-  <si>
-    <t>AS_334</t>
-  </si>
-  <si>
-    <t>(자)효신아스콘</t>
-  </si>
-  <si>
-    <t>서명숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_335</t>
-  </si>
-  <si>
-    <t>100-402</t>
-  </si>
-  <si>
-    <t>(주)한일아스콘</t>
-  </si>
-  <si>
-    <t>최성숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_337</t>
-  </si>
-  <si>
-    <t>(주)아원</t>
-  </si>
-  <si>
-    <t>김중찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_338</t>
-  </si>
-  <si>
-    <t>제일산업(주)</t>
-  </si>
-  <si>
-    <t>엄주희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_339</t>
-  </si>
-  <si>
-    <t>금성개발(주)</t>
-  </si>
-  <si>
-    <t>이신성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서상덕 차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_325</t>
-  </si>
-  <si>
-    <t>100-221</t>
-  </si>
-  <si>
-    <t>(주)청주아스콘</t>
-  </si>
-  <si>
-    <t>한주아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세현 상무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시경아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규- 배정 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-07-31탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대주아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
+    <t>100-311</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2828,7 +2848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3012,21 +3032,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -3150,7 +3155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3235,12 +3240,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3310,10 +3309,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3328,9 +3327,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3338,9 +3334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3355,18 +3348,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3374,6 +3355,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3385,16 +3369,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3679,29 +3660,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="7.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3716,743 +3697,743 @@
         <v>38</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>687</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="69" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>690</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="31" t="s">
+      <c r="D4" s="35" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="77" t="s">
-        <v>846</v>
-      </c>
-      <c r="B4" s="53" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="67" t="s">
         <v>693</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="29" t="s">
         <v>694</v>
       </c>
-      <c r="D4" s="37" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A5" s="70"/>
+      <c r="B5" s="52" t="s">
         <v>695</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="75" t="s">
+      <c r="C5" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="31" t="s">
+      <c r="D5" s="38" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="54" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="29" t="s">
         <v>698</v>
       </c>
-      <c r="C5" s="39" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="29"/>
+      <c r="B6" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="C6" s="40" t="s">
         <v>700</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="31" t="s">
+      <c r="D6" s="41" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="31"/>
-      <c r="B6" s="42" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="45" t="s">
         <v>702</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="G6" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="29"/>
+      <c r="B7" s="42" t="s">
         <v>704</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="47" t="s">
+      <c r="C7" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>705</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
         <v>706</v>
       </c>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="31"/>
-      <c r="B7" s="44" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="45" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="29"/>
+      <c r="B8" s="42" t="s">
         <v>708</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46" t="s">
+      <c r="C8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="31" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="44" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="31"/>
-      <c r="B8" s="44" t="s">
+      <c r="G8" s="44" t="s">
         <v>711</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="29"/>
+      <c r="B9" s="42" t="s">
         <v>712</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46" t="s">
+      <c r="C9" s="42" t="s">
         <v>713</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>714</v>
       </c>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="31"/>
-      <c r="B9" s="44" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="42" t="s">
         <v>716</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>717</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46" t="s">
+      <c r="D10" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="31"/>
-      <c r="B10" s="44" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="44" t="s">
         <v>719</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="29"/>
+      <c r="B11" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>721</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>722</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="31"/>
-      <c r="B11" s="44" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44" t="s">
         <v>723</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="29"/>
+      <c r="B12" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="C12" s="42" t="s">
         <v>725</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46" t="s">
+      <c r="D12" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="31"/>
-      <c r="B12" s="44" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="44" t="s">
         <v>727</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="29"/>
+      <c r="B13" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="C13" s="42" t="s">
         <v>729</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46" t="s">
+      <c r="D13" s="43" t="s">
         <v>730</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="31"/>
-      <c r="B13" s="44" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="44" t="s">
         <v>731</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="G13" s="44"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="C14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>733</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="69" t="s">
+        <v>843</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>735</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C15" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>737</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="77" t="s">
-        <v>846</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="67" t="s">
         <v>738</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="G15" s="65" t="s">
         <v>739</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="70"/>
+      <c r="B16" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="75" t="s">
+      <c r="C16" s="37" t="s">
         <v>741</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="D16" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="54" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="29"/>
+      <c r="B17" s="40" t="s">
         <v>743</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C17" s="40" t="s">
         <v>744</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>745</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31"/>
-      <c r="B17" s="42" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="45" t="s">
         <v>746</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="29"/>
+      <c r="B18" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>748</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>749</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="31"/>
-      <c r="B18" s="44" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44" t="s">
         <v>750</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="H18" s="29" t="s">
         <v>751</v>
       </c>
-      <c r="D18" s="45" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="29"/>
+      <c r="B19" s="42" t="s">
         <v>752</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46" t="s">
+      <c r="C19" s="42" t="s">
         <v>753</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="D19" s="43" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="31"/>
-      <c r="B19" s="44" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44" t="s">
         <v>755</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="29"/>
+      <c r="B20" s="42" t="s">
         <v>756</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>757</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="D20" s="43" t="s">
         <v>758</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="31"/>
-      <c r="B20" s="44" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44" t="s">
         <v>759</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="H20" s="29" t="s">
         <v>760</v>
       </c>
-      <c r="D20" s="45" t="s">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="29"/>
+      <c r="B21" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46" t="s">
+      <c r="C21" s="42" t="s">
         <v>762</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="D21" s="43" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="31"/>
-      <c r="B21" s="44" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="46" t="s">
         <v>764</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="29"/>
+      <c r="B22" s="42" t="s">
         <v>765</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="C22" s="42" t="s">
         <v>766</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="48" t="s">
+      <c r="D22" s="43" t="s">
         <v>767</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="31"/>
-      <c r="B22" s="44" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="44" t="s">
         <v>768</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="G22" s="44"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="29"/>
+      <c r="B23" s="42" t="s">
         <v>769</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="C23" s="42" t="s">
         <v>770</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46" t="s">
+      <c r="D23" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="31"/>
-      <c r="B23" s="44" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="G23" s="44"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="29"/>
+      <c r="B24" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="C24" s="42" t="s">
         <v>774</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46" t="s">
+      <c r="D24" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="31"/>
-      <c r="B24" s="44" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46" t="s">
         <v>776</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="G24" s="46"/>
+      <c r="H24" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="D24" s="45" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="29"/>
+      <c r="B25" s="42" t="s">
         <v>778</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="48" t="s">
+      <c r="C25" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>779</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="31" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="46" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="31"/>
-      <c r="B25" s="44" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="29"/>
+      <c r="B26" s="42" t="s">
         <v>781</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>561</v>
-      </c>
-      <c r="D25" s="45" t="s">
+      <c r="C26" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="48" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="31"/>
-      <c r="B26" s="44" t="s">
+      <c r="H26" s="29" t="s">
         <v>784</v>
       </c>
-      <c r="C26" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="45" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="29"/>
+      <c r="B27" s="42" t="s">
         <v>785</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="C27" s="42" t="s">
         <v>786</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="D27" s="43" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="31"/>
-      <c r="B27" s="44" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="G27" s="44"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="29"/>
+      <c r="B28" s="42" t="s">
         <v>789</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="C28" s="42" t="s">
         <v>790</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46" t="s">
+      <c r="D28" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="31"/>
-      <c r="B28" s="44" t="s">
+      <c r="E28" s="43"/>
+      <c r="F28" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="29"/>
+      <c r="B29" s="42" t="s">
         <v>793</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="C29" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46" t="s">
+      <c r="D29" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="31"/>
-      <c r="B29" s="44" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="G29" s="44"/>
+      <c r="H29" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="D29" s="45" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="29"/>
+      <c r="B30" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46" t="s">
+      <c r="C30" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="31" t="s">
+      <c r="D30" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="31"/>
-      <c r="B30" s="44" t="s">
+      <c r="G30" s="44"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="29"/>
+      <c r="B31" s="42" t="s">
         <v>801</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C31" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46" t="s">
+      <c r="D31" s="43" t="s">
         <v>803</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="31"/>
-      <c r="B31" s="44" t="s">
+      <c r="E31" s="43"/>
+      <c r="F31" s="44" t="s">
         <v>804</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="31" t="s">
         <v>805</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46" t="s">
+      <c r="D32" s="32" t="s">
         <v>807</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="33" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33" t="s">
         <v>808</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="H32" s="47" t="s">
         <v>809</v>
       </c>
-      <c r="D32" s="34" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="69" t="s">
+        <v>843</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="D33" s="35" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="77" t="s">
-        <v>846</v>
-      </c>
-      <c r="B33" s="53" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="67" t="s">
         <v>813</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="70"/>
+      <c r="B34" s="52" t="s">
         <v>815</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="75" t="s">
+      <c r="C34" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="D34" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="78"/>
-      <c r="B34" s="54" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="29"/>
+      <c r="B35" s="40" t="s">
         <v>818</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C35" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>819</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="45" t="s">
         <v>820</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="31"/>
-      <c r="B35" s="42" t="s">
+      <c r="G35" s="45"/>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="31" t="s">
         <v>821</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="43" t="s">
+      <c r="C36" s="31" t="s">
         <v>822</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="47" t="s">
+      <c r="D36" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="33" t="s">
+      <c r="E36" s="32"/>
+      <c r="F36" s="33" t="s">
         <v>824</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="G36" s="33"/>
+      <c r="H36" s="29" t="s">
         <v>825</v>
       </c>
-      <c r="D36" s="34" t="s">
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="69" t="s">
+        <v>843</v>
+      </c>
+      <c r="B37" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35" t="s">
+      <c r="C37" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>827</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="31" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="48" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="77" t="s">
-        <v>846</v>
-      </c>
-      <c r="B37" s="53" t="s">
+      <c r="G37" s="36"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A38" s="70"/>
+      <c r="B38" s="52" t="s">
         <v>829</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="37" t="s">
+      <c r="C38" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="50" t="s">
+      <c r="E38" s="38"/>
+      <c r="F38" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="78"/>
-      <c r="B38" s="54" t="s">
+      <c r="G38" s="39"/>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="29"/>
+      <c r="B39" s="40" t="s">
         <v>832</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="40" t="s">
+      <c r="C39" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>833</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="51" t="s">
+      <c r="E39" s="41"/>
+      <c r="F39" s="45" t="s">
         <v>834</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="31"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="31"/>
-      <c r="B39" s="42" t="s">
+      <c r="G39" s="45"/>
+      <c r="H39" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="29"/>
+      <c r="B40" s="42" t="s">
         <v>836</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="47" t="s">
+      <c r="C40" s="42" t="s">
         <v>837</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="31" t="s">
+      <c r="D40" s="43" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="31"/>
-      <c r="B40" s="44" t="s">
+      <c r="E40" s="43"/>
+      <c r="F40" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="G40" s="44"/>
+      <c r="H40" s="29" t="s">
         <v>840</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>841</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46" t="s">
-        <v>842</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="31" t="s">
-        <v>843</v>
-      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="31"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4478,8 +4459,8 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4496,11 +4477,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -4511,24 +4492,24 @@
         <v>55</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>105</v>
@@ -4537,11 +4518,11 @@
         <v>104</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>88</v>
@@ -4550,11 +4531,11 @@
         <v>87</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>90</v>
@@ -4563,11 +4544,11 @@
         <v>89</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
@@ -4576,11 +4557,11 @@
         <v>155</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>157</v>
@@ -4589,11 +4570,11 @@
         <v>156</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>93</v>
@@ -4602,11 +4583,11 @@
         <v>92</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4615,11 +4596,11 @@
         <v>46</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>17</v>
@@ -4628,11 +4609,11 @@
         <v>75</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
@@ -4641,11 +4622,11 @@
         <v>91</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>26</v>
@@ -4654,11 +4635,11 @@
         <v>71</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>95</v>
@@ -4667,11 +4648,11 @@
         <v>94</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>154</v>
@@ -4680,11 +4661,11 @@
         <v>153</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
@@ -4693,11 +4674,11 @@
         <v>96</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>151</v>
@@ -4706,11 +4687,11 @@
         <v>150</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>152</v>
@@ -4719,11 +4700,11 @@
         <v>40</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>99</v>
@@ -4732,11 +4713,11 @@
         <v>98</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>147</v>
@@ -4745,14 +4726,14 @@
         <v>146</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="19"/>
       <c r="H20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>149</v>
@@ -4761,11 +4742,11 @@
         <v>148</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>80</v>
@@ -4774,11 +4755,11 @@
         <v>79</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>127</v>
@@ -4787,11 +4768,11 @@
         <v>126</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>123</v>
@@ -4800,11 +4781,11 @@
         <v>122</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>125</v>
@@ -4813,11 +4794,11 @@
         <v>124</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>82</v>
@@ -4826,25 +4807,25 @@
         <v>81</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:8" hidden="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>78</v>
@@ -4853,13 +4834,13 @@
       <c r="E28" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>612</v>
+      <c r="F28" s="50" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>84</v>
@@ -4868,11 +4849,11 @@
         <v>83</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>130</v>
@@ -4881,11 +4862,11 @@
         <v>41</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>116</v>
@@ -4894,14 +4875,14 @@
         <v>115</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="19"/>
       <c r="H31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>118</v>
@@ -4910,11 +4891,11 @@
         <v>117</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>120</v>
@@ -4923,11 +4904,11 @@
         <v>119</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>132</v>
@@ -4936,7 +4917,7 @@
         <v>131</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="10" t="s">
@@ -4949,14 +4930,14 @@
       <c r="E35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="19"/>
       <c r="H35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
@@ -4965,11 +4946,11 @@
         <v>133</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>61</v>
@@ -4978,11 +4959,11 @@
         <v>134</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>107</v>
@@ -4991,14 +4972,14 @@
         <v>106</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="19"/>
       <c r="H38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>139</v>
@@ -5007,11 +4988,11 @@
         <v>138</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>109</v>
@@ -5020,14 +5001,14 @@
         <v>39</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="19"/>
       <c r="H40" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>86</v>
@@ -5036,11 +5017,11 @@
         <v>85</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>101</v>
@@ -5049,11 +5030,11 @@
         <v>100</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>141</v>
@@ -5062,11 +5043,11 @@
         <v>140</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>111</v>
@@ -5075,11 +5056,11 @@
         <v>110</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>113</v>
@@ -5088,11 +5069,11 @@
         <v>112</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>137</v>
@@ -5101,11 +5082,11 @@
         <v>136</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>103</v>
@@ -5114,11 +5095,11 @@
         <v>102</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>73</v>
@@ -5127,53 +5108,53 @@
         <v>72</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="B49" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>572</v>
+        <v>542</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="B50" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>570</v>
+        <v>544</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>544</v>
+        <v>570</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1">
@@ -5187,13 +5168,13 @@
       <c r="E52" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>573</v>
+      <c r="F52" s="19" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>142</v>
@@ -5202,35 +5183,35 @@
         <v>37</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="F53" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="19"/>
       <c r="H54" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="B55" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>82</v>
@@ -5239,28 +5220,28 @@
       <c r="E55" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>576</v>
+      <c r="F55" s="19" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="H56" t="s">
         <v>567</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="H56" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1">
@@ -5274,72 +5255,72 @@
       <c r="E57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>578</v>
+      <c r="F57" s="19" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="F58" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="B59" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>559</v>
+        <v>580</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="20"/>
       <c r="B60" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="79" t="s">
-        <v>685</v>
-      </c>
       <c r="B61" s="24" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>108</v>
@@ -5348,152 +5329,152 @@
         <v>38</v>
       </c>
       <c r="E61" s="26"/>
-      <c r="F61" s="28"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A62" s="80"/>
-      <c r="B62" s="55" t="s">
-        <v>673</v>
-      </c>
-      <c r="C62" s="56" t="s">
+      <c r="A62" s="72"/>
+      <c r="B62" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="C62" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="58" t="s">
-        <v>850</v>
-      </c>
-      <c r="F62" s="59" t="s">
+      <c r="D62" s="55"/>
+      <c r="E62" s="56" t="s">
+        <v>847</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1">
+      <c r="A63" s="72"/>
+      <c r="B63" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>845</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>854</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>848</v>
+      </c>
+      <c r="F63" s="20" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="3" customFormat="1">
-      <c r="A63" s="80"/>
-      <c r="B63" s="68" t="s">
-        <v>847</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>848</v>
-      </c>
-      <c r="D63" s="70" t="s">
-        <v>857</v>
-      </c>
-      <c r="E63" s="70" t="s">
-        <v>851</v>
-      </c>
-      <c r="F63" s="71" t="s">
-        <v>852</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>856</v>
+      <c r="H63" s="17" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="80"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="27" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="58" t="s">
-        <v>686</v>
-      </c>
-      <c r="F64" s="29" t="s">
+      <c r="E64" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="F64" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="81"/>
-      <c r="B65" s="60" t="s">
-        <v>624</v>
-      </c>
-      <c r="C65" s="61" t="s">
-        <v>625</v>
-      </c>
-      <c r="D65" s="62" t="s">
-        <v>616</v>
-      </c>
-      <c r="E65" s="62" t="s">
-        <v>618</v>
-      </c>
-      <c r="F65" s="63" t="s">
-        <v>617</v>
+      <c r="A65" s="73"/>
+      <c r="B65" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>614</v>
       </c>
       <c r="H65" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>626</v>
-      </c>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="C66" s="65" t="s">
+      <c r="A66" s="60"/>
+      <c r="B66" s="61" t="s">
+        <v>645</v>
+      </c>
+      <c r="C66" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="66"/>
-      <c r="E66" s="67" t="s">
-        <v>611</v>
-      </c>
-      <c r="F66" s="66" t="s">
+      <c r="D66" s="62"/>
+      <c r="E66" s="63" t="s">
+        <v>608</v>
+      </c>
+      <c r="F66" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="H66" s="72"/>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="20"/>
-      <c r="B67" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>608</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>609</v>
-      </c>
-      <c r="E67" s="57" t="s">
+      <c r="B67" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>607</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="F67" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="H67" s="72" t="s">
-        <v>683</v>
+      <c r="H67" s="64" t="s">
+        <v>680</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="20"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="E68" s="55"/>
+      <c r="F68" s="20"/>
+      <c r="H68" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>621</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>620</v>
-      </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="H68" s="72" t="s">
-        <v>623</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="E72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5501,8 +5482,8 @@
     <mergeCell ref="A61:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5511,8 +5492,8 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -5533,11 +5514,11 @@
   <sheetData>
     <row r="1" spans="1:18" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6333,36 +6314,18 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
+      <c r="B30" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" t="s">
-        <v>531</v>
-      </c>
-      <c r="M30" t="s">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s">
-        <v>271</v>
-      </c>
-      <c r="O30" t="s">
-        <v>532</v>
+        <v>852</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -6376,19 +6339,19 @@
         <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s">
         <v>531</v>
       </c>
       <c r="M31" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
         <v>532</v>
@@ -6405,19 +6368,19 @@
         <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
         <v>531</v>
       </c>
       <c r="M32" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
         <v>532</v>
@@ -6434,19 +6397,19 @@
         <v>215</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s">
         <v>531</v>
       </c>
       <c r="M33" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="O33" t="s">
         <v>532</v>
@@ -6463,19 +6426,19 @@
         <v>217</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s">
         <v>531</v>
       </c>
       <c r="M34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O34" t="s">
         <v>532</v>
@@ -6492,13 +6455,22 @@
         <v>219</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K35" t="s">
         <v>531</v>
+      </c>
+      <c r="M35" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6512,10 +6484,10 @@
         <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K36" t="s">
         <v>531</v>
@@ -6532,10 +6504,10 @@
         <v>188</v>
       </c>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="J37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K37" t="s">
         <v>531</v>
@@ -6552,10 +6524,10 @@
         <v>190</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K38" t="s">
         <v>531</v>
@@ -6572,10 +6544,10 @@
         <v>206</v>
       </c>
       <c r="I39" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K39" t="s">
         <v>531</v>
@@ -6591,6 +6563,15 @@
       <c r="C40" t="s">
         <v>160</v>
       </c>
+      <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" t="s">
+        <v>236</v>
+      </c>
+      <c r="K40" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
@@ -6773,16 +6754,16 @@
     </row>
     <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
+        <v>549</v>
+      </c>
+      <c r="B57" t="s">
         <v>550</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>551</v>
       </c>
-      <c r="D57" t="s">
-        <v>552</v>
-      </c>
       <c r="E57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6796,10 +6777,10 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
+        <v>552</v>
+      </c>
+      <c r="E58" t="s">
         <v>553</v>
-      </c>
-      <c r="E58" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
@@ -6945,7 +6926,7 @@
         <v>535</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>537</v>
@@ -6962,7 +6943,7 @@
         <v>255</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>537</v>
@@ -6979,7 +6960,7 @@
         <v>257</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>537</v>
@@ -7011,11 +6992,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7221,11 +7202,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -7234,21 +7215,23 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="C2" s="1">
-        <f>COUNTA(C3:C200)</f>
-        <v>58</v>
+        <f>COUNTA(C3:C198)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7512,7 +7495,7 @@
         <v>489</v>
       </c>
       <c r="B26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C26" t="s">
         <v>362</v>
@@ -7872,16 +7855,16 @@
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
+        <v>556</v>
+      </c>
+      <c r="B59" t="s">
+        <v>555</v>
+      </c>
+      <c r="D59" t="s">
         <v>557</v>
       </c>
-      <c r="B59" t="s">
-        <v>556</v>
-      </c>
-      <c r="D59" t="s">
-        <v>558</v>
-      </c>
       <c r="E59" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -7895,21 +7878,21 @@
         <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E60" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B61" t="s">
         <v>335</v>
       </c>
       <c r="D61" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E61" t="s">
         <v>334</v>
@@ -7917,16 +7900,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B62" t="s">
-        <v>597</v>
+        <v>863</v>
       </c>
       <c r="C62" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D62" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E62" t="s">
         <v>334</v>
@@ -7937,21 +7920,41 @@
         <v>539</v>
       </c>
       <c r="B63" t="s">
-        <v>601</v>
-      </c>
-      <c r="C63" t="s">
-        <v>540</v>
+        <v>599</v>
+      </c>
+      <c r="D63" t="s">
+        <v>859</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>602</v>
+        <v>858</v>
       </c>
     </row>
     <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>861</v>
+      </c>
+      <c r="B64" t="s">
+        <v>862</v>
+      </c>
       <c r="D64" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>860</v>
+      </c>
+      <c r="B65" t="s">
+        <v>857</v>
+      </c>
+      <c r="D65" t="s">
+        <v>856</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="876">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -1500,1260 +1500,1309 @@
     <t>AS_829</t>
   </si>
   <si>
+    <t>AS_831</t>
+  </si>
+  <si>
+    <t>AS_833</t>
+  </si>
+  <si>
+    <t>AS_834</t>
+  </si>
+  <si>
+    <t>AS_835</t>
+  </si>
+  <si>
+    <t>AS_836</t>
+  </si>
+  <si>
+    <t>AS_837</t>
+  </si>
+  <si>
+    <t>AS_838</t>
+  </si>
+  <si>
+    <t>AS_839</t>
+  </si>
+  <si>
+    <t>AS_840</t>
+  </si>
+  <si>
+    <t>AS_841</t>
+  </si>
+  <si>
+    <t>AS_842</t>
+  </si>
+  <si>
+    <t>AS_843</t>
+  </si>
+  <si>
+    <t>AS_844</t>
+  </si>
+  <si>
+    <t>AS_845</t>
+  </si>
+  <si>
+    <t>AS_846</t>
+  </si>
+  <si>
+    <t>AS_847</t>
+  </si>
+  <si>
+    <t>AS_848</t>
+  </si>
+  <si>
+    <t>AS_849</t>
+  </si>
+  <si>
+    <t>AS_850</t>
+  </si>
+  <si>
+    <t>AS_851</t>
+  </si>
+  <si>
+    <t>AS_852</t>
+  </si>
+  <si>
+    <t>AS_853</t>
+  </si>
+  <si>
+    <t>AS_854</t>
+  </si>
+  <si>
+    <t>AS_855</t>
+  </si>
+  <si>
+    <t>AS_856</t>
+  </si>
+  <si>
+    <t>AS_857</t>
+  </si>
+  <si>
+    <t>AS_858</t>
+  </si>
+  <si>
+    <t>AS_859</t>
+  </si>
+  <si>
+    <t>AS_860</t>
+  </si>
+  <si>
+    <t>AS_862</t>
+  </si>
+  <si>
+    <t>AS_863</t>
+  </si>
+  <si>
+    <t>AS_864</t>
+  </si>
+  <si>
+    <t>계산서는 RM_4E1</t>
+  </si>
+  <si>
+    <t>AS_G18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_G19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합자회사 신영아스콘</t>
+  </si>
+  <si>
+    <t>합자회사고려아스콘</t>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경</t>
+  </si>
+  <si>
+    <t>북부</t>
+  </si>
+  <si>
+    <t>세일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세일건업㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN_534</t>
+  </si>
+  <si>
+    <t>잔량체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_865</t>
+  </si>
+  <si>
+    <t>(주)한정</t>
+  </si>
+  <si>
+    <t>100-581</t>
+  </si>
+  <si>
+    <t>(주)흥진</t>
+  </si>
+  <si>
+    <t>AS_464</t>
+  </si>
+  <si>
+    <t>(주)한덕산업 본점</t>
+  </si>
+  <si>
+    <t>100-305</t>
+  </si>
+  <si>
+    <t>100-539</t>
+  </si>
+  <si>
+    <t>100-582</t>
+  </si>
+  <si>
+    <t>AS_5B9 → AS_5B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_5B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-042</t>
+  </si>
+  <si>
+    <t>(주)정도종합산업</t>
+  </si>
+  <si>
+    <t>← (주)정도종합산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_5B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-251</t>
+  </si>
+  <si>
+    <t>AS_861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성유화㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_408 → AS_471</t>
+  </si>
+  <si>
+    <t>대덕아스콘환경(주)</t>
+  </si>
+  <si>
+    <t>100-105</t>
+  </si>
+  <si>
+    <t>인평산업(주)</t>
+  </si>
+  <si>
+    <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
+  </si>
+  <si>
+    <t>(주)한덕산업</t>
+  </si>
+  <si>
+    <t>100-578</t>
+  </si>
+  <si>
+    <t>(주)유림테크</t>
+  </si>
+  <si>
+    <t>(주)선우</t>
+  </si>
+  <si>
+    <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
+  </si>
+  <si>
+    <t>AS_422</t>
+  </si>
+  <si>
+    <t>AS_464 → AS_465</t>
+  </si>
+  <si>
+    <t>← (주)한덕산업 본점</t>
+  </si>
+  <si>
+    <t>AS_422 → AS_464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_414 → AS_466</t>
+  </si>
+  <si>
+    <t>← 부원콘크리트산업(주)</t>
+  </si>
+  <si>
+    <t>AS_433</t>
+  </si>
+  <si>
+    <t>AS_433 → AS_468</t>
+  </si>
+  <si>
+    <t>← 제일아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_418 → AS_469</t>
+  </si>
+  <si>
+    <t>← (주)한호디앤디</t>
+  </si>
+  <si>
+    <t>AS_408</t>
+  </si>
+  <si>
+    <t>(주)보광</t>
+  </si>
+  <si>
+    <t>← (주)보광</t>
+  </si>
+  <si>
+    <t>화신아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남 아스콘 사업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구경북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합변경 AJ_005 → AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)금호산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은진산업㈜ </t>
+  </si>
+  <si>
+    <t>← AS_826에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_861에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 금성아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 이후로 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_427  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부강아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 부강레미콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사 케이알아스콘</t>
+  </si>
+  <si>
+    <t>100-583</t>
+  </si>
+  <si>
+    <t>010-8629-1450 (임종성 부장)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-584</t>
+  </si>
+  <si>
+    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472</t>
+  </si>
+  <si>
+    <t>AS_441</t>
+  </si>
+  <si>
+    <t>AS_402</t>
+  </si>
+  <si>
+    <t>AS_403</t>
+  </si>
+  <si>
+    <t>AS_404</t>
+  </si>
+  <si>
+    <t>AS_405</t>
+  </si>
+  <si>
+    <t>AS_406</t>
+  </si>
+  <si>
+    <t>AS_407</t>
+  </si>
+  <si>
+    <t>AS_410</t>
+  </si>
+  <si>
+    <t>AS_411</t>
+  </si>
+  <si>
+    <t>AS_412</t>
+  </si>
+  <si>
+    <t>AS_413</t>
+  </si>
+  <si>
+    <t>AS_415</t>
+  </si>
+  <si>
+    <t>AS_416</t>
+  </si>
+  <si>
+    <t>AS_419</t>
+  </si>
+  <si>
+    <t>AS_420</t>
+  </si>
+  <si>
+    <t>AS_421</t>
+  </si>
+  <si>
+    <t>AS_423</t>
+  </si>
+  <si>
+    <t>AS_424</t>
+  </si>
+  <si>
+    <t>AS_425</t>
+  </si>
+  <si>
+    <t>AS_426</t>
+  </si>
+  <si>
+    <t>AS_427</t>
+  </si>
+  <si>
+    <t>AS_428</t>
+  </si>
+  <si>
+    <t>AS_429</t>
+  </si>
+  <si>
+    <t>AS_430</t>
+  </si>
+  <si>
+    <t>AS_431</t>
+  </si>
+  <si>
+    <t>AS_432</t>
+  </si>
+  <si>
+    <t>AS_434</t>
+  </si>
+  <si>
+    <t>AS_435</t>
+  </si>
+  <si>
+    <t>AS_436</t>
+  </si>
+  <si>
+    <t>AS_437</t>
+  </si>
+  <si>
+    <t>AS_438</t>
+  </si>
+  <si>
+    <t>AS_439</t>
+  </si>
+  <si>
+    <t>AS_440</t>
+  </si>
+  <si>
+    <t>AS_442</t>
+  </si>
+  <si>
+    <t>AS_445</t>
+  </si>
+  <si>
+    <t>AS_447</t>
+  </si>
+  <si>
+    <t>AS_448</t>
+  </si>
+  <si>
+    <t>AS_450</t>
+  </si>
+  <si>
+    <t>AS_451</t>
+  </si>
+  <si>
+    <t>AS_452</t>
+  </si>
+  <si>
+    <t>AS_453</t>
+  </si>
+  <si>
+    <t>AS_454</t>
+  </si>
+  <si>
+    <t>AS_455</t>
+  </si>
+  <si>
+    <t>AS_456</t>
+  </si>
+  <si>
+    <t>AS_458</t>
+  </si>
+  <si>
+    <t>AS_460</t>
+  </si>
+  <si>
+    <t>AS_461</t>
+  </si>
+  <si>
+    <t>AS_462</t>
+  </si>
+  <si>
+    <t>AS_463</t>
+  </si>
+  <si>
+    <t>AS_465</t>
+  </si>
+  <si>
+    <t>AS_466</t>
+  </si>
+  <si>
+    <t>AS_467</t>
+  </si>
+  <si>
+    <t>AS_468</t>
+  </si>
+  <si>
+    <t>AS_469</t>
+  </si>
+  <si>
+    <t>AS_471</t>
+  </si>
+  <si>
+    <t>2019년 04월부터 사용료 부과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (담당자 이종례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관급담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_301 </t>
+  </si>
+  <si>
+    <t>옥산아스콘(주)</t>
+  </si>
+  <si>
+    <t>강은영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권이관 부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_302 </t>
+  </si>
+  <si>
+    <t>100-224</t>
+  </si>
+  <si>
+    <t>신양산업개발(주)</t>
+  </si>
+  <si>
+    <t>허춘강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2924-0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_303 </t>
+  </si>
+  <si>
+    <t>100-408</t>
+  </si>
+  <si>
+    <t>이현산업개발(주)</t>
+  </si>
+  <si>
+    <t>최재영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_304 </t>
+  </si>
+  <si>
+    <t>100-206</t>
+  </si>
+  <si>
+    <t>석광아스콘(주)</t>
+  </si>
+  <si>
+    <t>오상균 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥진산업(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이덕희 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_308</t>
+  </si>
+  <si>
+    <t>(주)대흥아스콘개발</t>
+  </si>
+  <si>
+    <t>김병대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_311</t>
+  </si>
+  <si>
+    <t>100-109</t>
+  </si>
+  <si>
+    <t>부경아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽헌규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_313</t>
+  </si>
+  <si>
+    <t>100-111</t>
+  </si>
+  <si>
+    <t>성신산업(주)</t>
+  </si>
+  <si>
+    <t>양미경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_315</t>
+  </si>
+  <si>
+    <t>100-114</t>
+  </si>
+  <si>
+    <t>(주)창조아스콘</t>
+  </si>
+  <si>
+    <t>서민석 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_316</t>
+  </si>
+  <si>
+    <t>100-201</t>
+  </si>
+  <si>
+    <t>대성개발(주)</t>
+  </si>
+  <si>
+    <t>최재동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_317</t>
+  </si>
+  <si>
+    <t>100-202</t>
+  </si>
+  <si>
+    <t>익산건설(주)</t>
+  </si>
+  <si>
+    <t>박원규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_318</t>
+  </si>
+  <si>
+    <t>성광아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_319</t>
+  </si>
+  <si>
+    <t>100-212</t>
+  </si>
+  <si>
+    <t>(주)청오아스콘</t>
+  </si>
+  <si>
+    <t>서정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_330</t>
+  </si>
+  <si>
+    <t>100-303</t>
+  </si>
+  <si>
+    <t>(주)태하산업</t>
+  </si>
+  <si>
+    <t>AS_320</t>
+  </si>
+  <si>
+    <t>100-215</t>
+  </si>
+  <si>
+    <t>괴산아스콘(주)</t>
+  </si>
+  <si>
+    <t>김미숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_322</t>
+  </si>
+  <si>
+    <t>100-218</t>
+  </si>
+  <si>
+    <t>우리도시산업(주)</t>
+  </si>
+  <si>
+    <t>홍민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_323</t>
+  </si>
+  <si>
+    <t>100-219</t>
+  </si>
+  <si>
+    <t>서일아스콘(주)</t>
+  </si>
+  <si>
+    <t>김기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_324</t>
+  </si>
+  <si>
+    <t>100-220</t>
+  </si>
+  <si>
+    <t>(합자)해룡</t>
+  </si>
+  <si>
+    <t>곽준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_326</t>
+  </si>
+  <si>
+    <t>100-222</t>
+  </si>
+  <si>
+    <t>우진환경개발(주)</t>
+  </si>
+  <si>
+    <t>한창환 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_329</t>
+  </si>
+  <si>
+    <t>100-302</t>
+  </si>
+  <si>
+    <t>보은아스콘(주)</t>
+  </si>
+  <si>
+    <t>이장효 실장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_336</t>
+  </si>
+  <si>
+    <t>100-403</t>
+  </si>
+  <si>
+    <t>(주)대신아스콘</t>
+  </si>
+  <si>
+    <t>서영숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-304</t>
+  </si>
+  <si>
+    <t>대한아스콘(주)</t>
+  </si>
+  <si>
+    <t>여직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채과장님 출장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_309</t>
+  </si>
+  <si>
+    <t>(주)석진산업</t>
+  </si>
+  <si>
+    <t>박예슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_310</t>
+  </si>
+  <si>
+    <t>태창산업(주)</t>
+  </si>
+  <si>
+    <t>우용미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_312</t>
+  </si>
+  <si>
+    <t>100-110</t>
+  </si>
+  <si>
+    <t>충주아스콘(주)</t>
+  </si>
+  <si>
+    <t>황아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_314</t>
+  </si>
+  <si>
+    <t>100-113</t>
+  </si>
+  <si>
+    <t>(주)성안</t>
+  </si>
+  <si>
+    <t>최정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_321</t>
+  </si>
+  <si>
+    <t>100-217</t>
+  </si>
+  <si>
+    <t>(주)대아산업</t>
+  </si>
+  <si>
+    <t>조경아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장중근 상무</t>
+  </si>
+  <si>
+    <t>AS_327</t>
+  </si>
+  <si>
+    <t>100-223</t>
+  </si>
+  <si>
+    <t>김수원 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_328</t>
+  </si>
+  <si>
+    <t>100-301</t>
+  </si>
+  <si>
+    <t>대동산업(주)</t>
+  </si>
+  <si>
+    <t>김기홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_331</t>
+  </si>
+  <si>
+    <t>100-307</t>
+  </si>
+  <si>
+    <t>(주)일양</t>
+  </si>
+  <si>
+    <t>김호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황을득 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_333</t>
+  </si>
+  <si>
+    <t>100-309</t>
+  </si>
+  <si>
+    <t>대진아스콘(주)</t>
+  </si>
+  <si>
+    <t>임주열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤대중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_332</t>
+  </si>
+  <si>
+    <t>100-308</t>
+  </si>
+  <si>
+    <t>옥천아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_334</t>
+  </si>
+  <si>
+    <t>(자)효신아스콘</t>
+  </si>
+  <si>
+    <t>서명숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_335</t>
+  </si>
+  <si>
+    <t>100-402</t>
+  </si>
+  <si>
+    <t>(주)한일아스콘</t>
+  </si>
+  <si>
+    <t>최성숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_337</t>
+  </si>
+  <si>
+    <t>(주)아원</t>
+  </si>
+  <si>
+    <t>김중찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_338</t>
+  </si>
+  <si>
+    <t>제일산업(주)</t>
+  </si>
+  <si>
+    <t>엄주희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_339</t>
+  </si>
+  <si>
+    <t>금성개발(주)</t>
+  </si>
+  <si>
+    <t>이신성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서상덕 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_325</t>
+  </si>
+  <si>
+    <t>100-221</t>
+  </si>
+  <si>
+    <t>(주)청주아스콘</t>
+  </si>
+  <si>
+    <t>한주아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세현 상무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시경아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규- 배정 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-31탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-31까지 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국아레콘 주식회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_868</t>
+  </si>
+  <si>
+    <t>100-632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-30까지 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)신도아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_845에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼호산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AS_830</t>
-  </si>
-  <si>
-    <t>AS_831</t>
-  </si>
-  <si>
-    <t>AS_833</t>
-  </si>
-  <si>
-    <t>AS_834</t>
-  </si>
-  <si>
-    <t>AS_835</t>
-  </si>
-  <si>
-    <t>AS_836</t>
-  </si>
-  <si>
-    <t>AS_837</t>
-  </si>
-  <si>
-    <t>AS_838</t>
-  </si>
-  <si>
-    <t>AS_839</t>
-  </si>
-  <si>
-    <t>AS_840</t>
-  </si>
-  <si>
-    <t>AS_841</t>
-  </si>
-  <si>
-    <t>AS_842</t>
-  </si>
-  <si>
-    <t>AS_843</t>
-  </si>
-  <si>
-    <t>AS_844</t>
-  </si>
-  <si>
-    <t>AS_845</t>
-  </si>
-  <si>
-    <t>AS_846</t>
-  </si>
-  <si>
-    <t>AS_847</t>
-  </si>
-  <si>
-    <t>AS_848</t>
-  </si>
-  <si>
-    <t>AS_849</t>
-  </si>
-  <si>
-    <t>AS_850</t>
-  </si>
-  <si>
-    <t>AS_851</t>
-  </si>
-  <si>
-    <t>AS_852</t>
-  </si>
-  <si>
-    <t>AS_853</t>
-  </si>
-  <si>
-    <t>AS_854</t>
-  </si>
-  <si>
-    <t>AS_855</t>
-  </si>
-  <si>
-    <t>AS_856</t>
-  </si>
-  <si>
-    <t>AS_857</t>
-  </si>
-  <si>
-    <t>AS_858</t>
-  </si>
-  <si>
-    <t>AS_859</t>
-  </si>
-  <si>
-    <t>AS_860</t>
-  </si>
-  <si>
-    <t>AS_862</t>
-  </si>
-  <si>
-    <t>AS_863</t>
-  </si>
-  <si>
-    <t>AS_864</t>
-  </si>
-  <si>
-    <t>계산서는 RM_4E1</t>
-  </si>
-  <si>
-    <t>AS_G18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_G19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합자회사 신영아스콘</t>
-  </si>
-  <si>
-    <t>합자회사고려아스콘</t>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대경</t>
-  </si>
-  <si>
-    <t>북부</t>
-  </si>
-  <si>
-    <t>세일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세일건업㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN_534</t>
-  </si>
-  <si>
-    <t>잔량체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_865</t>
-  </si>
-  <si>
-    <t>(주)한정</t>
-  </si>
-  <si>
-    <t>100-581</t>
-  </si>
-  <si>
-    <t>(주)흥진</t>
-  </si>
-  <si>
-    <t>AS_464</t>
-  </si>
-  <si>
-    <t>(주)한덕산업 본점</t>
-  </si>
-  <si>
-    <t>100-305</t>
-  </si>
-  <si>
-    <t>100-539</t>
-  </si>
-  <si>
-    <t>100-582</t>
-  </si>
-  <si>
-    <t>AS_5B9 → AS_5B4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_5B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-042</t>
-  </si>
-  <si>
-    <t>(주)정도종합산업</t>
-  </si>
-  <si>
-    <t>← (주)정도종합산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_5B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_861 → AS_864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-251</t>
-  </si>
-  <si>
-    <t>AS_861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보성유화㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_408 → AS_471</t>
-  </si>
-  <si>
-    <t>대덕아스콘환경(주)</t>
-  </si>
-  <si>
-    <t>100-105</t>
-  </si>
-  <si>
-    <t>인평산업(주)</t>
-  </si>
-  <si>
-    <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
-  </si>
-  <si>
-    <t>(주)한덕산업</t>
-  </si>
-  <si>
-    <t>100-578</t>
-  </si>
-  <si>
-    <t>(주)유림테크</t>
-  </si>
-  <si>
-    <t>(주)선우</t>
-  </si>
-  <si>
-    <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
-  </si>
-  <si>
-    <t>AS_422</t>
-  </si>
-  <si>
-    <t>AS_464 → AS_465</t>
-  </si>
-  <si>
-    <t>← (주)한덕산업 본점</t>
-  </si>
-  <si>
-    <t>AS_422 → AS_464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_414 → AS_466</t>
-  </si>
-  <si>
-    <t>← 부원콘크리트산업(주)</t>
-  </si>
-  <si>
-    <t>AS_433</t>
-  </si>
-  <si>
-    <t>AS_433 → AS_468</t>
-  </si>
-  <si>
-    <t>← 제일아스콘(주)</t>
-  </si>
-  <si>
-    <t>AS_418 → AS_469</t>
-  </si>
-  <si>
-    <t>← (주)한호디앤디</t>
-  </si>
-  <si>
-    <t>AS_408</t>
-  </si>
-  <si>
-    <t>(주)보광</t>
-  </si>
-  <si>
-    <t>← (주)보광</t>
-  </si>
-  <si>
-    <t>화신아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전세종충남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주전남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영남 아스콘 사업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구경북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)금호산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보성유화㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-361</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">은진산업㈜ </t>
-  </si>
-  <si>
-    <t>AS_826로 업체 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_826에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_861에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금성개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 금성아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 이후로 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_427  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부강아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 부강레미콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식회사 케이알아스콘</t>
-  </si>
-  <si>
-    <t>100-583</t>
-  </si>
-  <si>
-    <t>010-8629-1450 (임종성 부장)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-584</t>
-  </si>
-  <si>
-    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472</t>
-  </si>
-  <si>
-    <t>AS_441</t>
-  </si>
-  <si>
-    <t>AS_402</t>
-  </si>
-  <si>
-    <t>AS_403</t>
-  </si>
-  <si>
-    <t>AS_404</t>
-  </si>
-  <si>
-    <t>AS_405</t>
-  </si>
-  <si>
-    <t>AS_406</t>
-  </si>
-  <si>
-    <t>AS_407</t>
-  </si>
-  <si>
-    <t>AS_410</t>
-  </si>
-  <si>
-    <t>AS_411</t>
-  </si>
-  <si>
-    <t>AS_412</t>
-  </si>
-  <si>
-    <t>AS_413</t>
-  </si>
-  <si>
-    <t>AS_415</t>
-  </si>
-  <si>
-    <t>AS_416</t>
-  </si>
-  <si>
-    <t>AS_419</t>
-  </si>
-  <si>
-    <t>AS_420</t>
-  </si>
-  <si>
-    <t>AS_421</t>
-  </si>
-  <si>
-    <t>AS_423</t>
-  </si>
-  <si>
-    <t>AS_424</t>
-  </si>
-  <si>
-    <t>AS_425</t>
-  </si>
-  <si>
-    <t>AS_426</t>
-  </si>
-  <si>
-    <t>AS_427</t>
-  </si>
-  <si>
-    <t>AS_428</t>
-  </si>
-  <si>
-    <t>AS_429</t>
-  </si>
-  <si>
-    <t>AS_430</t>
-  </si>
-  <si>
-    <t>AS_431</t>
-  </si>
-  <si>
-    <t>AS_432</t>
-  </si>
-  <si>
-    <t>AS_434</t>
-  </si>
-  <si>
-    <t>AS_435</t>
-  </si>
-  <si>
-    <t>AS_436</t>
-  </si>
-  <si>
-    <t>AS_437</t>
-  </si>
-  <si>
-    <t>AS_438</t>
-  </si>
-  <si>
-    <t>AS_439</t>
-  </si>
-  <si>
-    <t>AS_440</t>
-  </si>
-  <si>
-    <t>AS_442</t>
-  </si>
-  <si>
-    <t>AS_445</t>
-  </si>
-  <si>
-    <t>AS_447</t>
-  </si>
-  <si>
-    <t>AS_448</t>
-  </si>
-  <si>
-    <t>AS_450</t>
-  </si>
-  <si>
-    <t>AS_451</t>
-  </si>
-  <si>
-    <t>AS_452</t>
-  </si>
-  <si>
-    <t>AS_453</t>
-  </si>
-  <si>
-    <t>AS_454</t>
-  </si>
-  <si>
-    <t>AS_455</t>
-  </si>
-  <si>
-    <t>AS_456</t>
-  </si>
-  <si>
-    <t>AS_458</t>
-  </si>
-  <si>
-    <t>AS_460</t>
-  </si>
-  <si>
-    <t>AS_461</t>
-  </si>
-  <si>
-    <t>AS_462</t>
-  </si>
-  <si>
-    <t>AS_463</t>
-  </si>
-  <si>
-    <t>AS_465</t>
-  </si>
-  <si>
-    <t>AS_466</t>
-  </si>
-  <si>
-    <t>AS_467</t>
-  </si>
-  <si>
-    <t>AS_468</t>
-  </si>
-  <si>
-    <t>AS_469</t>
-  </si>
-  <si>
-    <t>AS_471</t>
-  </si>
-  <si>
-    <t>2019년 04월부터 사용료 부과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (담당자 이종례)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_473로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관급담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계산서담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_301 </t>
-  </si>
-  <si>
-    <t>옥산아스콘(주)</t>
-  </si>
-  <si>
-    <t>강은영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권이관 부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_302 </t>
-  </si>
-  <si>
-    <t>100-224</t>
-  </si>
-  <si>
-    <t>신양산업개발(주)</t>
-  </si>
-  <si>
-    <t>허춘강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2924-0900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_303 </t>
-  </si>
-  <si>
-    <t>100-408</t>
-  </si>
-  <si>
-    <t>이현산업개발(주)</t>
-  </si>
-  <si>
-    <t>최재영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_304 </t>
-  </si>
-  <si>
-    <t>100-206</t>
-  </si>
-  <si>
-    <t>석광아스콘(주)</t>
-  </si>
-  <si>
-    <t>오상균 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김은미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흥진산업(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변기현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이덕희 차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_308</t>
-  </si>
-  <si>
-    <t>(주)대흥아스콘개발</t>
-  </si>
-  <si>
-    <t>김병대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_311</t>
-  </si>
-  <si>
-    <t>100-109</t>
-  </si>
-  <si>
-    <t>부경아스콘(주)</t>
-  </si>
-  <si>
-    <t>곽헌규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_313</t>
-  </si>
-  <si>
-    <t>100-111</t>
-  </si>
-  <si>
-    <t>성신산업(주)</t>
-  </si>
-  <si>
-    <t>양미경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_315</t>
-  </si>
-  <si>
-    <t>100-114</t>
-  </si>
-  <si>
-    <t>(주)창조아스콘</t>
-  </si>
-  <si>
-    <t>서민석 이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_316</t>
-  </si>
-  <si>
-    <t>100-201</t>
-  </si>
-  <si>
-    <t>대성개발(주)</t>
-  </si>
-  <si>
-    <t>최재동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_317</t>
-  </si>
-  <si>
-    <t>100-202</t>
-  </si>
-  <si>
-    <t>익산건설(주)</t>
-  </si>
-  <si>
-    <t>박원규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_318</t>
-  </si>
-  <si>
-    <t>성광아스콘(주)</t>
-  </si>
-  <si>
-    <t>곽정숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_319</t>
-  </si>
-  <si>
-    <t>100-212</t>
-  </si>
-  <si>
-    <t>(주)청오아스콘</t>
-  </si>
-  <si>
-    <t>서정호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍은주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_330</t>
-  </si>
-  <si>
-    <t>100-303</t>
-  </si>
-  <si>
-    <t>(주)태하산업</t>
-  </si>
-  <si>
-    <t>AS_320</t>
-  </si>
-  <si>
-    <t>100-215</t>
-  </si>
-  <si>
-    <t>괴산아스콘(주)</t>
-  </si>
-  <si>
-    <t>김미숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_322</t>
-  </si>
-  <si>
-    <t>100-218</t>
-  </si>
-  <si>
-    <t>우리도시산업(주)</t>
-  </si>
-  <si>
-    <t>홍민우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_323</t>
-  </si>
-  <si>
-    <t>100-219</t>
-  </si>
-  <si>
-    <t>서일아스콘(주)</t>
-  </si>
-  <si>
-    <t>김기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_324</t>
-  </si>
-  <si>
-    <t>100-220</t>
-  </si>
-  <si>
-    <t>(합자)해룡</t>
-  </si>
-  <si>
-    <t>곽준호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_326</t>
-  </si>
-  <si>
-    <t>100-222</t>
-  </si>
-  <si>
-    <t>우진환경개발(주)</t>
-  </si>
-  <si>
-    <t>한창환 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_329</t>
-  </si>
-  <si>
-    <t>100-302</t>
-  </si>
-  <si>
-    <t>보은아스콘(주)</t>
-  </si>
-  <si>
-    <t>이장효 실장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_336</t>
-  </si>
-  <si>
-    <t>100-403</t>
-  </si>
-  <si>
-    <t>(주)대신아스콘</t>
-  </si>
-  <si>
-    <t>서영숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-304</t>
-  </si>
-  <si>
-    <t>대한아스콘(주)</t>
-  </si>
-  <si>
-    <t>여직원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채과장님 출장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_309</t>
-  </si>
-  <si>
-    <t>(주)석진산업</t>
-  </si>
-  <si>
-    <t>박예슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_310</t>
-  </si>
-  <si>
-    <t>태창산업(주)</t>
-  </si>
-  <si>
-    <t>우용미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤수 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_312</t>
-  </si>
-  <si>
-    <t>100-110</t>
-  </si>
-  <si>
-    <t>충주아스콘(주)</t>
-  </si>
-  <si>
-    <t>황아름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_314</t>
-  </si>
-  <si>
-    <t>100-113</t>
-  </si>
-  <si>
-    <t>(주)성안</t>
-  </si>
-  <si>
-    <t>최정숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_321</t>
-  </si>
-  <si>
-    <t>100-217</t>
-  </si>
-  <si>
-    <t>(주)대아산업</t>
-  </si>
-  <si>
-    <t>조경아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장중근 상무</t>
-  </si>
-  <si>
-    <t>AS_327</t>
-  </si>
-  <si>
-    <t>100-223</t>
-  </si>
-  <si>
-    <t>김수원 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_328</t>
-  </si>
-  <si>
-    <t>100-301</t>
-  </si>
-  <si>
-    <t>대동산업(주)</t>
-  </si>
-  <si>
-    <t>김기홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_331</t>
-  </si>
-  <si>
-    <t>100-307</t>
-  </si>
-  <si>
-    <t>(주)일양</t>
-  </si>
-  <si>
-    <t>김호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황을득 이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_333</t>
-  </si>
-  <si>
-    <t>100-309</t>
-  </si>
-  <si>
-    <t>대진아스콘(주)</t>
-  </si>
-  <si>
-    <t>임주열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤대중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_332</t>
-  </si>
-  <si>
-    <t>100-308</t>
-  </si>
-  <si>
-    <t>옥천아스콘(주)</t>
-  </si>
-  <si>
-    <t>AS_334</t>
-  </si>
-  <si>
-    <t>(자)효신아스콘</t>
-  </si>
-  <si>
-    <t>서명숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_335</t>
-  </si>
-  <si>
-    <t>100-402</t>
-  </si>
-  <si>
-    <t>(주)한일아스콘</t>
-  </si>
-  <si>
-    <t>최성숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_337</t>
-  </si>
-  <si>
-    <t>(주)아원</t>
-  </si>
-  <si>
-    <t>김중찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_338</t>
-  </si>
-  <si>
-    <t>제일산업(주)</t>
-  </si>
-  <si>
-    <t>엄주희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_339</t>
-  </si>
-  <si>
-    <t>금성개발(주)</t>
-  </si>
-  <si>
-    <t>이신성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서상덕 차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_325</t>
-  </si>
-  <si>
-    <t>100-221</t>
-  </si>
-  <si>
-    <t>(주)청주아스콘</t>
-  </si>
-  <si>
-    <t>한주아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세현 상무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시경아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규- 배정 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-07-31탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대주아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-186</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-31까지 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국아레콘 주식회사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_868</t>
-  </si>
-  <si>
-    <t>100-632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_830에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미진 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_864로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_869로 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_870로 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)남향아스콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2764,7 +2813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개 회원사&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2822,6 +2871,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3155,7 +3228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3349,6 +3422,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3660,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3678,11 +3760,11 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3698,147 +3780,147 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="28" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="29"/>
       <c r="B3" s="31" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="33" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="29" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="72" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>686</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="70" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="69" t="s">
-        <v>843</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>690</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>691</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>692</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="67" t="s">
-        <v>693</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="29" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="52" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="68"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="39"/>
       <c r="H5" s="29" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="29"/>
       <c r="B6" s="40" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="45" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="29"/>
       <c r="B7" s="42" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="44" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="29" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="29"/>
       <c r="B8" s="42" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="44" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="29"/>
       <c r="B9" s="42" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="44" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="29"/>
@@ -3846,17 +3928,17 @@
     <row r="10" spans="1:8">
       <c r="A10" s="29"/>
       <c r="B10" s="42" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="44" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="29"/>
@@ -3864,35 +3946,35 @@
     <row r="11" spans="1:8">
       <c r="A11" s="29"/>
       <c r="B11" s="42" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="29"/>
       <c r="B12" s="42" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="29"/>
@@ -3900,17 +3982,17 @@
     <row r="13" spans="1:8">
       <c r="A13" s="29"/>
       <c r="B13" s="42" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="44" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="29"/>
@@ -3918,73 +4000,73 @@
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="29"/>
       <c r="B14" s="31" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="69" t="s">
-        <v>843</v>
+      <c r="A15" s="72" t="s">
+        <v>839</v>
       </c>
       <c r="B15" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="70" t="s">
+        <v>734</v>
+      </c>
+      <c r="G15" s="68" t="s">
         <v>735</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="52" t="s">
         <v>736</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="C16" s="37" t="s">
         <v>737</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="67" t="s">
+      <c r="D16" s="38" t="s">
         <v>738</v>
       </c>
-      <c r="G15" s="65" t="s">
-        <v>739</v>
-      </c>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="52" t="s">
-        <v>740</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>741</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>742</v>
-      </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="29"/>
       <c r="B17" s="40" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="45" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="29"/>
@@ -3992,37 +4074,37 @@
     <row r="18" spans="1:8">
       <c r="A18" s="29"/>
       <c r="B18" s="42" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="29"/>
       <c r="B19" s="42" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="29"/>
@@ -4030,37 +4112,37 @@
     <row r="20" spans="1:8">
       <c r="A20" s="29"/>
       <c r="B20" s="42" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="29"/>
       <c r="B21" s="42" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="29"/>
@@ -4068,17 +4150,17 @@
     <row r="22" spans="1:8">
       <c r="A22" s="29"/>
       <c r="B22" s="42" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="29"/>
@@ -4086,17 +4168,17 @@
     <row r="23" spans="1:8">
       <c r="A23" s="29"/>
       <c r="B23" s="42" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="44" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="29"/>
@@ -4104,37 +4186,37 @@
     <row r="24" spans="1:8">
       <c r="A24" s="29"/>
       <c r="B24" s="42" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="46" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="29" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="29"/>
       <c r="B25" s="42" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="46" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="29"/>
@@ -4142,37 +4224,37 @@
     <row r="26" spans="1:8">
       <c r="A26" s="29"/>
       <c r="B26" s="42" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="29"/>
       <c r="B27" s="42" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="29"/>
@@ -4180,17 +4262,17 @@
     <row r="28" spans="1:8">
       <c r="A28" s="29"/>
       <c r="B28" s="42" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="29"/>
@@ -4198,37 +4280,37 @@
     <row r="29" spans="1:8">
       <c r="A29" s="29"/>
       <c r="B29" s="42" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="44" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="29" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="29"/>
       <c r="B30" s="42" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="44" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="29"/>
@@ -4236,17 +4318,17 @@
     <row r="31" spans="1:8">
       <c r="A31" s="29"/>
       <c r="B31" s="42" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="44" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="29"/>
@@ -4254,75 +4336,75 @@
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="29"/>
       <c r="B32" s="31" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="72" t="s">
+        <v>839</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>807</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="70" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="69" t="s">
-        <v>843</v>
-      </c>
-      <c r="B33" s="51" t="s">
+      <c r="G33" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="73"/>
+      <c r="B34" s="52" t="s">
         <v>811</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="C34" s="37" t="s">
         <v>812</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="67" t="s">
+      <c r="D34" s="38" t="s">
         <v>813</v>
       </c>
-      <c r="G33" s="36" t="s">
-        <v>814</v>
-      </c>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="52" t="s">
-        <v>815</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>817</v>
-      </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="68"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="39"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="29"/>
       <c r="B35" s="40" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="45" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="29"/>
@@ -4330,57 +4412,57 @@
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="31" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="29" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="69" t="s">
-        <v>843</v>
+      <c r="A37" s="72" t="s">
+        <v>839</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="48" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="70"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="52" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="49" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="29"/>
@@ -4388,41 +4470,41 @@
     <row r="39" spans="1:8">
       <c r="A39" s="29"/>
       <c r="B39" s="40" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="45" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="29" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="29"/>
       <c r="B40" s="42" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="44" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G40" s="44"/>
       <c r="H40" s="29" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4477,11 +4559,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -4496,20 +4578,20 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>105</v>
@@ -4522,7 +4604,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>88</v>
@@ -4535,7 +4617,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>90</v>
@@ -4548,7 +4630,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
@@ -4561,7 +4643,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>157</v>
@@ -4574,7 +4656,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>93</v>
@@ -4587,7 +4669,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4600,7 +4682,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>17</v>
@@ -4613,7 +4695,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
@@ -4626,7 +4708,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>26</v>
@@ -4639,7 +4721,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>95</v>
@@ -4652,7 +4734,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>154</v>
@@ -4665,7 +4747,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
@@ -4678,7 +4760,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>151</v>
@@ -4691,7 +4773,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>152</v>
@@ -4704,7 +4786,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>99</v>
@@ -4717,7 +4799,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="10" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>147</v>
@@ -4733,7 +4815,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="10" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>149</v>
@@ -4746,7 +4828,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>80</v>
@@ -4759,7 +4841,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>127</v>
@@ -4772,7 +4854,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>123</v>
@@ -4785,7 +4867,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="10" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>125</v>
@@ -4798,7 +4880,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>82</v>
@@ -4811,13 +4893,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="10" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="19"/>
@@ -4825,7 +4907,7 @@
     <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="50"/>
       <c r="B28" s="14" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>78</v>
@@ -4835,12 +4917,12 @@
         <v>77</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="10" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>84</v>
@@ -4853,7 +4935,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="10" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>130</v>
@@ -4866,7 +4948,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="10" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>116</v>
@@ -4882,7 +4964,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>118</v>
@@ -4895,7 +4977,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="10" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>120</v>
@@ -4908,7 +4990,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="10" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>132</v>
@@ -4937,7 +5019,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
@@ -4950,7 +5032,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>61</v>
@@ -4963,7 +5045,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>107</v>
@@ -4974,12 +5056,12 @@
       <c r="E38" s="12"/>
       <c r="F38" s="19"/>
       <c r="H38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>139</v>
@@ -4992,7 +5074,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>109</v>
@@ -5003,12 +5085,12 @@
       <c r="E40" s="12"/>
       <c r="F40" s="19"/>
       <c r="H40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="10" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>86</v>
@@ -5021,7 +5103,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>101</v>
@@ -5034,7 +5116,7 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>141</v>
@@ -5047,7 +5129,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="10" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>111</v>
@@ -5060,7 +5142,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>113</v>
@@ -5073,7 +5155,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>137</v>
@@ -5086,7 +5168,7 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="10" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>103</v>
@@ -5099,7 +5181,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="10" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>73</v>
@@ -5112,49 +5194,49 @@
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="B49" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="B50" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1">
@@ -5169,12 +5251,12 @@
         <v>67</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="10" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>142</v>
@@ -5183,35 +5265,35 @@
         <v>37</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="10" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="19"/>
       <c r="H54" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="B55" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>82</v>
@@ -5221,27 +5303,27 @@
         <v>81</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="10" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H56" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1">
@@ -5256,21 +5338,21 @@
         <v>69</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>381</v>
@@ -5278,49 +5360,49 @@
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="B59" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="20"/>
       <c r="B60" s="22" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="71" t="s">
-        <v>682</v>
+      <c r="A61" s="74" t="s">
+        <v>678</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>108</v>
@@ -5332,93 +5414,93 @@
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A62" s="72"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="53" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C62" s="54" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="56" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1">
-      <c r="A63" s="72"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="53" t="s">
+        <v>840</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>841</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>850</v>
+      </c>
+      <c r="E63" s="55" t="s">
         <v>844</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="F63" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="D63" s="55" t="s">
-        <v>854</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="F63" s="20" t="s">
+      <c r="H63" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>853</v>
-      </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="72"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="27" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="56" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F64" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="73"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="57" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A66" s="60"/>
       <c r="B66" s="61" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C66" s="61" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="62"/>
       <c r="E66" s="63" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F66" s="60" t="s">
         <v>128</v>
@@ -5428,53 +5510,53 @@
     <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="54" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D67" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="E67" s="55" t="s">
-        <v>607</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>610</v>
-      </c>
       <c r="H67" s="64" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="20"/>
       <c r="B68" s="54" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C68" s="54" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E68" s="55"/>
       <c r="F68" s="20"/>
       <c r="H68" s="64" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="E72" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H72" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5514,11 +5596,11 @@
   <sheetData>
     <row r="1" spans="1:18" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5545,7 +5627,7 @@
         <v>231</v>
       </c>
       <c r="K3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M3" t="s">
         <v>250</v>
@@ -5554,7 +5636,7 @@
         <v>249</v>
       </c>
       <c r="O3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -5574,7 +5656,7 @@
         <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M4" t="s">
         <v>254</v>
@@ -5583,7 +5665,7 @@
         <v>253</v>
       </c>
       <c r="O4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5603,7 +5685,7 @@
         <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M5" t="s">
         <v>260</v>
@@ -5612,7 +5694,7 @@
         <v>259</v>
       </c>
       <c r="O5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -5632,7 +5714,7 @@
         <v>261</v>
       </c>
       <c r="K6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M6" t="s">
         <v>170</v>
@@ -5641,7 +5723,7 @@
         <v>169</v>
       </c>
       <c r="O6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -5661,7 +5743,7 @@
         <v>263</v>
       </c>
       <c r="K7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M7" t="s">
         <v>163</v>
@@ -5670,7 +5752,7 @@
         <v>162</v>
       </c>
       <c r="O7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -5690,7 +5772,7 @@
         <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -5699,7 +5781,7 @@
         <v>235</v>
       </c>
       <c r="O8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -5719,7 +5801,7 @@
         <v>238</v>
       </c>
       <c r="K9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M9" t="s">
         <v>179</v>
@@ -5728,7 +5810,7 @@
         <v>178</v>
       </c>
       <c r="O9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5748,7 +5830,7 @@
         <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M10" t="s">
         <v>229</v>
@@ -5757,7 +5839,7 @@
         <v>228</v>
       </c>
       <c r="O10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -5777,14 +5859,14 @@
         <v>176</v>
       </c>
       <c r="K11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4" t="s">
         <v>159</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>158</v>
@@ -5809,7 +5891,7 @@
         <v>174</v>
       </c>
       <c r="K12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M12" t="s">
         <v>209</v>
@@ -5818,7 +5900,7 @@
         <v>208</v>
       </c>
       <c r="O12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5838,7 +5920,7 @@
         <v>175</v>
       </c>
       <c r="K13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M13" t="s">
         <v>185</v>
@@ -5847,7 +5929,7 @@
         <v>184</v>
       </c>
       <c r="O13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5867,7 +5949,7 @@
         <v>233</v>
       </c>
       <c r="K14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M14" t="s">
         <v>216</v>
@@ -5876,7 +5958,7 @@
         <v>215</v>
       </c>
       <c r="O14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5896,7 +5978,7 @@
         <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M15" t="s">
         <v>218</v>
@@ -5905,7 +5987,7 @@
         <v>217</v>
       </c>
       <c r="O15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5925,7 +6007,7 @@
         <v>230</v>
       </c>
       <c r="K16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M16" t="s">
         <v>220</v>
@@ -5934,7 +6016,7 @@
         <v>219</v>
       </c>
       <c r="O16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5954,7 +6036,7 @@
         <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M17" t="s">
         <v>5</v>
@@ -5963,7 +6045,7 @@
         <v>221</v>
       </c>
       <c r="O17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5983,7 +6065,7 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M18" t="s">
         <v>189</v>
@@ -5992,7 +6074,7 @@
         <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -6012,7 +6094,7 @@
         <v>224</v>
       </c>
       <c r="K19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M19" t="s">
         <v>211</v>
@@ -6021,7 +6103,7 @@
         <v>210</v>
       </c>
       <c r="O19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -6041,7 +6123,7 @@
         <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M20" t="s">
         <v>214</v>
@@ -6050,7 +6132,7 @@
         <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -6070,7 +6152,7 @@
         <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M21" t="s">
         <v>199</v>
@@ -6079,7 +6161,7 @@
         <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -6099,7 +6181,7 @@
         <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
@@ -6108,7 +6190,7 @@
         <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -6128,7 +6210,7 @@
         <v>160</v>
       </c>
       <c r="K23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M23" t="s">
         <v>203</v>
@@ -6137,7 +6219,7 @@
         <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -6157,7 +6239,7 @@
         <v>186</v>
       </c>
       <c r="K24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M24" t="s">
         <v>205</v>
@@ -6166,7 +6248,7 @@
         <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -6186,7 +6268,7 @@
         <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M25" t="s">
         <v>4</v>
@@ -6195,7 +6277,7 @@
         <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -6215,7 +6297,7 @@
         <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M26" t="s">
         <v>6</v>
@@ -6224,7 +6306,7 @@
         <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -6244,7 +6326,7 @@
         <v>196</v>
       </c>
       <c r="K27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M27" t="s">
         <v>1</v>
@@ -6253,7 +6335,7 @@
         <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -6273,7 +6355,7 @@
         <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M28" t="s">
         <v>166</v>
@@ -6282,7 +6364,7 @@
         <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -6302,7 +6384,7 @@
         <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M29" t="s">
         <v>266</v>
@@ -6311,7 +6393,7 @@
         <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:15" hidden="1">
@@ -6325,7 +6407,7 @@
         <v>158</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -6345,7 +6427,7 @@
         <v>51</v>
       </c>
       <c r="K31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M31" t="s">
         <v>272</v>
@@ -6354,7 +6436,7 @@
         <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -6374,7 +6456,7 @@
         <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M32" t="s">
         <v>64</v>
@@ -6383,7 +6465,7 @@
         <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6403,7 +6485,7 @@
         <v>53</v>
       </c>
       <c r="K33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M33" t="s">
         <v>168</v>
@@ -6412,7 +6494,7 @@
         <v>167</v>
       </c>
       <c r="O33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6432,7 +6514,7 @@
         <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M34" t="s">
         <v>256</v>
@@ -6441,7 +6523,7 @@
         <v>255</v>
       </c>
       <c r="O34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6461,7 +6543,7 @@
         <v>240</v>
       </c>
       <c r="K35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M35" t="s">
         <v>258</v>
@@ -6470,7 +6552,7 @@
         <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6490,7 +6572,7 @@
         <v>242</v>
       </c>
       <c r="K36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6510,7 +6592,7 @@
         <v>244</v>
       </c>
       <c r="K37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6530,7 +6612,7 @@
         <v>246</v>
       </c>
       <c r="K38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -6550,7 +6632,7 @@
         <v>247</v>
       </c>
       <c r="K39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -6570,7 +6652,7 @@
         <v>236</v>
       </c>
       <c r="K40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -6606,7 +6688,7 @@
         <v>52</v>
       </c>
       <c r="J43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -6754,16 +6836,16 @@
     </row>
     <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
+        <v>548</v>
+      </c>
+      <c r="B57" t="s">
         <v>549</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>550</v>
       </c>
-      <c r="D57" t="s">
-        <v>551</v>
-      </c>
       <c r="E57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6777,10 +6859,10 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
+        <v>551</v>
+      </c>
+      <c r="E58" t="s">
         <v>552</v>
-      </c>
-      <c r="E58" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
@@ -6917,19 +6999,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>535</v>
+      </c>
+      <c r="B71" t="s">
+        <v>533</v>
+      </c>
+      <c r="C71" t="s">
+        <v>534</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="B71" t="s">
-        <v>534</v>
-      </c>
-      <c r="C71" t="s">
-        <v>535</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6943,10 +7025,10 @@
         <v>255</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6960,10 +7042,10 @@
         <v>257</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6992,11 +7074,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7161,36 +7243,36 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" t="s">
         <v>525</v>
       </c>
-      <c r="B18" t="s">
-        <v>526</v>
-      </c>
       <c r="C18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -7202,11 +7284,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -7214,24 +7296,26 @@
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="C2" s="1">
-        <f>COUNTA(C3:C198)</f>
-        <v>57</v>
+        <f>COUNTA(C3:C194)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7388,7 +7472,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>480</v>
       </c>
@@ -7399,7 +7483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>481</v>
       </c>
@@ -7410,7 +7494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>482</v>
       </c>
@@ -7421,7 +7505,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>483</v>
       </c>
@@ -7432,7 +7516,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>484</v>
       </c>
@@ -7443,7 +7527,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>485</v>
       </c>
@@ -7454,21 +7538,22 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" hidden="1">
+    <row r="23" spans="1:6" s="3" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="66"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>487</v>
       </c>
@@ -7479,7 +7564,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>488</v>
       </c>
@@ -7490,81 +7575,81 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>489</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C26" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>490</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>491</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>492</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>493</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>494</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="C31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>495</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7572,10 +7657,10 @@
         <v>496</v>
       </c>
       <c r="B33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7583,10 +7668,10 @@
         <v>497</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7594,10 +7679,10 @@
         <v>498</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="C35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7605,10 +7690,10 @@
         <v>499</v>
       </c>
       <c r="B36" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7616,10 +7701,10 @@
         <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7627,10 +7712,10 @@
         <v>501</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7638,328 +7723,382 @@
         <v>502</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="C39" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="C43" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B48" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="C54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B56" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C56" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="B57" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>553</v>
+      </c>
+      <c r="D57" t="s">
+        <v>555</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>521</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1">
+        <v>301</v>
+      </c>
+      <c r="E58" t="s">
+        <v>599</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="B59" t="s">
-        <v>555</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>557</v>
-      </c>
-      <c r="E59" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="F59" s="65" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>859</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
-      </c>
-      <c r="D60" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E60" t="s">
+        <v>598</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1">
+      <c r="A61" t="s">
+        <v>538</v>
+      </c>
+      <c r="B61" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1">
-      <c r="A61" t="s">
-        <v>595</v>
-      </c>
-      <c r="B61" t="s">
-        <v>335</v>
-      </c>
       <c r="D61" t="s">
-        <v>601</v>
-      </c>
-      <c r="E61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>855</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>598</v>
+        <v>857</v>
       </c>
       <c r="B62" t="s">
+        <v>858</v>
+      </c>
+      <c r="D62" t="s">
+        <v>846</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>856</v>
+      </c>
+      <c r="B63" t="s">
+        <v>853</v>
+      </c>
+      <c r="D63" t="s">
+        <v>852</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1">
+      <c r="A64" t="s">
+        <v>503</v>
+      </c>
+      <c r="B64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D64" t="s">
+        <v>348</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>872</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
         <v>863</v>
       </c>
-      <c r="C62" t="s">
-        <v>594</v>
-      </c>
-      <c r="D62" t="s">
-        <v>602</v>
-      </c>
-      <c r="E62" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>539</v>
-      </c>
-      <c r="B63" t="s">
-        <v>599</v>
-      </c>
-      <c r="D63" t="s">
-        <v>859</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
         <v>861</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D65" t="s">
         <v>862</v>
       </c>
-      <c r="D64" t="s">
-        <v>850</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>860</v>
-      </c>
-      <c r="B65" t="s">
-        <v>857</v>
-      </c>
-      <c r="D65" t="s">
-        <v>856</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>851</v>
+      <c r="E65" t="s">
+        <v>864</v>
+      </c>
+      <c r="F65" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1">
+      <c r="A66" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="65" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -3228,7 +3228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3459,6 +3459,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3742,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5573,9 +5576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -5777,7 +5780,7 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="77" t="s">
         <v>235</v>
       </c>
       <c r="O8" t="s">
@@ -7051,7 +7054,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="895">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -2691,10 +2691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규- 배정 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-07-31탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2742,10 +2738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-11-30까지 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100-633</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2762,47 +2754,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100-312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_830에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미진 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_864로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_869로 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_870로 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)남향아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜와이앤피알에이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-04설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-31조합탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_305</t>
+  </si>
+  <si>
+    <t>AS_340</t>
+  </si>
+  <si>
+    <t>서경아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정안산업㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 2020-03배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)대유산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)와이앤피알에이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_G20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 2020-02-17배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>삼호산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_830에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미진 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_864로 업체 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_869로 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_870로 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_866로 업체 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)남향아스콘</t>
+  </si>
+  <si>
+    <t>입찰참여 안함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3228,7 +3301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3433,6 +3506,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3459,9 +3553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3743,16 +3834,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.25" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.125" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="29" bestFit="1" customWidth="1"/>
@@ -3765,7 +3856,7 @@
       <c r="B1" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="9" t="s">
         <v>838</v>
       </c>
@@ -3779,7 +3870,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="11">
         <f>COUNTA(D3:D113)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="28" t="s">
@@ -3811,7 +3902,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="79" t="s">
         <v>839</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -3824,7 +3915,7 @@
         <v>688</v>
       </c>
       <c r="E4" s="35"/>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="77" t="s">
         <v>689</v>
       </c>
       <c r="G4" s="36"/>
@@ -3833,7 +3924,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="73"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="52" t="s">
         <v>691</v>
       </c>
@@ -3844,7 +3935,7 @@
         <v>693</v>
       </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="71"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="39"/>
       <c r="H5" s="29" t="s">
         <v>694</v>
@@ -3930,21 +4021,23 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="29"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="69" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="69" t="s">
         <v>713</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="56" t="s">
         <v>715</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="60" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="29"/>
@@ -4019,7 +4112,7 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="79" t="s">
         <v>839</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -4032,16 +4125,16 @@
         <v>733</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="77" t="s">
         <v>734</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="75" t="s">
         <v>735</v>
       </c>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="52" t="s">
         <v>736</v>
       </c>
@@ -4052,8 +4145,8 @@
         <v>738</v>
       </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="69"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
@@ -4357,7 +4450,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="79" t="s">
         <v>839</v>
       </c>
       <c r="B33" s="51" t="s">
@@ -4370,7 +4463,7 @@
         <v>808</v>
       </c>
       <c r="E33" s="35"/>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="77" t="s">
         <v>809</v>
       </c>
       <c r="G33" s="36" t="s">
@@ -4379,7 +4472,7 @@
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="52" t="s">
         <v>811</v>
       </c>
@@ -4390,7 +4483,7 @@
         <v>813</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="71"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="39"/>
       <c r="H34" s="29"/>
     </row>
@@ -4433,7 +4526,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="79" t="s">
         <v>839</v>
       </c>
       <c r="B37" s="51" t="s">
@@ -4453,7 +4546,7 @@
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="73"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="52" t="s">
         <v>825</v>
       </c>
@@ -4512,13 +4605,39 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
       <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="30" t="s">
+        <v>885</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>877</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>886</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>888</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4533,6 +4652,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5397,11 +5517,11 @@
         <v>607</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="81" t="s">
         <v>678</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -5417,7 +5537,7 @@
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A62" s="75"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="53" t="s">
         <v>666</v>
       </c>
@@ -5433,7 +5553,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1">
-      <c r="A63" s="75"/>
+      <c r="A63" s="82"/>
       <c r="B63" s="53" t="s">
         <v>840</v>
       </c>
@@ -5441,7 +5561,7 @@
         <v>841</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E63" s="55" t="s">
         <v>844</v>
@@ -5450,11 +5570,11 @@
         <v>845</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="75"/>
+      <c r="A64" s="82"/>
       <c r="B64" s="27" t="s">
         <v>621</v>
       </c>
@@ -5470,7 +5590,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="76"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="57" t="s">
         <v>617</v>
       </c>
@@ -5576,9 +5696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -5780,7 +5900,7 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="77" t="s">
+      <c r="N8" s="68" t="s">
         <v>235</v>
       </c>
       <c r="O8" t="s">
@@ -5896,14 +6016,20 @@
       <c r="K12" t="s">
         <v>530</v>
       </c>
-      <c r="M12" t="s">
-        <v>209</v>
-      </c>
-      <c r="N12" t="s">
-        <v>208</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="M12" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="O12" s="18" t="s">
         <v>531</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5926,10 +6052,10 @@
         <v>530</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="N13" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O13" t="s">
         <v>531</v>
@@ -5955,10 +6081,10 @@
         <v>530</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="O14" t="s">
         <v>531</v>
@@ -5984,10 +6110,10 @@
         <v>530</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O15" t="s">
         <v>531</v>
@@ -6013,10 +6139,10 @@
         <v>530</v>
       </c>
       <c r="M16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O16" t="s">
         <v>531</v>
@@ -6042,10 +6168,10 @@
         <v>530</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="N17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O17" t="s">
         <v>531</v>
@@ -6071,10 +6197,10 @@
         <v>530</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="O18" t="s">
         <v>531</v>
@@ -6100,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="M19" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
         <v>531</v>
@@ -6129,10 +6255,10 @@
         <v>530</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s">
         <v>531</v>
@@ -6158,10 +6284,10 @@
         <v>530</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
         <v>531</v>
@@ -6187,10 +6313,10 @@
         <v>530</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
         <v>531</v>
@@ -6216,10 +6342,10 @@
         <v>530</v>
       </c>
       <c r="M23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
         <v>531</v>
@@ -6245,10 +6371,10 @@
         <v>530</v>
       </c>
       <c r="M24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
         <v>531</v>
@@ -6274,10 +6400,10 @@
         <v>530</v>
       </c>
       <c r="M25" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
         <v>531</v>
@@ -6303,10 +6429,10 @@
         <v>530</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
         <v>531</v>
@@ -6332,10 +6458,10 @@
         <v>530</v>
       </c>
       <c r="M27" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
         <v>531</v>
@@ -6361,10 +6487,10 @@
         <v>530</v>
       </c>
       <c r="M28" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s">
         <v>531</v>
@@ -6390,10 +6516,10 @@
         <v>530</v>
       </c>
       <c r="M29" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="O29" t="s">
         <v>531</v>
@@ -6410,7 +6536,16 @@
         <v>158</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="M30" t="s">
+        <v>266</v>
+      </c>
+      <c r="N30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -6432,15 +6567,6 @@
       <c r="K31" t="s">
         <v>530</v>
       </c>
-      <c r="M31" t="s">
-        <v>272</v>
-      </c>
-      <c r="N31" t="s">
-        <v>271</v>
-      </c>
-      <c r="O31" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
@@ -6462,16 +6588,16 @@
         <v>530</v>
       </c>
       <c r="M32" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>415</v>
       </c>
@@ -6491,16 +6617,16 @@
         <v>530</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="N33" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -6520,16 +6646,16 @@
         <v>530</v>
       </c>
       <c r="M34" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="N34" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="O34" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>417</v>
       </c>
@@ -6549,16 +6675,16 @@
         <v>530</v>
       </c>
       <c r="M35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>418</v>
       </c>
@@ -6577,8 +6703,17 @@
       <c r="K36" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="M36" t="s">
+        <v>258</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>419</v>
       </c>
@@ -6598,7 +6733,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>420</v>
       </c>
@@ -6617,8 +6752,20 @@
       <c r="K38" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="M38" s="73" t="s">
+        <v>883</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>421</v>
       </c>
@@ -6638,7 +6785,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>422</v>
       </c>
@@ -6658,7 +6805,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>423</v>
       </c>
@@ -6669,7 +6816,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>424</v>
       </c>
@@ -6680,7 +6827,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>425</v>
       </c>
@@ -6694,7 +6841,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>426</v>
       </c>
@@ -6705,7 +6852,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>427</v>
       </c>
@@ -6716,7 +6863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>428</v>
       </c>
@@ -6727,7 +6874,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>429</v>
       </c>
@@ -6738,7 +6885,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>430</v>
       </c>
@@ -7060,11 +7207,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7073,6 +7220,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
@@ -7086,8 +7234,8 @@
     </row>
     <row r="2" spans="1:3">
       <c r="C2" s="1">
-        <f>COUNTA(C3:C18)</f>
-        <v>16</v>
+        <f>COUNTA(C3:C23)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7278,10 +7426,31 @@
         <v>536</v>
       </c>
     </row>
+    <row r="19" spans="1:5" s="71" customFormat="1">
+      <c r="A19" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>880</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>890</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="4"/>
+      <c r="D20" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7290,8 +7459,8 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -7318,7 +7487,7 @@
     <row r="2" spans="1:3">
       <c r="C2" s="1">
         <f>COUNTA(C3:C194)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7930,7 +8099,7 @@
         <v>555</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7961,7 +8130,7 @@
         <v>334</v>
       </c>
       <c r="F59" s="65" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -7969,7 +8138,7 @@
         <v>595</v>
       </c>
       <c r="B60" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C60" t="s">
         <v>592</v>
@@ -7978,7 +8147,7 @@
         <v>598</v>
       </c>
       <c r="F60" s="65" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1">
@@ -7989,39 +8158,35 @@
         <v>596</v>
       </c>
       <c r="D61" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>856</v>
+      </c>
+      <c r="B62" t="s">
         <v>857</v>
       </c>
-      <c r="B62" t="s">
-        <v>858</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>847</v>
-      </c>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B63" t="s">
-        <v>853</v>
-      </c>
-      <c r="D63" t="s">
         <v>852</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>847</v>
-      </c>
+      <c r="C63" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
@@ -8034,35 +8199,31 @@
         <v>348</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>872</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>860</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B65" t="s">
-        <v>861</v>
-      </c>
-      <c r="D65" t="s">
+        <v>859</v>
+      </c>
+      <c r="C65" t="s">
+        <v>860</v>
+      </c>
+      <c r="E65" t="s">
         <v>862</v>
-      </c>
-      <c r="E65" t="s">
-        <v>864</v>
       </c>
       <c r="F65" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>847</v>
-      </c>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="19" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>364</v>
@@ -8073,30 +8234,31 @@
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="65" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="19" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>866</v>
-      </c>
-      <c r="C67" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" t="s">
+        <v>893</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>865</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>868</v>
       </c>
       <c r="F67" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>847</v>
+      <c r="G67" s="74" t="s">
+        <v>894</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
     <sheet name="AJ_004" sheetId="21" r:id="rId2"/>
-    <sheet name="AJ_005" sheetId="19" r:id="rId3"/>
+    <sheet name="AJ_005" sheetId="23" r:id="rId3"/>
     <sheet name="AJ_015" sheetId="16" r:id="rId4"/>
     <sheet name="AJ_008" sheetId="9" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="891">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -504,12 +504,6 @@
     <t>100-526</t>
   </si>
   <si>
-    <t>(주)와이앤피아스콘</t>
-  </si>
-  <si>
-    <t>100-660</t>
-  </si>
-  <si>
     <t>(주)세양개발</t>
   </si>
   <si>
@@ -1266,1616 +1260,1602 @@
     <t>AS_562</t>
   </si>
   <si>
+    <t>AS_568</t>
+  </si>
+  <si>
+    <t>AS_569</t>
+  </si>
+  <si>
+    <t>AS_574</t>
+  </si>
+  <si>
+    <t>AS_575</t>
+  </si>
+  <si>
+    <t>AS_585</t>
+  </si>
+  <si>
+    <t>AS_586</t>
+  </si>
+  <si>
+    <t>AS_587</t>
+  </si>
+  <si>
+    <t>AS_588</t>
+  </si>
+  <si>
+    <t>AS_590</t>
+  </si>
+  <si>
+    <t>AS_591</t>
+  </si>
+  <si>
+    <t>AS_592</t>
+  </si>
+  <si>
+    <t>AS_593</t>
+  </si>
+  <si>
+    <t>AS_594</t>
+  </si>
+  <si>
+    <t>AS_595</t>
+  </si>
+  <si>
+    <t>AS_596</t>
+  </si>
+  <si>
+    <t>AS_599</t>
+  </si>
+  <si>
+    <t>AS_5A0</t>
+  </si>
+  <si>
+    <t>AS_5A3</t>
+  </si>
+  <si>
+    <t>AS_5A4</t>
+  </si>
+  <si>
+    <t>AS_5A5</t>
+  </si>
+  <si>
+    <t>AS_5A6</t>
+  </si>
+  <si>
+    <t>AS_5A7</t>
+  </si>
+  <si>
+    <t>AS_5A8</t>
+  </si>
+  <si>
+    <t>AS_5A9</t>
+  </si>
+  <si>
+    <t>AS_5B1</t>
+  </si>
+  <si>
+    <t>AS_5B2</t>
+  </si>
+  <si>
+    <t>AS_5B4</t>
+  </si>
+  <si>
+    <t>AS_5B6</t>
+  </si>
+  <si>
+    <t>AS_5B7</t>
+  </si>
+  <si>
+    <t>AS_5C3</t>
+  </si>
+  <si>
+    <t>AS_5C4</t>
+  </si>
+  <si>
+    <t>AS_5F5</t>
+  </si>
+  <si>
+    <t>AS_A01</t>
+  </si>
+  <si>
+    <t>AS_A03</t>
+  </si>
+  <si>
+    <t>AS_A05</t>
+  </si>
+  <si>
+    <t>AS_A06</t>
+  </si>
+  <si>
+    <t>AS_A09</t>
+  </si>
+  <si>
+    <t>AS_A38</t>
+  </si>
+  <si>
+    <t>AS_A43</t>
+  </si>
+  <si>
+    <t>AS_534</t>
+  </si>
+  <si>
+    <t>AS_G01</t>
+  </si>
+  <si>
+    <t>AS_G02</t>
+  </si>
+  <si>
+    <t>AS_G03</t>
+  </si>
+  <si>
+    <t>AS_G04</t>
+  </si>
+  <si>
+    <t>AS_G05</t>
+  </si>
+  <si>
+    <t>AS_G06</t>
+  </si>
+  <si>
+    <t>AS_G07</t>
+  </si>
+  <si>
+    <t>AS_G08</t>
+  </si>
+  <si>
+    <t>AS_G09</t>
+  </si>
+  <si>
+    <t>AS_G11</t>
+  </si>
+  <si>
+    <t>AS_G12</t>
+  </si>
+  <si>
+    <t>AS_G13</t>
+  </si>
+  <si>
+    <t>AS_G14</t>
+  </si>
+  <si>
+    <t>AS_801</t>
+  </si>
+  <si>
+    <t>AS_802</t>
+  </si>
+  <si>
+    <t>AS_803</t>
+  </si>
+  <si>
+    <t>AS_804</t>
+  </si>
+  <si>
+    <t>AS_805</t>
+  </si>
+  <si>
+    <t>AS_806</t>
+  </si>
+  <si>
+    <t>AS_807</t>
+  </si>
+  <si>
+    <t>AS_808</t>
+  </si>
+  <si>
+    <t>AS_809</t>
+  </si>
+  <si>
+    <t>AS_810</t>
+  </si>
+  <si>
+    <t>AS_811</t>
+  </si>
+  <si>
+    <t>AS_812</t>
+  </si>
+  <si>
+    <t>AS_813</t>
+  </si>
+  <si>
+    <t>AS_814</t>
+  </si>
+  <si>
+    <t>AS_815</t>
+  </si>
+  <si>
+    <t>AS_818</t>
+  </si>
+  <si>
+    <t>AS_819</t>
+  </si>
+  <si>
+    <t>AS_820</t>
+  </si>
+  <si>
+    <t>AS_821</t>
+  </si>
+  <si>
+    <t>AS_823</t>
+  </si>
+  <si>
+    <t>AS_824</t>
+  </si>
+  <si>
+    <t>AS_827</t>
+  </si>
+  <si>
+    <t>AS_828</t>
+  </si>
+  <si>
+    <t>AS_829</t>
+  </si>
+  <si>
+    <t>AS_831</t>
+  </si>
+  <si>
+    <t>AS_833</t>
+  </si>
+  <si>
+    <t>AS_834</t>
+  </si>
+  <si>
+    <t>AS_835</t>
+  </si>
+  <si>
+    <t>AS_836</t>
+  </si>
+  <si>
+    <t>AS_837</t>
+  </si>
+  <si>
+    <t>AS_838</t>
+  </si>
+  <si>
+    <t>AS_839</t>
+  </si>
+  <si>
+    <t>AS_840</t>
+  </si>
+  <si>
+    <t>AS_841</t>
+  </si>
+  <si>
+    <t>AS_842</t>
+  </si>
+  <si>
+    <t>AS_843</t>
+  </si>
+  <si>
+    <t>AS_844</t>
+  </si>
+  <si>
+    <t>AS_845</t>
+  </si>
+  <si>
+    <t>AS_846</t>
+  </si>
+  <si>
+    <t>AS_847</t>
+  </si>
+  <si>
+    <t>AS_848</t>
+  </si>
+  <si>
+    <t>AS_849</t>
+  </si>
+  <si>
+    <t>AS_850</t>
+  </si>
+  <si>
+    <t>AS_851</t>
+  </si>
+  <si>
+    <t>AS_852</t>
+  </si>
+  <si>
+    <t>AS_853</t>
+  </si>
+  <si>
+    <t>AS_854</t>
+  </si>
+  <si>
+    <t>AS_855</t>
+  </si>
+  <si>
+    <t>AS_856</t>
+  </si>
+  <si>
+    <t>AS_857</t>
+  </si>
+  <si>
+    <t>AS_858</t>
+  </si>
+  <si>
+    <t>AS_859</t>
+  </si>
+  <si>
+    <t>AS_860</t>
+  </si>
+  <si>
+    <t>AS_862</t>
+  </si>
+  <si>
+    <t>AS_863</t>
+  </si>
+  <si>
+    <t>AS_864</t>
+  </si>
+  <si>
+    <t>계산서는 RM_4E1</t>
+  </si>
+  <si>
+    <t>AS_G18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_G19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합자회사 신영아스콘</t>
+  </si>
+  <si>
+    <t>합자회사고려아스콘</t>
+  </si>
+  <si>
+    <t>대경</t>
+  </si>
+  <si>
+    <t>북부</t>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_865</t>
+  </si>
+  <si>
+    <t>(주)한정</t>
+  </si>
+  <si>
+    <t>100-581</t>
+  </si>
+  <si>
+    <t>(주)흥진</t>
+  </si>
+  <si>
+    <t>AS_464</t>
+  </si>
+  <si>
+    <t>(주)한덕산업 본점</t>
+  </si>
+  <si>
+    <t>100-305</t>
+  </si>
+  <si>
+    <t>100-539</t>
+  </si>
+  <si>
+    <t>100-582</t>
+  </si>
+  <si>
+    <t>← (주)정도종합산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_5B9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-251</t>
+  </si>
+  <si>
+    <t>AS_861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성유화㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_408 → AS_471</t>
+  </si>
+  <si>
+    <t>대덕아스콘환경(주)</t>
+  </si>
+  <si>
+    <t>100-105</t>
+  </si>
+  <si>
+    <t>인평산업(주)</t>
+  </si>
+  <si>
+    <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
+  </si>
+  <si>
+    <t>(주)한덕산업</t>
+  </si>
+  <si>
+    <t>100-578</t>
+  </si>
+  <si>
+    <t>(주)유림테크</t>
+  </si>
+  <si>
+    <t>(주)선우</t>
+  </si>
+  <si>
+    <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
+  </si>
+  <si>
+    <t>AS_422</t>
+  </si>
+  <si>
+    <t>AS_464 → AS_465</t>
+  </si>
+  <si>
+    <t>← (주)한덕산업 본점</t>
+  </si>
+  <si>
+    <t>AS_422 → AS_464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_414 → AS_466</t>
+  </si>
+  <si>
+    <t>← 부원콘크리트산업(주)</t>
+  </si>
+  <si>
+    <t>AS_433</t>
+  </si>
+  <si>
+    <t>AS_433 → AS_468</t>
+  </si>
+  <si>
+    <t>← 제일아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_418 → AS_469</t>
+  </si>
+  <si>
+    <t>← (주)한호디앤디</t>
+  </si>
+  <si>
+    <t>AS_408</t>
+  </si>
+  <si>
+    <t>(주)보광</t>
+  </si>
+  <si>
+    <t>← (주)보광</t>
+  </si>
+  <si>
+    <t>화신아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전세종충남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주전남 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남 아스콘 사업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구경북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)금호산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은진산업㈜ </t>
+  </si>
+  <si>
+    <t>← AS_826에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_861에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금성개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 금성아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 이후로 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_427  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부강아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 부강레미콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사 케이알아스콘</t>
+  </si>
+  <si>
+    <t>100-583</t>
+  </si>
+  <si>
+    <t>010-8629-1450 (임종성 부장)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-584</t>
+  </si>
+  <si>
+    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_472</t>
+  </si>
+  <si>
+    <t>AS_441</t>
+  </si>
+  <si>
+    <t>AS_402</t>
+  </si>
+  <si>
+    <t>AS_403</t>
+  </si>
+  <si>
+    <t>AS_404</t>
+  </si>
+  <si>
+    <t>AS_405</t>
+  </si>
+  <si>
+    <t>AS_406</t>
+  </si>
+  <si>
+    <t>AS_407</t>
+  </si>
+  <si>
+    <t>AS_410</t>
+  </si>
+  <si>
+    <t>AS_411</t>
+  </si>
+  <si>
+    <t>AS_412</t>
+  </si>
+  <si>
+    <t>AS_413</t>
+  </si>
+  <si>
+    <t>AS_415</t>
+  </si>
+  <si>
+    <t>AS_416</t>
+  </si>
+  <si>
+    <t>AS_419</t>
+  </si>
+  <si>
+    <t>AS_420</t>
+  </si>
+  <si>
+    <t>AS_421</t>
+  </si>
+  <si>
+    <t>AS_423</t>
+  </si>
+  <si>
+    <t>AS_424</t>
+  </si>
+  <si>
+    <t>AS_425</t>
+  </si>
+  <si>
+    <t>AS_426</t>
+  </si>
+  <si>
+    <t>AS_427</t>
+  </si>
+  <si>
+    <t>AS_428</t>
+  </si>
+  <si>
+    <t>AS_429</t>
+  </si>
+  <si>
+    <t>AS_430</t>
+  </si>
+  <si>
+    <t>AS_431</t>
+  </si>
+  <si>
+    <t>AS_432</t>
+  </si>
+  <si>
+    <t>AS_434</t>
+  </si>
+  <si>
+    <t>AS_435</t>
+  </si>
+  <si>
+    <t>AS_436</t>
+  </si>
+  <si>
+    <t>AS_437</t>
+  </si>
+  <si>
+    <t>AS_438</t>
+  </si>
+  <si>
+    <t>AS_439</t>
+  </si>
+  <si>
+    <t>AS_440</t>
+  </si>
+  <si>
+    <t>AS_442</t>
+  </si>
+  <si>
+    <t>AS_445</t>
+  </si>
+  <si>
+    <t>AS_447</t>
+  </si>
+  <si>
+    <t>AS_448</t>
+  </si>
+  <si>
+    <t>AS_450</t>
+  </si>
+  <si>
+    <t>AS_451</t>
+  </si>
+  <si>
+    <t>AS_452</t>
+  </si>
+  <si>
+    <t>AS_453</t>
+  </si>
+  <si>
+    <t>AS_454</t>
+  </si>
+  <si>
+    <t>AS_455</t>
+  </si>
+  <si>
+    <t>AS_456</t>
+  </si>
+  <si>
+    <t>AS_458</t>
+  </si>
+  <si>
+    <t>AS_460</t>
+  </si>
+  <si>
+    <t>AS_461</t>
+  </si>
+  <si>
+    <t>AS_462</t>
+  </si>
+  <si>
+    <t>AS_463</t>
+  </si>
+  <si>
+    <t>AS_465</t>
+  </si>
+  <si>
+    <t>AS_466</t>
+  </si>
+  <si>
+    <t>AS_467</t>
+  </si>
+  <si>
+    <t>AS_468</t>
+  </si>
+  <si>
+    <t>AS_469</t>
+  </si>
+  <si>
+    <t>AS_471</t>
+  </si>
+  <si>
+    <t>2019년 04월부터 사용료 부과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (담당자 이종례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_473로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관급담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_301 </t>
+  </si>
+  <si>
+    <t>옥산아스콘(주)</t>
+  </si>
+  <si>
+    <t>강은영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권이관 부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_302 </t>
+  </si>
+  <si>
+    <t>100-224</t>
+  </si>
+  <si>
+    <t>신양산업개발(주)</t>
+  </si>
+  <si>
+    <t>허춘강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2924-0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_303 </t>
+  </si>
+  <si>
+    <t>100-408</t>
+  </si>
+  <si>
+    <t>이현산업개발(주)</t>
+  </si>
+  <si>
+    <t>최재영</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_304 </t>
+  </si>
+  <si>
+    <t>100-206</t>
+  </si>
+  <si>
+    <t>석광아스콘(주)</t>
+  </si>
+  <si>
+    <t>오상균 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥진산업(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이덕희 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_308</t>
+  </si>
+  <si>
+    <t>(주)대흥아스콘개발</t>
+  </si>
+  <si>
+    <t>김병대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_311</t>
+  </si>
+  <si>
+    <t>100-109</t>
+  </si>
+  <si>
+    <t>부경아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽헌규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_313</t>
+  </si>
+  <si>
+    <t>100-111</t>
+  </si>
+  <si>
+    <t>성신산업(주)</t>
+  </si>
+  <si>
+    <t>양미경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_315</t>
+  </si>
+  <si>
+    <t>100-114</t>
+  </si>
+  <si>
+    <t>(주)창조아스콘</t>
+  </si>
+  <si>
+    <t>서민석 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_316</t>
+  </si>
+  <si>
+    <t>100-201</t>
+  </si>
+  <si>
+    <t>대성개발(주)</t>
+  </si>
+  <si>
+    <t>최재동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_317</t>
+  </si>
+  <si>
+    <t>100-202</t>
+  </si>
+  <si>
+    <t>익산건설(주)</t>
+  </si>
+  <si>
+    <t>박원규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_318</t>
+  </si>
+  <si>
+    <t>성광아스콘(주)</t>
+  </si>
+  <si>
+    <t>곽정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_319</t>
+  </si>
+  <si>
+    <t>100-212</t>
+  </si>
+  <si>
+    <t>(주)청오아스콘</t>
+  </si>
+  <si>
+    <t>서정호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍은주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_330</t>
+  </si>
+  <si>
+    <t>100-303</t>
+  </si>
+  <si>
+    <t>(주)태하산업</t>
+  </si>
+  <si>
+    <t>AS_320</t>
+  </si>
+  <si>
+    <t>100-215</t>
+  </si>
+  <si>
+    <t>괴산아스콘(주)</t>
+  </si>
+  <si>
+    <t>김미숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_322</t>
+  </si>
+  <si>
+    <t>100-218</t>
+  </si>
+  <si>
+    <t>우리도시산업(주)</t>
+  </si>
+  <si>
+    <t>홍민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_323</t>
+  </si>
+  <si>
+    <t>100-219</t>
+  </si>
+  <si>
+    <t>서일아스콘(주)</t>
+  </si>
+  <si>
+    <t>김기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_324</t>
+  </si>
+  <si>
+    <t>100-220</t>
+  </si>
+  <si>
+    <t>(합자)해룡</t>
+  </si>
+  <si>
+    <t>곽준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_326</t>
+  </si>
+  <si>
+    <t>100-222</t>
+  </si>
+  <si>
+    <t>우진환경개발(주)</t>
+  </si>
+  <si>
+    <t>한창환 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_329</t>
+  </si>
+  <si>
+    <t>100-302</t>
+  </si>
+  <si>
+    <t>보은아스콘(주)</t>
+  </si>
+  <si>
+    <t>이장효 실장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_336</t>
+  </si>
+  <si>
+    <t>100-403</t>
+  </si>
+  <si>
+    <t>(주)대신아스콘</t>
+  </si>
+  <si>
+    <t>서영숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-304</t>
+  </si>
+  <si>
+    <t>대한아스콘(주)</t>
+  </si>
+  <si>
+    <t>여직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채과장님 출장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_309</t>
+  </si>
+  <si>
+    <t>(주)석진산업</t>
+  </si>
+  <si>
+    <t>박예슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_310</t>
+  </si>
+  <si>
+    <t>태창산업(주)</t>
+  </si>
+  <si>
+    <t>우용미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤수 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_312</t>
+  </si>
+  <si>
+    <t>100-110</t>
+  </si>
+  <si>
+    <t>충주아스콘(주)</t>
+  </si>
+  <si>
+    <t>황아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_314</t>
+  </si>
+  <si>
+    <t>100-113</t>
+  </si>
+  <si>
+    <t>(주)성안</t>
+  </si>
+  <si>
+    <t>최정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_321</t>
+  </si>
+  <si>
+    <t>100-217</t>
+  </si>
+  <si>
+    <t>(주)대아산업</t>
+  </si>
+  <si>
+    <t>조경아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장중근 상무</t>
+  </si>
+  <si>
+    <t>AS_327</t>
+  </si>
+  <si>
+    <t>100-223</t>
+  </si>
+  <si>
+    <t>김수원 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_328</t>
+  </si>
+  <si>
+    <t>100-301</t>
+  </si>
+  <si>
+    <t>대동산업(주)</t>
+  </si>
+  <si>
+    <t>김기홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_331</t>
+  </si>
+  <si>
+    <t>100-307</t>
+  </si>
+  <si>
+    <t>(주)일양</t>
+  </si>
+  <si>
+    <t>김호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황을득 이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_333</t>
+  </si>
+  <si>
+    <t>100-309</t>
+  </si>
+  <si>
+    <t>대진아스콘(주)</t>
+  </si>
+  <si>
+    <t>임주열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤대중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_332</t>
+  </si>
+  <si>
+    <t>100-308</t>
+  </si>
+  <si>
+    <t>옥천아스콘(주)</t>
+  </si>
+  <si>
+    <t>AS_334</t>
+  </si>
+  <si>
+    <t>(자)효신아스콘</t>
+  </si>
+  <si>
+    <t>서명숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_335</t>
+  </si>
+  <si>
+    <t>100-402</t>
+  </si>
+  <si>
+    <t>(주)한일아스콘</t>
+  </si>
+  <si>
+    <t>최성숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_337</t>
+  </si>
+  <si>
+    <t>(주)아원</t>
+  </si>
+  <si>
+    <t>김중찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_338</t>
+  </si>
+  <si>
+    <t>제일산업(주)</t>
+  </si>
+  <si>
+    <t>엄주희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_339</t>
+  </si>
+  <si>
+    <t>금성개발(주)</t>
+  </si>
+  <si>
+    <t>이신성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서상덕 차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_325</t>
+  </si>
+  <si>
+    <t>100-221</t>
+  </si>
+  <si>
+    <t>(주)청주아스콘</t>
+  </si>
+  <si>
+    <t>한주아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세현 상무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 아스콘 공업 협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_474로 사업자번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 대주개발㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시경아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대주아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-09-31까지 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국아레콘 주식회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_868</t>
+  </si>
+  <si>
+    <t>100-632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)신도아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_845에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← AS_830에서 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미진 과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_864로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_869로 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_870로 사업자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_866로 업체 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)남향아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜와이앤피알에이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-31조합탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_305</t>
+  </si>
+  <si>
+    <t>AS_340</t>
+  </si>
+  <si>
+    <t>서경아스콘㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정안산업㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 2020-03배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)와이앤피알에이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_G20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 2020-02-17배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼호산업</t>
+  </si>
+  <si>
+    <t>입찰참여 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부</t>
+  </si>
+  <si>
+    <t>휴업</t>
+  </si>
+  <si>
+    <t>탈퇴</t>
+  </si>
+  <si>
+    <t>영남에서</t>
+  </si>
+  <si>
+    <t>101-051</t>
+  </si>
+  <si>
+    <t>(주)대유산업</t>
+  </si>
+  <si>
+    <t>신규</t>
+  </si>
+  <si>
+    <t>101-004</t>
+  </si>
+  <si>
+    <t>우리아스콘㈜</t>
+  </si>
+  <si>
+    <t>영남으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← (주)와이앤피아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AS_566</t>
-  </si>
-  <si>
-    <t>AS_568</t>
-  </si>
-  <si>
-    <t>AS_569</t>
-  </si>
-  <si>
-    <t>AS_574</t>
-  </si>
-  <si>
-    <t>AS_575</t>
-  </si>
-  <si>
-    <t>AS_585</t>
-  </si>
-  <si>
-    <t>AS_586</t>
-  </si>
-  <si>
-    <t>AS_587</t>
-  </si>
-  <si>
-    <t>AS_588</t>
-  </si>
-  <si>
-    <t>AS_590</t>
-  </si>
-  <si>
-    <t>AS_591</t>
-  </si>
-  <si>
-    <t>AS_592</t>
-  </si>
-  <si>
-    <t>AS_593</t>
-  </si>
-  <si>
-    <t>AS_594</t>
-  </si>
-  <si>
-    <t>AS_595</t>
-  </si>
-  <si>
-    <t>AS_596</t>
-  </si>
-  <si>
-    <t>AS_599</t>
-  </si>
-  <si>
-    <t>AS_5A0</t>
-  </si>
-  <si>
-    <t>AS_5A3</t>
-  </si>
-  <si>
-    <t>AS_5A4</t>
-  </si>
-  <si>
-    <t>AS_5A5</t>
-  </si>
-  <si>
-    <t>AS_5A6</t>
-  </si>
-  <si>
-    <t>AS_5A7</t>
-  </si>
-  <si>
-    <t>AS_5A8</t>
-  </si>
-  <si>
-    <t>AS_5A9</t>
-  </si>
-  <si>
-    <t>AS_5B1</t>
-  </si>
-  <si>
-    <t>AS_5B2</t>
-  </si>
-  <si>
-    <t>AS_5B4</t>
-  </si>
-  <si>
-    <t>AS_5B6</t>
-  </si>
-  <si>
-    <t>AS_5B7</t>
-  </si>
-  <si>
-    <t>AS_5C3</t>
-  </si>
-  <si>
-    <t>AS_5C4</t>
-  </si>
-  <si>
-    <t>AS_5F5</t>
-  </si>
-  <si>
-    <t>AS_A01</t>
-  </si>
-  <si>
-    <t>AS_A03</t>
-  </si>
-  <si>
-    <t>AS_A05</t>
-  </si>
-  <si>
-    <t>AS_A06</t>
-  </si>
-  <si>
-    <t>AS_A09</t>
-  </si>
-  <si>
-    <t>AS_A38</t>
-  </si>
-  <si>
-    <t>AS_A43</t>
-  </si>
-  <si>
-    <t>AS_534</t>
-  </si>
-  <si>
-    <t>AS_G01</t>
-  </si>
-  <si>
-    <t>AS_G02</t>
-  </si>
-  <si>
-    <t>AS_G03</t>
-  </si>
-  <si>
-    <t>AS_G04</t>
-  </si>
-  <si>
-    <t>AS_G05</t>
-  </si>
-  <si>
-    <t>AS_G06</t>
-  </si>
-  <si>
-    <t>AS_G07</t>
-  </si>
-  <si>
-    <t>AS_G08</t>
-  </si>
-  <si>
-    <t>AS_G09</t>
-  </si>
-  <si>
-    <t>AS_G11</t>
-  </si>
-  <si>
-    <t>AS_G12</t>
-  </si>
-  <si>
-    <t>AS_G13</t>
-  </si>
-  <si>
-    <t>AS_G14</t>
-  </si>
-  <si>
-    <t>AS_801</t>
-  </si>
-  <si>
-    <t>AS_802</t>
-  </si>
-  <si>
-    <t>AS_803</t>
-  </si>
-  <si>
-    <t>AS_804</t>
-  </si>
-  <si>
-    <t>AS_805</t>
-  </si>
-  <si>
-    <t>AS_806</t>
-  </si>
-  <si>
-    <t>AS_807</t>
-  </si>
-  <si>
-    <t>AS_808</t>
-  </si>
-  <si>
-    <t>AS_809</t>
-  </si>
-  <si>
-    <t>AS_810</t>
-  </si>
-  <si>
-    <t>AS_811</t>
-  </si>
-  <si>
-    <t>AS_812</t>
-  </si>
-  <si>
-    <t>AS_813</t>
-  </si>
-  <si>
-    <t>AS_814</t>
-  </si>
-  <si>
-    <t>AS_815</t>
-  </si>
-  <si>
-    <t>AS_818</t>
-  </si>
-  <si>
-    <t>AS_819</t>
-  </si>
-  <si>
-    <t>AS_820</t>
-  </si>
-  <si>
-    <t>AS_821</t>
-  </si>
-  <si>
-    <t>AS_823</t>
-  </si>
-  <si>
-    <t>AS_824</t>
-  </si>
-  <si>
-    <t>AS_827</t>
-  </si>
-  <si>
-    <t>AS_828</t>
-  </si>
-  <si>
-    <t>AS_829</t>
-  </si>
-  <si>
-    <t>AS_831</t>
-  </si>
-  <si>
-    <t>AS_833</t>
-  </si>
-  <si>
-    <t>AS_834</t>
-  </si>
-  <si>
-    <t>AS_835</t>
-  </si>
-  <si>
-    <t>AS_836</t>
-  </si>
-  <si>
-    <t>AS_837</t>
-  </si>
-  <si>
-    <t>AS_838</t>
-  </si>
-  <si>
-    <t>AS_839</t>
-  </si>
-  <si>
-    <t>AS_840</t>
-  </si>
-  <si>
-    <t>AS_841</t>
-  </si>
-  <si>
-    <t>AS_842</t>
-  </si>
-  <si>
-    <t>AS_843</t>
-  </si>
-  <si>
-    <t>AS_844</t>
-  </si>
-  <si>
-    <t>AS_845</t>
-  </si>
-  <si>
-    <t>AS_846</t>
-  </si>
-  <si>
-    <t>AS_847</t>
-  </si>
-  <si>
-    <t>AS_848</t>
-  </si>
-  <si>
-    <t>AS_849</t>
-  </si>
-  <si>
-    <t>AS_850</t>
-  </si>
-  <si>
-    <t>AS_851</t>
-  </si>
-  <si>
-    <t>AS_852</t>
-  </si>
-  <si>
-    <t>AS_853</t>
-  </si>
-  <si>
-    <t>AS_854</t>
-  </si>
-  <si>
-    <t>AS_855</t>
-  </si>
-  <si>
-    <t>AS_856</t>
-  </si>
-  <si>
-    <t>AS_857</t>
-  </si>
-  <si>
-    <t>AS_858</t>
-  </si>
-  <si>
-    <t>AS_859</t>
-  </si>
-  <si>
-    <t>AS_860</t>
-  </si>
-  <si>
-    <t>AS_862</t>
-  </si>
-  <si>
-    <t>AS_863</t>
-  </si>
-  <si>
-    <t>AS_864</t>
-  </si>
-  <si>
-    <t>계산서는 RM_4E1</t>
-  </si>
-  <si>
-    <t>AS_G18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_G19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합자회사 신영아스콘</t>
-  </si>
-  <si>
-    <t>합자회사고려아스콘</t>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대경</t>
-  </si>
-  <si>
-    <t>북부</t>
-  </si>
-  <si>
-    <t>세일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세일건업㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN_534</t>
-  </si>
-  <si>
-    <t>잔량체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_865</t>
-  </si>
-  <si>
-    <t>(주)한정</t>
-  </si>
-  <si>
-    <t>100-581</t>
-  </si>
-  <si>
-    <t>(주)흥진</t>
-  </si>
-  <si>
-    <t>AS_464</t>
-  </si>
-  <si>
-    <t>(주)한덕산업 본점</t>
-  </si>
-  <si>
-    <t>100-305</t>
-  </si>
-  <si>
-    <t>100-539</t>
-  </si>
-  <si>
-    <t>100-582</t>
-  </si>
-  <si>
-    <t>AS_5B9 → AS_5B4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_5B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-042</t>
-  </si>
-  <si>
-    <t>(주)정도종합산업</t>
-  </si>
-  <si>
-    <t>← (주)정도종합산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_5B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-251</t>
-  </si>
-  <si>
-    <t>AS_861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보성유화㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_408 → AS_471</t>
-  </si>
-  <si>
-    <t>대덕아스콘환경(주)</t>
-  </si>
-  <si>
-    <t>100-105</t>
-  </si>
-  <si>
-    <t>인평산업(주)</t>
-  </si>
-  <si>
-    <t>아스콘 AS_450, AS_402, AS_415, AS_428, AS_456 / 레미콘 RM_4F3 (같은회사)</t>
-  </si>
-  <si>
-    <t>(주)한덕산업</t>
-  </si>
-  <si>
-    <t>100-578</t>
-  </si>
-  <si>
-    <t>(주)유림테크</t>
-  </si>
-  <si>
-    <t>(주)선우</t>
-  </si>
-  <si>
-    <t>임동호 010-4120-8114 전화 후 3월부터 사용료 부과</t>
-  </si>
-  <si>
-    <t>AS_422</t>
-  </si>
-  <si>
-    <t>AS_464 → AS_465</t>
-  </si>
-  <si>
-    <t>← (주)한덕산업 본점</t>
-  </si>
-  <si>
-    <t>AS_422 → AS_464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_414 → AS_466</t>
-  </si>
-  <si>
-    <t>← 부원콘크리트산업(주)</t>
-  </si>
-  <si>
-    <t>AS_433</t>
-  </si>
-  <si>
-    <t>AS_433 → AS_468</t>
-  </si>
-  <si>
-    <t>← 제일아스콘(주)</t>
-  </si>
-  <si>
-    <t>AS_418 → AS_469</t>
-  </si>
-  <si>
-    <t>← (주)한호디앤디</t>
-  </si>
-  <si>
-    <t>AS_408</t>
-  </si>
-  <si>
-    <t>(주)보광</t>
-  </si>
-  <si>
-    <t>← (주)보광</t>
-  </si>
-  <si>
-    <t>화신아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전세종충남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주전남 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영남 아스콘 사업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구경북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합변경 AJ_005 → AJ_015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용 때문에 사용 안 한다고 함 010-9421-8188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)금호산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-361</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_866</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">은진산업㈜ </t>
-  </si>
-  <si>
-    <t>← AS_826에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_861에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부원 미수금 아진에서 부담 2018-07-31계산서 발행(김응천)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금성개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 금성아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 이후로 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_427  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 10월부터 사용료 부과 (담당자 이미성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018년 3월부터 사용료 부과 (담당자 단은경)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부강아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 부강레미콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식회사 케이알아스콘</t>
-  </si>
-  <si>
-    <t>100-583</t>
-  </si>
-  <si>
-    <t>010-8629-1450 (임종성 부장)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019년 04월부터 사용료 부과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-584</t>
-  </si>
-  <si>
-    <t>010-4457-6125 (김형준) / 010-5423-6961(유진광실장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_472</t>
-  </si>
-  <si>
-    <t>AS_441</t>
-  </si>
-  <si>
-    <t>AS_402</t>
-  </si>
-  <si>
-    <t>AS_403</t>
-  </si>
-  <si>
-    <t>AS_404</t>
-  </si>
-  <si>
-    <t>AS_405</t>
-  </si>
-  <si>
-    <t>AS_406</t>
-  </si>
-  <si>
-    <t>AS_407</t>
-  </si>
-  <si>
-    <t>AS_410</t>
-  </si>
-  <si>
-    <t>AS_411</t>
-  </si>
-  <si>
-    <t>AS_412</t>
-  </si>
-  <si>
-    <t>AS_413</t>
-  </si>
-  <si>
-    <t>AS_415</t>
-  </si>
-  <si>
-    <t>AS_416</t>
-  </si>
-  <si>
-    <t>AS_419</t>
-  </si>
-  <si>
-    <t>AS_420</t>
-  </si>
-  <si>
-    <t>AS_421</t>
-  </si>
-  <si>
-    <t>AS_423</t>
-  </si>
-  <si>
-    <t>AS_424</t>
-  </si>
-  <si>
-    <t>AS_425</t>
-  </si>
-  <si>
-    <t>AS_426</t>
-  </si>
-  <si>
-    <t>AS_427</t>
-  </si>
-  <si>
-    <t>AS_428</t>
-  </si>
-  <si>
-    <t>AS_429</t>
-  </si>
-  <si>
-    <t>AS_430</t>
-  </si>
-  <si>
-    <t>AS_431</t>
-  </si>
-  <si>
-    <t>AS_432</t>
-  </si>
-  <si>
-    <t>AS_434</t>
-  </si>
-  <si>
-    <t>AS_435</t>
-  </si>
-  <si>
-    <t>AS_436</t>
-  </si>
-  <si>
-    <t>AS_437</t>
-  </si>
-  <si>
-    <t>AS_438</t>
-  </si>
-  <si>
-    <t>AS_439</t>
-  </si>
-  <si>
-    <t>AS_440</t>
-  </si>
-  <si>
-    <t>AS_442</t>
-  </si>
-  <si>
-    <t>AS_445</t>
-  </si>
-  <si>
-    <t>AS_447</t>
-  </si>
-  <si>
-    <t>AS_448</t>
-  </si>
-  <si>
-    <t>AS_450</t>
-  </si>
-  <si>
-    <t>AS_451</t>
-  </si>
-  <si>
-    <t>AS_452</t>
-  </si>
-  <si>
-    <t>AS_453</t>
-  </si>
-  <si>
-    <t>AS_454</t>
-  </si>
-  <si>
-    <t>AS_455</t>
-  </si>
-  <si>
-    <t>AS_456</t>
-  </si>
-  <si>
-    <t>AS_458</t>
-  </si>
-  <si>
-    <t>AS_460</t>
-  </si>
-  <si>
-    <t>AS_461</t>
-  </si>
-  <si>
-    <t>AS_462</t>
-  </si>
-  <si>
-    <t>AS_463</t>
-  </si>
-  <si>
-    <t>AS_465</t>
-  </si>
-  <si>
-    <t>AS_466</t>
-  </si>
-  <si>
-    <t>AS_467</t>
-  </si>
-  <si>
-    <t>AS_468</t>
-  </si>
-  <si>
-    <t>AS_469</t>
-  </si>
-  <si>
-    <t>AS_471</t>
-  </si>
-  <si>
-    <t>2019년 04월부터 사용료 부과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (담당자 이종례)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_473로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관급담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계산서담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_301 </t>
-  </si>
-  <si>
-    <t>옥산아스콘(주)</t>
-  </si>
-  <si>
-    <t>강은영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권이관 부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_302 </t>
-  </si>
-  <si>
-    <t>100-224</t>
-  </si>
-  <si>
-    <t>신양산업개발(주)</t>
-  </si>
-  <si>
-    <t>허춘강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2924-0900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_303 </t>
-  </si>
-  <si>
-    <t>100-408</t>
-  </si>
-  <si>
-    <t>이현산업개발(주)</t>
-  </si>
-  <si>
-    <t>최재영</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS_304 </t>
-  </si>
-  <si>
-    <t>100-206</t>
-  </si>
-  <si>
-    <t>석광아스콘(주)</t>
-  </si>
-  <si>
-    <t>오상균 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김은미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흥진산업(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변기현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이덕희 차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_308</t>
-  </si>
-  <si>
-    <t>(주)대흥아스콘개발</t>
-  </si>
-  <si>
-    <t>김병대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_311</t>
-  </si>
-  <si>
-    <t>100-109</t>
-  </si>
-  <si>
-    <t>부경아스콘(주)</t>
-  </si>
-  <si>
-    <t>곽헌규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_313</t>
-  </si>
-  <si>
-    <t>100-111</t>
-  </si>
-  <si>
-    <t>성신산업(주)</t>
-  </si>
-  <si>
-    <t>양미경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_315</t>
-  </si>
-  <si>
-    <t>100-114</t>
-  </si>
-  <si>
-    <t>(주)창조아스콘</t>
-  </si>
-  <si>
-    <t>서민석 이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_316</t>
-  </si>
-  <si>
-    <t>100-201</t>
-  </si>
-  <si>
-    <t>대성개발(주)</t>
-  </si>
-  <si>
-    <t>최재동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_317</t>
-  </si>
-  <si>
-    <t>100-202</t>
-  </si>
-  <si>
-    <t>익산건설(주)</t>
-  </si>
-  <si>
-    <t>박원규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_318</t>
-  </si>
-  <si>
-    <t>성광아스콘(주)</t>
-  </si>
-  <si>
-    <t>곽정숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_319</t>
-  </si>
-  <si>
-    <t>100-212</t>
-  </si>
-  <si>
-    <t>(주)청오아스콘</t>
-  </si>
-  <si>
-    <t>서정호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍은주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_330</t>
-  </si>
-  <si>
-    <t>100-303</t>
-  </si>
-  <si>
-    <t>(주)태하산업</t>
-  </si>
-  <si>
-    <t>AS_320</t>
-  </si>
-  <si>
-    <t>100-215</t>
-  </si>
-  <si>
-    <t>괴산아스콘(주)</t>
-  </si>
-  <si>
-    <t>김미숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_322</t>
-  </si>
-  <si>
-    <t>100-218</t>
-  </si>
-  <si>
-    <t>우리도시산업(주)</t>
-  </si>
-  <si>
-    <t>홍민우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_323</t>
-  </si>
-  <si>
-    <t>100-219</t>
-  </si>
-  <si>
-    <t>서일아스콘(주)</t>
-  </si>
-  <si>
-    <t>김기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_324</t>
-  </si>
-  <si>
-    <t>100-220</t>
-  </si>
-  <si>
-    <t>(합자)해룡</t>
-  </si>
-  <si>
-    <t>곽준호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_326</t>
-  </si>
-  <si>
-    <t>100-222</t>
-  </si>
-  <si>
-    <t>우진환경개발(주)</t>
-  </si>
-  <si>
-    <t>한창환 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_329</t>
-  </si>
-  <si>
-    <t>100-302</t>
-  </si>
-  <si>
-    <t>보은아스콘(주)</t>
-  </si>
-  <si>
-    <t>이장효 실장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_336</t>
-  </si>
-  <si>
-    <t>100-403</t>
-  </si>
-  <si>
-    <t>(주)대신아스콘</t>
-  </si>
-  <si>
-    <t>서영숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-304</t>
-  </si>
-  <si>
-    <t>대한아스콘(주)</t>
-  </si>
-  <si>
-    <t>여직원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채과장님 출장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_309</t>
-  </si>
-  <si>
-    <t>(주)석진산업</t>
-  </si>
-  <si>
-    <t>박예슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_310</t>
-  </si>
-  <si>
-    <t>태창산업(주)</t>
-  </si>
-  <si>
-    <t>우용미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김윤수 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_312</t>
-  </si>
-  <si>
-    <t>100-110</t>
-  </si>
-  <si>
-    <t>충주아스콘(주)</t>
-  </si>
-  <si>
-    <t>황아름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_314</t>
-  </si>
-  <si>
-    <t>100-113</t>
-  </si>
-  <si>
-    <t>(주)성안</t>
-  </si>
-  <si>
-    <t>최정숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_321</t>
-  </si>
-  <si>
-    <t>100-217</t>
-  </si>
-  <si>
-    <t>(주)대아산업</t>
-  </si>
-  <si>
-    <t>조경아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장중근 상무</t>
-  </si>
-  <si>
-    <t>AS_327</t>
-  </si>
-  <si>
-    <t>100-223</t>
-  </si>
-  <si>
-    <t>김수원 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_328</t>
-  </si>
-  <si>
-    <t>100-301</t>
-  </si>
-  <si>
-    <t>대동산업(주)</t>
-  </si>
-  <si>
-    <t>김기홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_331</t>
-  </si>
-  <si>
-    <t>100-307</t>
-  </si>
-  <si>
-    <t>(주)일양</t>
-  </si>
-  <si>
-    <t>김호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황을득 이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_333</t>
-  </si>
-  <si>
-    <t>100-309</t>
-  </si>
-  <si>
-    <t>대진아스콘(주)</t>
-  </si>
-  <si>
-    <t>임주열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤대중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_332</t>
-  </si>
-  <si>
-    <t>100-308</t>
-  </si>
-  <si>
-    <t>옥천아스콘(주)</t>
-  </si>
-  <si>
-    <t>AS_334</t>
-  </si>
-  <si>
-    <t>(자)효신아스콘</t>
-  </si>
-  <si>
-    <t>서명숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_335</t>
-  </si>
-  <si>
-    <t>100-402</t>
-  </si>
-  <si>
-    <t>(주)한일아스콘</t>
-  </si>
-  <si>
-    <t>최성숙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_337</t>
-  </si>
-  <si>
-    <t>(주)아원</t>
-  </si>
-  <si>
-    <t>김중찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_338</t>
-  </si>
-  <si>
-    <t>제일산업(주)</t>
-  </si>
-  <si>
-    <t>엄주희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_339</t>
-  </si>
-  <si>
-    <t>금성개발(주)</t>
-  </si>
-  <si>
-    <t>이신성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서상덕 차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_325</t>
-  </si>
-  <si>
-    <t>100-221</t>
-  </si>
-  <si>
-    <t>(주)청주아스콘</t>
-  </si>
-  <si>
-    <t>한주아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김세현 상무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충북 아스콘 공업 협동조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계열사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_474로 사업자번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← 대주개발㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시경아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-07-31탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2019년 07월부터 사용료 부과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대주아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_408를 AS_471에서 인수 함 (010-3814-6751 임현철 이사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-186</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-09-31까지 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국아레콘 주식회사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_868</t>
-  </si>
-  <si>
-    <t>100-632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-633</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)신도아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_869</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_845에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>← AS_830에서 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미진 과장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_864로 업체 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_869로 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_870로 사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_866로 업체 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)남향아스콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜와이앤피알에이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-04설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-31조합탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_305</t>
-  </si>
-  <si>
-    <t>AS_340</t>
-  </si>
-  <si>
-    <t>서경아스콘㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정안산업㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 2020-03배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)대유산업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)와이앤피알에이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS_G20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 2020-02-17배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼호산업</t>
-  </si>
-  <si>
-    <t>입찰참여 안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북부조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_576</t>
+  </si>
+  <si>
+    <t>AS_5F6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2974,7 +2954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2990,6 +2970,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,7 +3293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3506,9 +3498,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3518,41 +3507,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3854,11 +3855,11 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="9" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3874,203 +3875,203 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="28" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="29"/>
       <c r="B3" s="31" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="33" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="29" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="79" t="s">
-        <v>839</v>
+      <c r="A4" s="76" t="s">
+        <v>824</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="E4" s="35"/>
-      <c r="F4" s="77" t="s">
-        <v>689</v>
+      <c r="F4" s="74" t="s">
+        <v>674</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="29" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="52" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="78"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="39"/>
       <c r="H5" s="29" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="29"/>
       <c r="B6" s="40" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="45" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="29"/>
       <c r="B7" s="42" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="44" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="29" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="29"/>
       <c r="B8" s="42" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="44" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="29"/>
       <c r="B9" s="42" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="44" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="29"/>
-      <c r="B10" s="69" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>713</v>
-      </c>
-      <c r="D10" s="70"/>
+      <c r="B10" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>698</v>
+      </c>
+      <c r="D10" s="69"/>
       <c r="E10" s="13" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="60" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="29"/>
       <c r="B11" s="42" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="29"/>
       <c r="B12" s="42" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="29"/>
@@ -4078,17 +4079,17 @@
     <row r="13" spans="1:8">
       <c r="A13" s="29"/>
       <c r="B13" s="42" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="44" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="29"/>
@@ -4096,73 +4097,73 @@
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="29"/>
       <c r="B14" s="31" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="33" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="79" t="s">
-        <v>839</v>
+      <c r="A15" s="76" t="s">
+        <v>824</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="77" t="s">
-        <v>734</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>735</v>
+      <c r="F15" s="74" t="s">
+        <v>719</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>720</v>
       </c>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="80"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="52" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="76"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="29"/>
       <c r="B17" s="40" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="45" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="29"/>
@@ -4170,37 +4171,37 @@
     <row r="18" spans="1:8">
       <c r="A18" s="29"/>
       <c r="B18" s="42" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="29"/>
       <c r="B19" s="42" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="29"/>
@@ -4208,37 +4209,37 @@
     <row r="20" spans="1:8">
       <c r="A20" s="29"/>
       <c r="B20" s="42" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="29"/>
       <c r="B21" s="42" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="29"/>
@@ -4246,17 +4247,17 @@
     <row r="22" spans="1:8">
       <c r="A22" s="29"/>
       <c r="B22" s="42" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="29"/>
@@ -4264,17 +4265,17 @@
     <row r="23" spans="1:8">
       <c r="A23" s="29"/>
       <c r="B23" s="42" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="44" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="29"/>
@@ -4282,37 +4283,37 @@
     <row r="24" spans="1:8">
       <c r="A24" s="29"/>
       <c r="B24" s="42" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="46" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="29" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="29"/>
       <c r="B25" s="42" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="46" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="29"/>
@@ -4320,37 +4321,37 @@
     <row r="26" spans="1:8">
       <c r="A26" s="29"/>
       <c r="B26" s="42" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="29"/>
       <c r="B27" s="42" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="29"/>
@@ -4358,17 +4359,17 @@
     <row r="28" spans="1:8">
       <c r="A28" s="29"/>
       <c r="B28" s="42" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="29"/>
@@ -4376,37 +4377,37 @@
     <row r="29" spans="1:8">
       <c r="A29" s="29"/>
       <c r="B29" s="42" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="44" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="29" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="29"/>
       <c r="B30" s="42" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="44" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="29"/>
@@ -4414,17 +4415,17 @@
     <row r="31" spans="1:8">
       <c r="A31" s="29"/>
       <c r="B31" s="42" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="44" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="29"/>
@@ -4432,75 +4433,75 @@
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="29"/>
       <c r="B32" s="31" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="33" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="H32" s="47" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="79" t="s">
-        <v>839</v>
+      <c r="A33" s="76" t="s">
+        <v>824</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="E33" s="35"/>
-      <c r="F33" s="77" t="s">
-        <v>809</v>
+      <c r="F33" s="74" t="s">
+        <v>794</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="80"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="52" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="78"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="39"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="29"/>
       <c r="B35" s="40" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="45" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="29"/>
@@ -4508,57 +4509,57 @@
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="31" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="29" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="79" t="s">
-        <v>839</v>
+      <c r="A37" s="76" t="s">
+        <v>824</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="48" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="80"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="52" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>123</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="49" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="29"/>
@@ -4566,41 +4567,41 @@
     <row r="39" spans="1:8">
       <c r="A39" s="29"/>
       <c r="B39" s="40" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="45" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="29" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="29"/>
       <c r="B40" s="42" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="44" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="G40" s="44"/>
       <c r="H40" s="29" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4613,30 +4614,30 @@
     </row>
     <row r="42" spans="1:8">
       <c r="B42" s="30" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="30" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -4664,8 +4665,8 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4682,11 +4683,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -4701,20 +4702,20 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>105</v>
@@ -4727,7 +4728,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>88</v>
@@ -4740,7 +4741,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>90</v>
@@ -4753,7 +4754,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
@@ -4766,7 +4767,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>157</v>
@@ -4779,7 +4780,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>93</v>
@@ -4792,7 +4793,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4805,7 +4806,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="10" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>17</v>
@@ -4818,7 +4819,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="10" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
@@ -4831,7 +4832,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="10" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>26</v>
@@ -4844,7 +4845,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="10" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>95</v>
@@ -4857,7 +4858,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>154</v>
@@ -4870,7 +4871,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
@@ -4883,7 +4884,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="10" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>151</v>
@@ -4896,7 +4897,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="10" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>152</v>
@@ -4909,7 +4910,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="10" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>99</v>
@@ -4922,7 +4923,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="10" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>147</v>
@@ -4938,7 +4939,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="10" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>149</v>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>80</v>
@@ -4964,7 +4965,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="10" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>127</v>
@@ -4977,7 +4978,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="10" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>123</v>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="10" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>125</v>
@@ -5003,7 +5004,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="10" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>82</v>
@@ -5016,13 +5017,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="10" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="19"/>
@@ -5030,7 +5031,7 @@
     <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="50"/>
       <c r="B28" s="14" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>78</v>
@@ -5040,12 +5041,12 @@
         <v>77</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="10" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>84</v>
@@ -5058,7 +5059,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="10" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>130</v>
@@ -5071,7 +5072,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="10" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>116</v>
@@ -5087,7 +5088,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>118</v>
@@ -5100,7 +5101,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="10" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>120</v>
@@ -5113,7 +5114,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="10" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>132</v>
@@ -5126,7 +5127,7 @@
     </row>
     <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>20</v>
@@ -5142,7 +5143,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
@@ -5155,7 +5156,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>61</v>
@@ -5168,7 +5169,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="10" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>107</v>
@@ -5179,12 +5180,12 @@
       <c r="E38" s="12"/>
       <c r="F38" s="19"/>
       <c r="H38" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="10" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>139</v>
@@ -5197,7 +5198,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="10" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>109</v>
@@ -5208,12 +5209,12 @@
       <c r="E40" s="12"/>
       <c r="F40" s="19"/>
       <c r="H40" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="10" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>86</v>
@@ -5226,7 +5227,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="10" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>101</v>
@@ -5239,7 +5240,7 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="10" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>141</v>
@@ -5252,7 +5253,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="10" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>111</v>
@@ -5265,7 +5266,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="10" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>113</v>
@@ -5278,7 +5279,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="10" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>137</v>
@@ -5291,7 +5292,7 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="10" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>103</v>
@@ -5304,7 +5305,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="10" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>73</v>
@@ -5317,54 +5318,54 @@
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="B49" s="10" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="B50" s="10" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="10" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1">
       <c r="B52" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>68</v>
@@ -5374,12 +5375,12 @@
         <v>67</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="10" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>142</v>
@@ -5388,35 +5389,35 @@
         <v>37</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="10" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="19"/>
       <c r="H54" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="B55" s="10" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>82</v>
@@ -5426,32 +5427,32 @@
         <v>81</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="10" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="H56" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1">
       <c r="B57" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>70</v>
@@ -5461,71 +5462,71 @@
         <v>69</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="10" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="B59" s="10" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="20"/>
       <c r="B60" s="22" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="81" t="s">
-        <v>678</v>
+      <c r="A61" s="78" t="s">
+        <v>663</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>108</v>
@@ -5537,93 +5538,93 @@
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A62" s="82"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="53" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="C62" s="54" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="56" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1">
-      <c r="A63" s="82"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="53" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="82"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="27" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="56" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F64" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="83"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="57" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A66" s="60"/>
       <c r="B66" s="61" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C66" s="61" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="62"/>
       <c r="E66" s="63" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="F66" s="60" t="s">
         <v>128</v>
@@ -5633,53 +5634,53 @@
     <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="54" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="H67" s="64" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="20"/>
       <c r="B68" s="54" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C68" s="54" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E68" s="55"/>
       <c r="F68" s="20"/>
       <c r="H68" s="64" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="E72" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H72" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5694,1514 +5695,1037 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" customHeight="1">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B1" s="8"/>
+        <v>574</v>
+      </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="C2" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="83">
         <f>COUNTA(C3:C200)</f>
-        <v>69</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>886</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="81">
+        <f>COUNTA(J3:J199)</f>
+        <v>32</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>887</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>873</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>527</v>
+      </c>
+      <c r="L5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>873</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>526</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>527</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>526</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>527</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" t="s">
+        <v>253</v>
+      </c>
+      <c r="K11" t="s">
+        <v>527</v>
+      </c>
+      <c r="L11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C12" t="s">
         <v>231</v>
       </c>
-      <c r="I3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" t="s">
-        <v>530</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D12" t="s">
+        <v>873</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" t="s">
+        <v>527</v>
+      </c>
+      <c r="L12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" t="s">
+        <v>526</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>526</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="s">
+        <v>527</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" t="s">
+        <v>217</v>
+      </c>
+      <c r="K15" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="N3" t="s">
+      <c r="C16" t="s">
         <v>249</v>
       </c>
-      <c r="O3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>530</v>
-      </c>
-      <c r="M4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" t="s">
-        <v>253</v>
-      </c>
-      <c r="O4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
+      <c r="D16" t="s">
+        <v>526</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
+        <v>873</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>527</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" t="s">
+        <v>526</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="J19" t="s">
+        <v>881</v>
+      </c>
+      <c r="K19" t="s">
+        <v>873</v>
+      </c>
+      <c r="L19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>873</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I21" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J21" t="s">
         <v>251</v>
       </c>
-      <c r="K5" t="s">
-        <v>530</v>
-      </c>
-      <c r="M5" t="s">
-        <v>260</v>
-      </c>
-      <c r="N5" t="s">
-        <v>259</v>
-      </c>
-      <c r="O5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" t="s">
-        <v>530</v>
-      </c>
-      <c r="M6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N6" t="s">
-        <v>169</v>
-      </c>
-      <c r="O6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>526</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>873</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>527</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" t="s">
+        <v>526</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>526</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>873</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>526</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>526</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>873</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
+        <v>526</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>873</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>873</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" t="s">
+        <v>526</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J34" t="s">
         <v>263</v>
       </c>
-      <c r="K7" t="s">
-        <v>530</v>
-      </c>
-      <c r="M7" t="s">
-        <v>163</v>
-      </c>
-      <c r="N7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>530</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="O8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K9" t="s">
-        <v>530</v>
-      </c>
-      <c r="M9" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" t="s">
-        <v>530</v>
-      </c>
-      <c r="M10" t="s">
-        <v>229</v>
-      </c>
-      <c r="N10" t="s">
-        <v>228</v>
-      </c>
-      <c r="O10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" t="s">
-        <v>530</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" t="s">
-        <v>530</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" t="s">
-        <v>236</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" t="s">
-        <v>530</v>
-      </c>
-      <c r="M13" t="s">
-        <v>209</v>
-      </c>
-      <c r="N13" t="s">
-        <v>208</v>
-      </c>
-      <c r="O13" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" t="s">
-        <v>530</v>
-      </c>
-      <c r="M14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N14" t="s">
-        <v>184</v>
-      </c>
-      <c r="O14" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>397</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" t="s">
-        <v>530</v>
-      </c>
-      <c r="M15" t="s">
-        <v>216</v>
-      </c>
-      <c r="N15" t="s">
-        <v>215</v>
-      </c>
-      <c r="O15" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>398</v>
-      </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" t="s">
-        <v>530</v>
-      </c>
-      <c r="M16" t="s">
-        <v>218</v>
-      </c>
-      <c r="N16" t="s">
-        <v>217</v>
-      </c>
-      <c r="O16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" t="s">
-        <v>530</v>
-      </c>
-      <c r="M17" t="s">
-        <v>220</v>
-      </c>
-      <c r="N17" t="s">
-        <v>219</v>
-      </c>
-      <c r="O17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" t="s">
-        <v>530</v>
-      </c>
-      <c r="M18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>221</v>
-      </c>
-      <c r="O18" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>401</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" t="s">
-        <v>225</v>
-      </c>
-      <c r="J19" t="s">
-        <v>224</v>
-      </c>
-      <c r="K19" t="s">
-        <v>530</v>
-      </c>
-      <c r="M19" t="s">
-        <v>189</v>
-      </c>
-      <c r="N19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>402</v>
-      </c>
-      <c r="B20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" t="s">
-        <v>227</v>
-      </c>
-      <c r="J20" t="s">
-        <v>226</v>
-      </c>
-      <c r="K20" t="s">
-        <v>530</v>
-      </c>
-      <c r="M20" t="s">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
-      <c r="I21" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" t="s">
-        <v>530</v>
-      </c>
-      <c r="M21" t="s">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s">
-        <v>213</v>
-      </c>
-      <c r="O21" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>404</v>
-      </c>
-      <c r="B22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22" t="s">
-        <v>206</v>
-      </c>
-      <c r="K22" t="s">
-        <v>530</v>
-      </c>
-      <c r="M22" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" t="s">
-        <v>198</v>
-      </c>
-      <c r="O22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" t="s">
-        <v>530</v>
-      </c>
-      <c r="M23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s">
-        <v>200</v>
-      </c>
-      <c r="O23" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>406</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" t="s">
-        <v>530</v>
-      </c>
-      <c r="M24" t="s">
-        <v>203</v>
-      </c>
-      <c r="N24" t="s">
-        <v>202</v>
-      </c>
-      <c r="O24" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>407</v>
-      </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="I25" t="s">
-        <v>212</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" t="s">
-        <v>530</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="K34" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="N25" t="s">
+      <c r="C35" t="s">
         <v>204</v>
       </c>
-      <c r="O25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>408</v>
-      </c>
-      <c r="B26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>222</v>
-      </c>
-      <c r="I26" t="s">
-        <v>192</v>
-      </c>
-      <c r="J26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" t="s">
-        <v>530</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>195</v>
-      </c>
-      <c r="O26" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>409</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
-      <c r="I27" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" t="s">
-        <v>530</v>
-      </c>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" t="s">
-        <v>194</v>
-      </c>
-      <c r="O27" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>410</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K28" t="s">
-        <v>530</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>164</v>
-      </c>
-      <c r="O28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>411</v>
-      </c>
-      <c r="B29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" t="s">
-        <v>228</v>
-      </c>
-      <c r="I29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" t="s">
-        <v>530</v>
-      </c>
-      <c r="M29" t="s">
-        <v>166</v>
-      </c>
-      <c r="N29" t="s">
-        <v>165</v>
-      </c>
-      <c r="O29" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1">
-      <c r="A30" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="D35" t="s">
+        <v>527</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="J35" t="s">
+        <v>878</v>
+      </c>
+      <c r="K35" t="s">
+        <v>527</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>526</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>857</v>
+      </c>
+      <c r="J36" s="82"/>
+      <c r="K36" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L36" s="64" t="s">
+        <v>858</v>
+      </c>
+      <c r="M36" s="82" t="s">
+        <v>884</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>885</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>527</v>
+      </c>
+      <c r="E38" t="s">
+        <v>538</v>
+      </c>
+      <c r="F38" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="N30" t="s">
+      <c r="C39" t="s">
         <v>265</v>
       </c>
-      <c r="O30" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>413</v>
-      </c>
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" t="s">
-        <v>208</v>
-      </c>
-      <c r="I31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>414</v>
-      </c>
-      <c r="B32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" t="s">
-        <v>184</v>
-      </c>
-      <c r="I32" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" t="s">
-        <v>267</v>
-      </c>
-      <c r="K32" t="s">
-        <v>530</v>
-      </c>
-      <c r="M32" t="s">
-        <v>272</v>
-      </c>
-      <c r="N32" t="s">
-        <v>271</v>
-      </c>
-      <c r="O32" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>415</v>
-      </c>
-      <c r="B33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" t="s">
-        <v>215</v>
-      </c>
-      <c r="I33" t="s">
-        <v>269</v>
-      </c>
-      <c r="J33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" t="s">
-        <v>530</v>
-      </c>
-      <c r="M33" t="s">
-        <v>64</v>
-      </c>
-      <c r="N33" t="s">
-        <v>273</v>
-      </c>
-      <c r="O33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I34" t="s">
-        <v>270</v>
-      </c>
-      <c r="J34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" t="s">
-        <v>530</v>
-      </c>
-      <c r="M34" t="s">
-        <v>168</v>
-      </c>
-      <c r="N34" t="s">
-        <v>167</v>
-      </c>
-      <c r="O34" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>417</v>
-      </c>
-      <c r="B35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" t="s">
-        <v>241</v>
-      </c>
-      <c r="J35" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" t="s">
-        <v>530</v>
-      </c>
-      <c r="M35" t="s">
-        <v>256</v>
-      </c>
-      <c r="N35" t="s">
-        <v>255</v>
-      </c>
-      <c r="O35" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>418</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" t="s">
-        <v>243</v>
-      </c>
-      <c r="J36" t="s">
-        <v>242</v>
-      </c>
-      <c r="K36" t="s">
-        <v>530</v>
-      </c>
-      <c r="M36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N36" t="s">
-        <v>257</v>
-      </c>
-      <c r="O36" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
-        <v>419</v>
-      </c>
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" t="s">
-        <v>245</v>
-      </c>
-      <c r="J37" t="s">
-        <v>244</v>
-      </c>
-      <c r="K37" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>420</v>
-      </c>
-      <c r="B38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" t="s">
-        <v>190</v>
-      </c>
-      <c r="I38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" t="s">
-        <v>246</v>
-      </c>
-      <c r="K38" t="s">
-        <v>530</v>
-      </c>
-      <c r="M38" s="73" t="s">
-        <v>883</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>421</v>
-      </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" t="s">
-        <v>248</v>
-      </c>
-      <c r="J39" t="s">
-        <v>247</v>
-      </c>
-      <c r="K39" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" t="s">
-        <v>422</v>
-      </c>
-      <c r="B40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" t="s">
-        <v>237</v>
-      </c>
-      <c r="J40" t="s">
-        <v>236</v>
-      </c>
-      <c r="K40" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" t="s">
-        <v>423</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>424</v>
-      </c>
-      <c r="B42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" t="s">
-        <v>425</v>
-      </c>
-      <c r="B43" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" t="s">
-        <v>426</v>
-      </c>
-      <c r="B44" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" t="s">
-        <v>427</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" t="s">
-        <v>428</v>
-      </c>
-      <c r="B46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" t="s">
-        <v>429</v>
-      </c>
-      <c r="B47" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" t="s">
-        <v>430</v>
-      </c>
-      <c r="B48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>431</v>
-      </c>
-      <c r="B49" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>432</v>
-      </c>
-      <c r="B50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>433</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>434</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>435</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>436</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>437</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>438</v>
-      </c>
-      <c r="B56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1">
-      <c r="A57" t="s">
-        <v>548</v>
-      </c>
-      <c r="B57" t="s">
-        <v>549</v>
-      </c>
-      <c r="D57" t="s">
-        <v>550</v>
-      </c>
-      <c r="E57" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>439</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" t="s">
-        <v>551</v>
-      </c>
-      <c r="E58" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1">
-      <c r="A59" t="s">
-        <v>440</v>
-      </c>
-      <c r="B59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>441</v>
-      </c>
-      <c r="B60" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>442</v>
-      </c>
-      <c r="B61" t="s">
-        <v>269</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>443</v>
-      </c>
-      <c r="B62" t="s">
-        <v>270</v>
-      </c>
-      <c r="C62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>444</v>
-      </c>
-      <c r="B63" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>445</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>446</v>
-      </c>
-      <c r="B65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>447</v>
-      </c>
-      <c r="B66" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>448</v>
-      </c>
-      <c r="B67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>449</v>
-      </c>
-      <c r="B68" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>450</v>
-      </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>451</v>
-      </c>
-      <c r="B70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>535</v>
-      </c>
-      <c r="B71" t="s">
-        <v>533</v>
-      </c>
-      <c r="C71" t="s">
-        <v>534</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>388</v>
-      </c>
-      <c r="B72" t="s">
-        <v>256</v>
-      </c>
-      <c r="C72" t="s">
-        <v>255</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" t="s">
-        <v>257</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>536</v>
+      <c r="D39" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="I3:O39">
+    <sortCondition ref="I3:I39"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7209,9 +6733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7225,11 +6749,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7240,84 +6764,84 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -7328,7 +6852,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -7339,108 +6863,97 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" t="s">
         <v>523</v>
       </c>
-      <c r="B17" t="s">
-        <v>526</v>
-      </c>
       <c r="C17" t="s">
-        <v>528</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>536</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
         <v>524</v>
       </c>
-      <c r="B18" t="s">
-        <v>525</v>
-      </c>
-      <c r="C18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="71" customFormat="1">
-      <c r="A19" s="71" t="s">
-        <v>891</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>880</v>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" s="70" customFormat="1">
+      <c r="A19" s="70" t="s">
+        <v>869</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>862</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>890</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>529</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>892</v>
+        <v>868</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7477,11 +6990,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7492,65 +7005,65 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -7558,95 +7071,95 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -7657,608 +7170,608 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B26" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B54" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B57" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="D57" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E58" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F59" s="65" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B60" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="C60" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E60" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="F60" s="65" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B61" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="D61" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="B62" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="B63" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="B65" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="C65" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="E65" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="F65" s="65" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="19" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="65" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="19" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="G67" s="74" t="s">
-        <v>894</v>
+        <v>361</v>
+      </c>
+      <c r="G67" s="71" t="s">
+        <v>872</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/03 아스콘.xlsx
+++ b/03 아스콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AJ_003" sheetId="22" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="911">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -243,9 +243,6 @@
     <t>100-558</t>
   </si>
   <si>
-    <t>남양아스콘(주)</t>
-  </si>
-  <si>
     <t>인성에이앤티(주)</t>
   </si>
   <si>
@@ -2856,6 +2853,87 @@
   </si>
   <si>
     <t>AS_5F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-08 견적서 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-14설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08부터 사용료 부과 (김선래)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-586</t>
+  </si>
+  <si>
+    <t>AS_477</t>
+  </si>
+  <si>
+    <t>100-560</t>
+  </si>
+  <si>
+    <t>100-546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양아스콘㈜-공주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양아스콘㈜-세종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여아스콘(유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아산아스콘 주식회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동아스콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS_476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성아스콘주식회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이명호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2954,7 +3032,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2982,6 +3060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,7 +3377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3510,6 +3594,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3537,23 +3654,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3855,11 +3957,11 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3875,147 +3977,147 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>665</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>666</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="29"/>
       <c r="B3" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="87" t="s">
+        <v>823</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="76" t="s">
-        <v>824</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="C4" s="34" t="s">
         <v>671</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="85" t="s">
         <v>673</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="74" t="s">
-        <v>674</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="29" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A5" s="88"/>
+      <c r="B5" s="52" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="52" t="s">
+      <c r="C5" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>678</v>
-      </c>
       <c r="E5" s="38"/>
-      <c r="F5" s="75"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="39"/>
       <c r="H5" s="29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="29"/>
       <c r="B6" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>681</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>682</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>683</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>684</v>
       </c>
       <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="29"/>
       <c r="B7" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="29"/>
       <c r="B8" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>689</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>690</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>691</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>692</v>
       </c>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="29"/>
       <c r="B9" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>694</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>695</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="44" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="29"/>
@@ -4023,55 +4125,55 @@
     <row r="10" spans="1:8">
       <c r="A10" s="29"/>
       <c r="B10" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>697</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>698</v>
       </c>
       <c r="D10" s="69"/>
       <c r="E10" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="F10" s="56" t="s">
         <v>699</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>700</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="60" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="29"/>
       <c r="B11" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>701</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="43" t="s">
         <v>702</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>703</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="29"/>
       <c r="B12" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>705</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="43" t="s">
         <v>706</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>707</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="29"/>
@@ -4079,17 +4181,17 @@
     <row r="13" spans="1:8">
       <c r="A13" s="29"/>
       <c r="B13" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="D13" s="43" t="s">
         <v>710</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>711</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="44" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="29"/>
@@ -4097,73 +4199,73 @@
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="29"/>
       <c r="B14" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="33" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="76" t="s">
-        <v>824</v>
+      <c r="A15" s="87" t="s">
+        <v>823</v>
       </c>
       <c r="B15" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="85" t="s">
         <v>718</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="74" t="s">
+      <c r="G15" s="83" t="s">
         <v>719</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A16" s="88"/>
+      <c r="B16" s="52" t="s">
         <v>720</v>
       </c>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="52" t="s">
+      <c r="C16" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="38" t="s">
         <v>722</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>723</v>
-      </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="73"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="29"/>
       <c r="B17" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>725</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>726</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="29"/>
@@ -4171,37 +4273,37 @@
     <row r="18" spans="1:8">
       <c r="A18" s="29"/>
       <c r="B18" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>729</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>730</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44" t="s">
+        <v>730</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>731</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="29"/>
       <c r="B19" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>733</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="D19" s="43" t="s">
         <v>734</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>735</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="44" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="29"/>
@@ -4209,37 +4311,37 @@
     <row r="20" spans="1:8">
       <c r="A20" s="29"/>
       <c r="B20" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>737</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>738</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>739</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
+        <v>739</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>740</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="29"/>
       <c r="B21" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="D21" s="43" t="s">
         <v>743</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>744</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="29"/>
@@ -4247,17 +4349,17 @@
     <row r="22" spans="1:8">
       <c r="A22" s="29"/>
       <c r="B22" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>746</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="D22" s="43" t="s">
         <v>747</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>748</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="29"/>
@@ -4265,17 +4367,17 @@
     <row r="23" spans="1:8">
       <c r="A23" s="29"/>
       <c r="B23" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="43" t="s">
         <v>751</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>752</v>
       </c>
       <c r="E23" s="43"/>
       <c r="F23" s="44" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="29"/>
@@ -4283,37 +4385,37 @@
     <row r="24" spans="1:8">
       <c r="A24" s="29"/>
       <c r="B24" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>755</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>756</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="29"/>
       <c r="B25" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>759</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>545</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>760</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="29"/>
@@ -4321,37 +4423,37 @@
     <row r="26" spans="1:8">
       <c r="A26" s="29"/>
       <c r="B26" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>762</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>763</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
+        <v>763</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>764</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="29"/>
       <c r="B27" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>766</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>767</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>768</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="29"/>
@@ -4359,17 +4461,17 @@
     <row r="28" spans="1:8">
       <c r="A28" s="29"/>
       <c r="B28" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>770</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="D28" s="43" t="s">
         <v>771</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>772</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G28" s="44"/>
       <c r="H28" s="29"/>
@@ -4377,37 +4479,37 @@
     <row r="29" spans="1:8">
       <c r="A29" s="29"/>
       <c r="B29" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>774</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="D29" s="43" t="s">
         <v>775</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>776</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="44" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="29"/>
       <c r="B30" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>779</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>780</v>
       </c>
       <c r="D30" s="43" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="29"/>
@@ -4415,17 +4517,17 @@
     <row r="31" spans="1:8">
       <c r="A31" s="29"/>
       <c r="B31" s="42" t="s">
+        <v>781</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="D31" s="43" t="s">
         <v>783</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>784</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="44" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G31" s="44"/>
       <c r="H31" s="29"/>
@@ -4433,75 +4535,75 @@
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="29"/>
       <c r="B32" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>786</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="D32" s="32" t="s">
         <v>787</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>788</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="H32" s="47" t="s">
         <v>789</v>
       </c>
-      <c r="H32" s="47" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="87" t="s">
+        <v>823</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="76" t="s">
-        <v>824</v>
-      </c>
-      <c r="B33" s="51" t="s">
+      <c r="C33" s="34" t="s">
         <v>791</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>792</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="85" t="s">
         <v>793</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="74" t="s">
+      <c r="G33" s="36" t="s">
         <v>794</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A34" s="88"/>
+      <c r="B34" s="52" t="s">
         <v>795</v>
       </c>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A34" s="77"/>
-      <c r="B34" s="52" t="s">
+      <c r="C34" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="D34" s="38" t="s">
         <v>797</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>798</v>
-      </c>
       <c r="E34" s="38"/>
-      <c r="F34" s="75"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="39"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="29"/>
       <c r="B35" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>799</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>800</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="29"/>
@@ -4509,57 +4611,57 @@
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="D36" s="32" t="s">
         <v>803</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>804</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="29" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="87" t="s">
+        <v>823</v>
+      </c>
+      <c r="B37" s="51" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="76" t="s">
-        <v>824</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="C37" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>807</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>808</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="48" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A38" s="77"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="52" t="s">
+        <v>809</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>810</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>811</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="49" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="29"/>
@@ -4567,41 +4669,41 @@
     <row r="39" spans="1:8">
       <c r="A39" s="29"/>
       <c r="B39" s="40" t="s">
+        <v>812</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>813</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>814</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="45" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="29"/>
       <c r="B40" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="D40" s="43" t="s">
         <v>818</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>819</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="44" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G40" s="44"/>
       <c r="H40" s="29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4614,30 +4716,30 @@
     </row>
     <row r="42" spans="1:8">
       <c r="B42" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="D42" s="47" t="s">
         <v>864</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>865</v>
-      </c>
       <c r="G42" s="29" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D43" s="47" t="s">
+        <v>865</v>
+      </c>
+      <c r="G43" s="29" t="s">
         <v>866</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -4662,11 +4764,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4683,11 +4785,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="39" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -4702,98 +4804,98 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -4806,101 +4908,101 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>71</v>
+        <v>898</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>40</v>
@@ -4910,120 +5012,120 @@
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="19"/>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="19"/>
@@ -5031,38 +5133,38 @@
     <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="50"/>
       <c r="B28" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>41</v>
@@ -5072,62 +5174,62 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="19"/>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="19"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>20</v>
@@ -5143,65 +5245,65 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="19"/>
       <c r="H38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="19"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>39</v>
@@ -5209,163 +5311,163 @@
       <c r="E40" s="12"/>
       <c r="F40" s="19"/>
       <c r="H40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="19"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="19"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="19"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="19"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="19"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="19"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="19"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="B49" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="B50" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1">
       <c r="B52" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>68</v>
@@ -5375,84 +5477,84 @@
         <v>67</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="19"/>
       <c r="H54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="B55" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="H56" t="s">
         <v>551</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="H56" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1">
       <c r="B57" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>70</v>
@@ -5462,74 +5564,74 @@
         <v>69</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="B59" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="20"/>
       <c r="B60" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="78" t="s">
-        <v>663</v>
+      <c r="A61" s="89" t="s">
+        <v>662</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>38</v>
@@ -5538,149 +5640,222 @@
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A62" s="79"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="56" t="s">
+        <v>827</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1">
+      <c r="A63" s="90"/>
+      <c r="B63" s="53" t="s">
+        <v>824</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>825</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>832</v>
+      </c>
+      <c r="E63" s="55" t="s">
         <v>828</v>
       </c>
-      <c r="F62" s="20" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="3" customFormat="1">
-      <c r="A63" s="79"/>
-      <c r="B63" s="53" t="s">
-        <v>825</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>826</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>833</v>
-      </c>
-      <c r="E63" s="55" t="s">
+      <c r="F63" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="F63" s="20" t="s">
-        <v>830</v>
-      </c>
       <c r="H63" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" hidden="1">
-      <c r="A64" s="79"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="56" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F64" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="80"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="C65" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="D65" s="59" t="s">
-        <v>594</v>
-      </c>
-      <c r="E65" s="59" t="s">
-        <v>596</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" hidden="1">
       <c r="A66" s="60"/>
       <c r="B66" s="61" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="62"/>
       <c r="E66" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F66" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H66" s="64"/>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="54" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C67" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="D67" s="55" t="s">
         <v>586</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="E67" s="55" t="s">
         <v>587</v>
       </c>
-      <c r="E67" s="55" t="s">
-        <v>588</v>
-      </c>
       <c r="F67" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H67" s="64" t="s">
+        <v>660</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="20"/>
       <c r="B68" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="D68" s="55" t="s">
         <v>597</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>599</v>
-      </c>
-      <c r="D68" s="55" t="s">
-        <v>598</v>
       </c>
       <c r="E68" s="55"/>
       <c r="F68" s="20"/>
       <c r="H68" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="E72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H72" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="80" customFormat="1">
+      <c r="A74" s="78"/>
+      <c r="B74" s="79" t="s">
+        <v>895</v>
+      </c>
+      <c r="C74" s="79" t="s">
+        <v>896</v>
+      </c>
+      <c r="E74" s="80" t="s">
+        <v>902</v>
+      </c>
+      <c r="H74" s="81" t="s">
+        <v>892</v>
+      </c>
+      <c r="I74" s="82" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>897</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="I75" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="E76" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="B77" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E77" t="s">
+        <v>908</v>
+      </c>
+      <c r="I77" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8">
+      <c r="E82" t="s">
+        <v>890</v>
+      </c>
+      <c r="H82" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8">
+      <c r="E83" t="s">
+        <v>903</v>
+      </c>
+      <c r="H83" t="s">
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -5697,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
@@ -5722,40 +5897,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="83">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="74">
         <f>COUNTA(C3:C200)</f>
         <v>35</v>
       </c>
-      <c r="D2" s="84" t="s">
-        <v>886</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="81">
+      <c r="D2" s="92" t="s">
+        <v>885</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="72">
         <f>COUNTA(J3:J199)</f>
         <v>32</v>
       </c>
-      <c r="K2" s="84" t="s">
-        <v>887</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="K2" s="92" t="s">
+        <v>886</v>
+      </c>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>29</v>
@@ -5764,796 +5939,796 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
         <v>526</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" t="s">
         <v>526</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
+        <v>525</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" t="s">
         <v>526</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
+        <v>525</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
         <v>526</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" t="s">
+        <v>526</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" t="s">
-        <v>527</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="J19" t="s">
         <v>880</v>
       </c>
-      <c r="J19" t="s">
-        <v>881</v>
-      </c>
       <c r="K19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
+        <v>525</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
         <v>526</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>7</v>
@@ -6562,129 +6737,129 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
+        <v>525</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" t="s">
         <v>526</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J34" t="s">
-        <v>263</v>
-      </c>
-      <c r="K34" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I35" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="J35" t="s">
         <v>877</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
+        <v>526</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="K35" t="s">
-        <v>527</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
         <v>53</v>
       </c>
       <c r="D36" t="s">
+        <v>525</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="I36" s="75" t="s">
+        <v>856</v>
+      </c>
+      <c r="J36" s="73"/>
+      <c r="K36" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="I36" s="85" t="s">
+      <c r="L36" s="64" t="s">
         <v>857</v>
       </c>
-      <c r="J36" s="82"/>
-      <c r="K36" s="64" t="s">
-        <v>527</v>
-      </c>
-      <c r="L36" s="64" t="s">
-        <v>858</v>
-      </c>
-      <c r="M36" s="82" t="s">
+      <c r="M36" s="73" t="s">
+        <v>883</v>
+      </c>
+      <c r="N36" s="73" t="s">
         <v>884</v>
       </c>
-      <c r="N36" s="82" t="s">
-        <v>885</v>
-      </c>
       <c r="O36" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>3</v>
@@ -6693,27 +6868,27 @@
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E38" t="s">
+        <v>537</v>
+      </c>
+      <c r="F38" t="s">
         <v>538</v>
-      </c>
-      <c r="F38" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -6749,11 +6924,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6764,84 +6939,84 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -6852,7 +7027,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -6863,97 +7038,97 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" t="s">
         <v>521</v>
       </c>
-      <c r="B18" t="s">
-        <v>522</v>
-      </c>
       <c r="C18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" s="70" customFormat="1">
       <c r="A19" s="70" t="s">
+        <v>868</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>861</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>867</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>862</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>868</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6990,11 +7165,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7005,65 +7180,65 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -7071,95 +7246,95 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -7170,608 +7345,608 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
+        <v>540</v>
+      </c>
+      <c r="B57" t="s">
+        <v>539</v>
+      </c>
+      <c r="D57" t="s">
         <v>541</v>
       </c>
-      <c r="B57" t="s">
-        <v>540</v>
-      </c>
-      <c r="D57" t="s">
-        <v>542</v>
-      </c>
       <c r="F57" s="65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F59" s="65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B60" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F60" s="65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B61" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D61" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>839</v>
+      </c>
+      <c r="B62" t="s">
         <v>840</v>
       </c>
-      <c r="B62" t="s">
-        <v>841</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B63" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F64" s="65" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
+        <v>844</v>
+      </c>
+      <c r="B65" t="s">
+        <v>842</v>
+      </c>
+      <c r="C65" t="s">
+        <v>843</v>
+      </c>
+      <c r="E65" t="s">
         <v>845</v>
       </c>
-      <c r="B65" t="s">
-        <v>843</v>
-      </c>
-      <c r="C65" t="s">
-        <v>844</v>
-      </c>
-      <c r="E65" t="s">
-        <v>846</v>
-      </c>
       <c r="F65" s="65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="65" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" t="s">
+        <v>870</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="G67" s="71" t="s">
         <v>871</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="H67" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="F67" s="67" t="s">
-        <v>361</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>872</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
   </sheetData>
